--- a/insurance/GROUP_04_SII_project.xlsx
+++ b/insurance/GROUP_04_SII_project.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\PoliMi\Magistrale\Insurance&amp;Econometrics\Insurance\Labs\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7D7556-6F16-40AF-A285-A208D70123BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8722EE5E-C8B1-4ACF-9390-0CF9D0DE95AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" tabRatio="500" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -268,10 +268,10 @@
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000%"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="0.0"/>
-    <numFmt numFmtId="173" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00000\ _€_-;\-* #,##0.00000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00000\ _€_-;\-* #,##0.00000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -805,7 +805,7 @@
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -854,16 +854,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -877,24 +867,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -905,9 +883,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -924,25 +899,57 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -951,15 +958,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1303,7 +1301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -1320,16 +1318,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -4478,16 +4476,16 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="24" t="s">
+      <c r="A123" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="B123" s="25"/>
-      <c r="C123" s="25"/>
-      <c r="D123" s="25"/>
-      <c r="E123" s="25"/>
-      <c r="F123" s="25"/>
-      <c r="G123" s="25"/>
-      <c r="H123" s="25"/>
+      <c r="B123" s="70"/>
+      <c r="C123" s="70"/>
+      <c r="D123" s="70"/>
+      <c r="E123" s="70"/>
+      <c r="F123" s="70"/>
+      <c r="G123" s="70"/>
+      <c r="H123" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4502,7 +4500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAD250D-759D-4799-9472-5053B74BC762}">
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
@@ -4519,16 +4517,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -7677,16 +7675,16 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="24" t="s">
+      <c r="A123" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="B123" s="25"/>
-      <c r="C123" s="25"/>
-      <c r="D123" s="25"/>
-      <c r="E123" s="25"/>
-      <c r="F123" s="25"/>
-      <c r="G123" s="25"/>
-      <c r="H123" s="25"/>
+      <c r="B123" s="70"/>
+      <c r="C123" s="70"/>
+      <c r="D123" s="70"/>
+      <c r="E123" s="70"/>
+      <c r="F123" s="70"/>
+      <c r="G123" s="70"/>
+      <c r="H123" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7701,8 +7699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F913A49-EA44-4963-BCFF-524C51BD3A2F}">
   <dimension ref="A1:S171"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7722,21 +7720,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="L1" s="27" t="s">
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="L1" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="Q1" s="27" t="s">
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="Q1" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
@@ -15526,8 +15524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8573D452-C87C-408F-8FCB-96206894331F}">
   <dimension ref="B2:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15539,140 +15537,140 @@
   <sheetData>
     <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="46"/>
+      <c r="C3" s="76"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="30">
         <v>70000</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="36">
         <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="36">
         <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="37">
         <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="32">
         <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="32">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="36">
         <v>0.02</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11" s="38">
         <v>20</v>
       </c>
-      <c r="D11" s="28"/>
+      <c r="D11" s="24"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="41">
         <v>0.15</v>
       </c>
-      <c r="D12" s="28"/>
+      <c r="D12" s="24"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="38">
         <v>50</v>
       </c>
-      <c r="D13" s="28"/>
+      <c r="D13" s="24"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14" s="39">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="44">
+      <c r="C15" s="40">
         <v>1.4E-2</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="29"/>
+      <c r="C16" s="25"/>
     </row>
     <row r="17" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="48"/>
+      <c r="C17" s="74"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="30" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="38">
+      <c r="C20" s="34">
         <v>60</v>
       </c>
     </row>
@@ -15689,8 +15687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD73126-F20D-45CA-BC7D-AAAD6494E8F5}">
   <dimension ref="A1:AA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q2" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="S2" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15714,78 +15712,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52"/>
-      <c r="B1" s="59" t="s">
+      <c r="A1" s="44"/>
+      <c r="B1" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="I1" s="70" t="s">
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="I1" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="71"/>
-      <c r="L1" s="79" t="s">
+      <c r="J1" s="79"/>
+      <c r="L1" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="82"/>
       <c r="T1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="49.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
-      <c r="B2" s="60" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="72" t="s">
+      <c r="H2" s="43"/>
+      <c r="I2" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="73" t="s">
+      <c r="J2" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="L2" s="82" t="s">
+      <c r="L2" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="83" t="s">
+      <c r="M2" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="N2" s="83" t="s">
+      <c r="N2" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="83" t="s">
+      <c r="O2" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="P2" s="83" t="s">
+      <c r="P2" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="Q2" s="83" t="s">
+      <c r="Q2" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="R2" s="84" t="s">
+      <c r="R2" s="68" t="s">
         <v>64</v>
       </c>
       <c r="T2" t="s">
@@ -15799,60 +15797,60 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A3" s="64">
+      <c r="A3" s="55">
         <v>0</v>
       </c>
-      <c r="B3" s="53">
+      <c r="B3" s="45">
         <f>DATA!$C$4*DATA!$C5</f>
         <v>56000</v>
       </c>
-      <c r="C3" s="56">
+      <c r="C3" s="48">
         <f>B3*(1-DATA!$C$14)</f>
         <v>54768</v>
       </c>
-      <c r="D3" s="56">
+      <c r="D3" s="48">
         <f>DATA!$C$4*DATA!$C6</f>
         <v>14000</v>
       </c>
-      <c r="E3" s="56">
+      <c r="E3" s="48">
         <f>D3*(1-DATA!$C$14)</f>
         <v>13692</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="48">
         <f xml:space="preserve"> B3+D3</f>
         <v>70000</v>
       </c>
-      <c r="G3" s="39">
+      <c r="G3" s="35">
         <f>C3+E3</f>
         <v>68460</v>
       </c>
-      <c r="I3" s="53">
+      <c r="I3" s="45">
         <v>1</v>
       </c>
-      <c r="J3" s="30">
+      <c r="J3" s="26">
         <v>1</v>
       </c>
-      <c r="L3" s="53">
+      <c r="L3" s="45">
         <f>(G3-DATA!$C$11)*'BASE CASE'!I3*(1-'BASE CASE'!J3)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="56">
+      <c r="M3" s="48">
         <v>0</v>
       </c>
-      <c r="N3" s="56">
+      <c r="N3" s="48">
         <v>0</v>
       </c>
-      <c r="O3" s="56">
+      <c r="O3" s="48">
         <v>0</v>
       </c>
-      <c r="P3" s="56">
+      <c r="P3" s="48">
         <v>0</v>
       </c>
-      <c r="Q3" s="56">
+      <c r="Q3" s="48">
         <f>SUM(L3:P3)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="39">
+      <c r="R3" s="35">
         <f>Q3*'EIOPA RATES'!G12</f>
         <v>0</v>
       </c>
@@ -15867,609 +15865,609 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A4" s="65">
+      <c r="A4" s="56">
         <v>1</v>
       </c>
-      <c r="B4" s="54">
+      <c r="B4" s="46">
         <f>$B3*EXP('EIOPA RATES'!Q12)</f>
         <v>57200.639999999992</v>
       </c>
-      <c r="C4" s="57">
+      <c r="C4" s="49">
         <f>B4*(1-DATA!$C$14)</f>
         <v>55942.22591999999</v>
       </c>
-      <c r="D4" s="57">
+      <c r="D4" s="49">
         <f>$D3*EXP('EIOPA RATES'!Q12)</f>
         <v>14300.159999999998</v>
       </c>
-      <c r="E4" s="57">
+      <c r="E4" s="49">
         <f>D4*(1-DATA!$C$14)</f>
         <v>13985.556479999997</v>
       </c>
-      <c r="F4" s="57">
+      <c r="F4" s="49">
         <f t="shared" ref="F4:F53" si="0" xml:space="preserve"> B4+D4</f>
         <v>71500.799999999988</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="26">
         <f t="shared" ref="G4:G53" si="1">C4+E4</f>
         <v>69927.782399999982</v>
       </c>
-      <c r="I4" s="54">
+      <c r="I4" s="46">
         <f>'MORTALITY RATES MALE'!B64/'MORTALITY RATES MALE'!$B$63</f>
         <v>0.99405488784626261</v>
       </c>
-      <c r="J4" s="68">
+      <c r="J4" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J3</f>
         <v>0.85</v>
       </c>
-      <c r="L4" s="74">
-        <f>(G4-DATA!$C$11)*'BASE CASE'!I4*J3*DATA!$C$12</f>
-        <v>10423.825918981936</v>
-      </c>
-      <c r="M4" s="57">
+      <c r="L4" s="63">
+        <f>(G4-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I4*J3*DATA!$C$12</f>
+        <v>10426.748440352207</v>
+      </c>
+      <c r="M4" s="49">
         <f>MAX(G4,DATA!$C$4)*I3*(1-'MORTALITY RATES MALE'!B64/'MORTALITY RATES MALE'!B63)</f>
         <v>416.15785076161706</v>
       </c>
-      <c r="N4" s="57">
+      <c r="N4" s="49">
         <v>0</v>
       </c>
-      <c r="O4" s="77">
+      <c r="O4" s="65">
         <f>G4*DATA!$C$15*J4*I4</f>
         <v>827.19344130254103</v>
       </c>
-      <c r="P4" s="57">
+      <c r="P4" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A4)*'BASE CASE'!I4*'BASE CASE'!J4</f>
         <v>43.092279388135488</v>
       </c>
-      <c r="Q4" s="57">
+      <c r="Q4" s="49">
         <f t="shared" ref="Q4:Q53" si="2">SUM(L4:P4)</f>
-        <v>11710.269490434232</v>
-      </c>
-      <c r="R4" s="30">
+        <v>11713.192011804502</v>
+      </c>
+      <c r="R4" s="26">
         <f>Q4*'EIOPA RATES'!G12</f>
-        <v>11464.471227320482</v>
+        <v>11467.332405040437</v>
       </c>
       <c r="T4">
         <f>F4-G4</f>
         <v>1573.0176000000065</v>
       </c>
-      <c r="U4" s="50">
+      <c r="U4" s="42">
         <f>T4*I4*J4</f>
         <v>1329.1159588559731</v>
       </c>
-      <c r="V4" s="50">
+      <c r="V4" s="42">
         <f>U4*'EIOPA RATES'!G12</f>
         <v>1301.2178481907633</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A5" s="65">
+      <c r="A5" s="56">
         <v>2</v>
       </c>
-      <c r="B5" s="54">
+      <c r="B5" s="46">
         <f>$B4*EXP('EIOPA RATES'!Q13)</f>
         <v>58366.404773599999</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="49">
         <f>B5*(1-DATA!$C$14)</f>
         <v>57082.3438685808</v>
       </c>
-      <c r="D5" s="57">
+      <c r="D5" s="49">
         <f>$D4*EXP('EIOPA RATES'!Q13)</f>
         <v>14591.6011934</v>
       </c>
-      <c r="E5" s="57">
+      <c r="E5" s="49">
         <f>D5*(1-DATA!$C$14)</f>
         <v>14270.5859671452</v>
       </c>
-      <c r="F5" s="57">
+      <c r="F5" s="49">
         <f t="shared" si="0"/>
         <v>72958.005967000005</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="26">
         <f t="shared" si="1"/>
         <v>71352.929835725998</v>
       </c>
-      <c r="I5" s="54">
+      <c r="I5" s="46">
         <f>'MORTALITY RATES MALE'!B65/'MORTALITY RATES MALE'!$B$63</f>
         <v>0.98761702765816139</v>
       </c>
-      <c r="J5" s="68">
+      <c r="J5" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J4</f>
         <v>0.72249999999999992</v>
       </c>
-      <c r="L5" s="74">
-        <f>(G5-DATA!$C$11)*'BASE CASE'!I5*J4*DATA!$C$12</f>
-        <v>8982.326057659755</v>
-      </c>
-      <c r="M5" s="57">
+      <c r="L5" s="63">
+        <f>(G5-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I5*J4*DATA!$C$12</f>
+        <v>8984.7941126118749</v>
+      </c>
+      <c r="M5" s="49">
         <f>MAX(G5,DATA!$C$4)*I4*(1-'MORTALITY RATES MALE'!B65/'MORTALITY RATES MALE'!B64)</f>
         <v>459.36018629379885</v>
       </c>
-      <c r="N5" s="57">
+      <c r="N5" s="49">
         <v>0</v>
       </c>
-      <c r="O5" s="77">
+      <c r="O5" s="65">
         <f>G5*DATA!$C$15*J5*I5</f>
         <v>712.79766216570249</v>
       </c>
-      <c r="P5" s="57">
+      <c r="P5" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A5)*'BASE CASE'!I5*'BASE CASE'!J5</f>
         <v>37.119042795166777</v>
       </c>
-      <c r="Q5" s="57">
+      <c r="Q5" s="49">
         <f t="shared" si="2"/>
-        <v>10191.602948914422</v>
-      </c>
-      <c r="R5" s="30">
+        <v>10194.071003866542</v>
+      </c>
+      <c r="R5" s="26">
         <f>Q5*'EIOPA RATES'!G14</f>
-        <v>9559.0029680098505</v>
+        <v>9561.317829050924</v>
       </c>
       <c r="T5">
         <f t="shared" ref="T5:T53" si="3">F5-G5</f>
         <v>1605.0761312740069</v>
       </c>
-      <c r="U5" s="50">
+      <c r="U5" s="42">
         <f t="shared" ref="U5:U53" si="4">T5*I5*J5</f>
         <v>1145.3073742072395</v>
       </c>
-      <c r="V5" s="50">
+      <c r="V5" s="42">
         <f>U5*'EIOPA RATES'!G13</f>
         <v>1098.872085823858</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A6" s="65">
+      <c r="A6" s="56">
         <v>3</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="46">
         <f>$B5*EXP('EIOPA RATES'!Q14)</f>
         <v>59705.993088318028</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="49">
         <f>B6*(1-DATA!$C$14)</f>
         <v>58392.461240375029</v>
       </c>
-      <c r="D6" s="57">
+      <c r="D6" s="49">
         <f>$D5*EXP('EIOPA RATES'!Q14)</f>
         <v>14926.498272079507</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="49">
         <f>D6*(1-DATA!$C$14)</f>
         <v>14598.115310093757</v>
       </c>
-      <c r="F6" s="57">
+      <c r="F6" s="49">
         <f t="shared" si="0"/>
         <v>74632.491360397529</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="26">
         <f t="shared" si="1"/>
         <v>72990.576550468788</v>
       </c>
-      <c r="I6" s="54">
+      <c r="I6" s="46">
         <f>'MORTALITY RATES MALE'!B66/'MORTALITY RATES MALE'!$B$63</f>
         <v>0.9806435717805343</v>
       </c>
-      <c r="J6" s="68">
+      <c r="J6" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J5</f>
         <v>0.61412499999999992</v>
       </c>
-      <c r="L6" s="74">
-        <f>(G6-DATA!$C$11)*'BASE CASE'!I6*J5*DATA!$C$12</f>
-        <v>7755.1119944791044</v>
-      </c>
-      <c r="M6" s="57">
+      <c r="L6" s="63">
+        <f>(G6-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I6*J5*DATA!$C$12</f>
+        <v>7757.1950285221019</v>
+      </c>
+      <c r="M6" s="49">
         <f>MAX(G6,DATA!$C$4)*I5*(1-'MORTALITY RATES MALE'!B66/'MORTALITY RATES MALE'!B65)</f>
         <v>508.99656505725818</v>
       </c>
-      <c r="N6" s="57">
+      <c r="N6" s="49">
         <v>0</v>
       </c>
-      <c r="O6" s="77">
+      <c r="O6" s="65">
         <f>G6*DATA!$C$15*J6*I6</f>
         <v>615.40751146072773</v>
       </c>
-      <c r="P6" s="57">
+      <c r="P6" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A6)*'BASE CASE'!I6*'BASE CASE'!J6</f>
         <v>31.954975035649777</v>
       </c>
-      <c r="Q6" s="57">
+      <c r="Q6" s="49">
         <f t="shared" si="2"/>
-        <v>8911.4710460327387</v>
-      </c>
-      <c r="R6" s="30">
+        <v>8913.5540800757371</v>
+      </c>
+      <c r="R6" s="26">
         <f>Q6*'EIOPA RATES'!G15</f>
-        <v>8156.1091358825561</v>
+        <v>8158.0156059704568</v>
       </c>
       <c r="T6">
         <f t="shared" si="3"/>
         <v>1641.9148099287413</v>
       </c>
-      <c r="U6" s="50">
+      <c r="U6" s="42">
         <f t="shared" si="4"/>
         <v>988.823053763948</v>
       </c>
-      <c r="V6" s="50">
+      <c r="V6" s="42">
         <f>U6*'EIOPA RATES'!G14</f>
         <v>927.44610962036722</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A7" s="65">
+      <c r="A7" s="56">
         <v>4</v>
       </c>
-      <c r="B7" s="54">
+      <c r="B7" s="46">
         <f>$B6*EXP('EIOPA RATES'!Q15)</f>
         <v>61186.329199827836</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="49">
         <f>B7*(1-DATA!$C$14)</f>
         <v>59840.22995743162</v>
       </c>
-      <c r="D7" s="57">
+      <c r="D7" s="49">
         <f>$D6*EXP('EIOPA RATES'!Q15)</f>
         <v>15296.582299956959</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="49">
         <f>D7*(1-DATA!$C$14)</f>
         <v>14960.057489357905</v>
       </c>
-      <c r="F7" s="57">
+      <c r="F7" s="49">
         <f t="shared" si="0"/>
         <v>76482.911499784794</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="26">
         <f t="shared" si="1"/>
         <v>74800.287446789531</v>
       </c>
-      <c r="I7" s="54">
+      <c r="I7" s="46">
         <f>'MORTALITY RATES MALE'!B67/'MORTALITY RATES MALE'!$B$63</f>
         <v>0.97297384150652355</v>
       </c>
-      <c r="J7" s="68">
+      <c r="J7" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J6</f>
         <v>0.52200624999999989</v>
       </c>
-      <c r="L7" s="74">
-        <f>(G7-DATA!$C$11)*'BASE CASE'!I7*J6*DATA!$C$12</f>
-        <v>6702.4924087840627</v>
-      </c>
-      <c r="M7" s="57">
+      <c r="L7" s="63">
+        <f>(G7-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I7*J6*DATA!$C$12</f>
+        <v>6704.2491398116827</v>
+      </c>
+      <c r="M7" s="49">
         <f>MAX(G7,DATA!$C$4)*I6*(1-'MORTALITY RATES MALE'!B67/'MORTALITY RATES MALE'!B66)</f>
         <v>573.69802913535148</v>
       </c>
-      <c r="N7" s="57">
+      <c r="N7" s="49">
         <v>0</v>
       </c>
-      <c r="O7" s="77">
+      <c r="O7" s="65">
         <f>G7*DATA!$C$15*J7*I7</f>
         <v>531.87327598958097</v>
       </c>
-      <c r="P7" s="57">
+      <c r="P7" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A7)*'BASE CASE'!I7*'BASE CASE'!J7</f>
         <v>27.488279534889315</v>
       </c>
-      <c r="Q7" s="57">
+      <c r="Q7" s="49">
         <f t="shared" si="2"/>
-        <v>7835.5519934438844</v>
-      </c>
-      <c r="R7" s="30">
+        <v>7837.3087244715043</v>
+      </c>
+      <c r="R7" s="26">
         <f>Q7*'EIOPA RATES'!G16</f>
-        <v>6988.3243512100407</v>
+        <v>6989.8911337710033</v>
       </c>
       <c r="T7">
         <f t="shared" si="3"/>
         <v>1682.6240529952629</v>
       </c>
-      <c r="U7" s="50">
+      <c r="U7" s="42">
         <f t="shared" si="4"/>
         <v>854.60210865985732</v>
       </c>
-      <c r="V7" s="50">
+      <c r="V7" s="42">
         <f>U7*'EIOPA RATES'!G15</f>
         <v>782.1635765834875</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A8" s="66">
+      <c r="A8" s="57">
         <v>5</v>
       </c>
-      <c r="B8" s="54">
+      <c r="B8" s="46">
         <f>$B7*EXP('EIOPA RATES'!Q16)</f>
         <v>62789.145091252125</v>
       </c>
-      <c r="C8" s="57">
+      <c r="C8" s="49">
         <f>B8*(1-DATA!$C$14)</f>
         <v>61407.783899244576</v>
       </c>
-      <c r="D8" s="57">
+      <c r="D8" s="49">
         <f>$D7*EXP('EIOPA RATES'!Q16)</f>
         <v>15697.286272813031</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="49">
         <f>D8*(1-DATA!$C$14)</f>
         <v>15351.945974811144</v>
       </c>
-      <c r="F8" s="57">
+      <c r="F8" s="49">
         <f t="shared" si="0"/>
         <v>78486.431364065153</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="26">
         <f t="shared" si="1"/>
         <v>76759.729874055716</v>
       </c>
-      <c r="I8" s="54">
+      <c r="I8" s="46">
         <f>'MORTALITY RATES MALE'!B68/'MORTALITY RATES MALE'!$B$63</f>
         <v>0.96460783683612916</v>
       </c>
-      <c r="J8" s="68">
+      <c r="J8" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J7</f>
         <v>0.44370531249999989</v>
       </c>
-      <c r="L8" s="74">
-        <f>(G8-DATA!$C$11)*'BASE CASE'!I8*J7*DATA!$C$12</f>
-        <v>5796.1286177004786</v>
-      </c>
-      <c r="M8" s="57">
+      <c r="L8" s="63">
+        <f>(G8-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I8*J7*DATA!$C$12</f>
+        <v>5797.6089997801828</v>
+      </c>
+      <c r="M8" s="49">
         <f>MAX(G8,DATA!$C$4)*I7*(1-'MORTALITY RATES MALE'!B68/'MORTALITY RATES MALE'!B67)</f>
         <v>642.17225862456178</v>
       </c>
-      <c r="N8" s="57">
+      <c r="N8" s="49">
         <v>0</v>
       </c>
-      <c r="O8" s="77">
+      <c r="O8" s="65">
         <f>G8*DATA!$C$15*J8*I8</f>
         <v>459.94604412497591</v>
       </c>
-      <c r="P8" s="57">
+      <c r="P8" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A8)*'BASE CASE'!I8*'BASE CASE'!J8</f>
         <v>23.627418711951321</v>
       </c>
-      <c r="Q8" s="57">
+      <c r="Q8" s="49">
         <f t="shared" si="2"/>
-        <v>6921.8743391619673</v>
-      </c>
-      <c r="R8" s="30">
+        <v>6923.3547212416715</v>
+      </c>
+      <c r="R8" s="26">
         <f>Q8*'EIOPA RATES'!G17</f>
-        <v>6011.1617124532004</v>
+        <v>6012.4473203162288</v>
       </c>
       <c r="T8">
         <f t="shared" si="3"/>
         <v>1726.7014900094364</v>
       </c>
-      <c r="U8" s="50">
+      <c r="U8" s="42">
         <f t="shared" si="4"/>
         <v>739.03103788704993</v>
       </c>
-      <c r="V8" s="50">
+      <c r="V8" s="42">
         <f>U8*'EIOPA RATES'!G16</f>
         <v>659.12249739231959</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A9" s="65">
+      <c r="A9" s="56">
         <v>6</v>
       </c>
-      <c r="B9" s="54">
+      <c r="B9" s="46">
         <f>$B8*EXP('EIOPA RATES'!Q17)</f>
         <v>64484.201479729883</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="49">
         <f>B9*(1-DATA!$C$14)</f>
         <v>63065.549047175824</v>
       </c>
-      <c r="D9" s="57">
+      <c r="D9" s="49">
         <f>$D8*EXP('EIOPA RATES'!Q17)</f>
         <v>16121.050369932471</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="49">
         <f>D9*(1-DATA!$C$14)</f>
         <v>15766.387261793956</v>
       </c>
-      <c r="F9" s="57">
+      <c r="F9" s="49">
         <f t="shared" si="0"/>
         <v>80605.251849662352</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="26">
         <f t="shared" si="1"/>
         <v>78831.936308969773</v>
       </c>
-      <c r="I9" s="54">
+      <c r="I9" s="46">
         <f>'MORTALITY RATES MALE'!B69/'MORTALITY RATES MALE'!$B$63</f>
         <v>0.95541701480386487</v>
       </c>
-      <c r="J9" s="68">
+      <c r="J9" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J8</f>
         <v>0.37714951562499988</v>
       </c>
-      <c r="L9" s="74">
-        <f>(G9-DATA!$C$11)*'BASE CASE'!I9*J8*DATA!$C$12</f>
-        <v>5011.5360250040912</v>
-      </c>
-      <c r="M9" s="57">
+      <c r="L9" s="63">
+        <f>(G9-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I9*J8*DATA!$C$12</f>
+        <v>5012.7823604031482</v>
+      </c>
+      <c r="M9" s="49">
         <f>MAX(G9,DATA!$C$4)*I8*(1-'MORTALITY RATES MALE'!B69/'MORTALITY RATES MALE'!B68)</f>
         <v>724.53029707453834</v>
       </c>
-      <c r="N9" s="57">
+      <c r="N9" s="49">
         <v>0</v>
       </c>
-      <c r="O9" s="77">
+      <c r="O9" s="65">
         <f>G9*DATA!$C$15*J9*I9</f>
         <v>397.68275180167683</v>
       </c>
-      <c r="P9" s="57">
+      <c r="P9" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A9)*'BASE CASE'!I9*'BASE CASE'!J9</f>
         <v>20.289790390880245</v>
       </c>
-      <c r="Q9" s="57">
+      <c r="Q9" s="49">
         <f t="shared" si="2"/>
-        <v>6154.0388642711878</v>
-      </c>
-      <c r="R9" s="30">
+        <v>6155.2851996702448</v>
+      </c>
+      <c r="R9" s="26">
         <f>Q9*'EIOPA RATES'!G18</f>
-        <v>5199.5083124199309</v>
+        <v>5200.5613332750781</v>
       </c>
       <c r="T9">
         <f t="shared" si="3"/>
         <v>1773.3155406925798</v>
       </c>
-      <c r="U9" s="50">
+      <c r="U9" s="42">
         <f t="shared" si="4"/>
         <v>638.98776947392116</v>
       </c>
-      <c r="V9" s="50">
+      <c r="V9" s="42">
         <f>U9*'EIOPA RATES'!G17</f>
         <v>554.9159991038706</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A10" s="65">
+      <c r="A10" s="56">
         <v>7</v>
       </c>
-      <c r="B10" s="54">
+      <c r="B10" s="46">
         <f>$B9*EXP('EIOPA RATES'!Q18)</f>
         <v>66280.531867982005</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="49">
         <f>B10*(1-DATA!$C$14)</f>
         <v>64822.360166886399</v>
       </c>
-      <c r="D10" s="57">
+      <c r="D10" s="49">
         <f>$D9*EXP('EIOPA RATES'!Q18)</f>
         <v>16570.132966995501</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="49">
         <f>D10*(1-DATA!$C$14)</f>
         <v>16205.5900417216</v>
       </c>
-      <c r="F10" s="57">
+      <c r="F10" s="49">
         <f t="shared" si="0"/>
         <v>82850.664834977506</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="26">
         <f t="shared" si="1"/>
         <v>81027.950208608003</v>
       </c>
-      <c r="I10" s="54">
+      <c r="I10" s="46">
         <f>'MORTALITY RATES MALE'!B70/'MORTALITY RATES MALE'!$B$63</f>
         <v>0.94527283244424454</v>
       </c>
-      <c r="J10" s="68">
+      <c r="J10" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J9</f>
         <v>0.32057708828124987</v>
       </c>
-      <c r="L10" s="74">
-        <f>(G10-DATA!$C$11)*'BASE CASE'!I10*J9*DATA!$C$12</f>
-        <v>4332.0118176770311</v>
-      </c>
-      <c r="M10" s="57">
+      <c r="L10" s="63">
+        <f>(G10-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I10*J9*DATA!$C$12</f>
+        <v>4333.0599546982476</v>
+      </c>
+      <c r="M10" s="49">
         <f>MAX(G10,DATA!$C$4)*I9*(1-'MORTALITY RATES MALE'!B70/'MORTALITY RATES MALE'!B69)</f>
         <v>821.96230314236141</v>
       </c>
-      <c r="N10" s="57">
+      <c r="N10" s="49">
         <v>0</v>
       </c>
-      <c r="O10" s="77">
+      <c r="O10" s="65">
         <f>G10*DATA!$C$15*J10*I10</f>
         <v>343.75778672314294</v>
       </c>
-      <c r="P10" s="57">
+      <c r="P10" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A10)*'BASE CASE'!I10*'BASE CASE'!J10</f>
         <v>17.404472413315965</v>
       </c>
-      <c r="Q10" s="57">
+      <c r="Q10" s="49">
         <f t="shared" si="2"/>
-        <v>5515.1363799558521</v>
-      </c>
-      <c r="R10" s="30">
+        <v>5516.1845169770686</v>
+      </c>
+      <c r="R10" s="26">
         <f>Q10*'EIOPA RATES'!G19</f>
-        <v>4529.7101389224026</v>
+        <v>4530.5709983037295</v>
       </c>
       <c r="T10">
         <f t="shared" si="3"/>
         <v>1822.7146263695031</v>
       </c>
-      <c r="U10" s="50">
+      <c r="U10" s="42">
         <f t="shared" si="4"/>
         <v>552.34233916952485</v>
       </c>
-      <c r="V10" s="50">
+      <c r="V10" s="42">
         <f>U10*'EIOPA RATES'!G18</f>
         <v>466.67053087477188</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A11" s="65">
+      <c r="A11" s="56">
         <v>8</v>
       </c>
-      <c r="B11" s="54">
+      <c r="B11" s="46">
         <f>$B10*EXP('EIOPA RATES'!Q19)</f>
         <v>68182.649177415398</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="49">
         <f>B11*(1-DATA!$C$14)</f>
         <v>66682.630895512251</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="49">
         <f>$D10*EXP('EIOPA RATES'!Q19)</f>
         <v>17045.66229435385</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="49">
         <f>D11*(1-DATA!$C$14)</f>
         <v>16670.657723878063</v>
       </c>
-      <c r="F11" s="57">
+      <c r="F11" s="49">
         <f t="shared" si="0"/>
         <v>85228.311471769252</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="26">
         <f t="shared" si="1"/>
         <v>83353.28861939031</v>
       </c>
-      <c r="I11" s="54">
+      <c r="I11" s="46">
         <f>'MORTALITY RATES MALE'!B71/'MORTALITY RATES MALE'!$B$63</f>
         <v>0.93405745870557233</v>
       </c>
-      <c r="J11" s="68">
+      <c r="J11" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J10</f>
         <v>0.2724905250390624</v>
       </c>
-      <c r="L11" s="74">
-        <f>(G11-DATA!$C$11)*'BASE CASE'!I11*J10*DATA!$C$12</f>
-        <v>3742.9657466360386</v>
-      </c>
-      <c r="M11" s="57">
+      <c r="L11" s="63">
+        <f>(G11-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I11*J10*DATA!$C$12</f>
+        <v>3743.8460926520124</v>
+      </c>
+      <c r="M11" s="49">
         <f>MAX(G11,DATA!$C$4)*I10*(1-'MORTALITY RATES MALE'!B71/'MORTALITY RATES MALE'!B70)</f>
         <v>934.83828421386886</v>
       </c>
-      <c r="N11" s="57">
+      <c r="N11" s="49">
         <v>0</v>
       </c>
-      <c r="O11" s="77">
+      <c r="O11" s="65">
         <f>G11*DATA!$C$15*J11*I11</f>
         <v>297.01321533918076</v>
       </c>
-      <c r="P11" s="57">
+      <c r="P11" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A11)*'BASE CASE'!I11*'BASE CASE'!J11</f>
         <v>14.910643161939085</v>
       </c>
-      <c r="Q11" s="57">
+      <c r="Q11" s="49">
         <f t="shared" si="2"/>
-        <v>4989.7278893510274</v>
-      </c>
-      <c r="R11" s="30">
+        <v>4990.6082353670008</v>
+      </c>
+      <c r="R11" s="26">
         <f>Q11*'EIOPA RATES'!G20</f>
-        <v>3981.760765398481</v>
+        <v>3982.4632740931652</v>
       </c>
       <c r="T11">
         <f t="shared" si="3"/>
         <v>1875.022852378941</v>
       </c>
-      <c r="U11" s="50">
+      <c r="U11" s="42">
         <f t="shared" si="4"/>
         <v>477.23420519004083</v>
       </c>
-      <c r="V11" s="50">
+      <c r="V11" s="42">
         <f>U11*'EIOPA RATES'!G19</f>
         <v>391.96358330257766</v>
       </c>
@@ -16478,81 +16476,81 @@
       </c>
       <c r="AA11">
         <f>SUM(R3:R53)</f>
-        <v>133827.9754033499</v>
+        <v>133843.48225952542</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A12" s="65">
-        <v>9</v>
-      </c>
-      <c r="B12" s="54">
+      <c r="A12" s="56">
+        <v>9</v>
+      </c>
+      <c r="B12" s="46">
         <f>$B11*EXP('EIOPA RATES'!Q20)</f>
         <v>70176.180405377439</v>
       </c>
-      <c r="C12" s="57">
+      <c r="C12" s="49">
         <f>B12*(1-DATA!$C$14)</f>
         <v>68632.304436459133</v>
       </c>
-      <c r="D12" s="57">
+      <c r="D12" s="49">
         <f>$D11*EXP('EIOPA RATES'!Q20)</f>
         <v>17544.04510134436</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="49">
         <f>D12*(1-DATA!$C$14)</f>
         <v>17158.076109114783</v>
       </c>
-      <c r="F12" s="57">
+      <c r="F12" s="49">
         <f t="shared" si="0"/>
         <v>87720.225506721792</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="26">
         <f t="shared" si="1"/>
         <v>85790.38054557392</v>
       </c>
-      <c r="I12" s="54">
+      <c r="I12" s="46">
         <f>'MORTALITY RATES MALE'!B72/'MORTALITY RATES MALE'!$B$63</f>
         <v>0.92188872463954408</v>
       </c>
-      <c r="J12" s="68">
+      <c r="J12" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J11</f>
         <v>0.23161694628320303</v>
       </c>
-      <c r="L12" s="74">
-        <f>(G12-DATA!$C$11)*'BASE CASE'!I12*J11*DATA!$C$12</f>
-        <v>3231.9043938761911</v>
-      </c>
-      <c r="M12" s="57">
+      <c r="L12" s="63">
+        <f>(G12-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I12*J11*DATA!$C$12</f>
+        <v>3232.6429393474491</v>
+      </c>
+      <c r="M12" s="49">
         <f>MAX(G12,DATA!$C$4)*I11*(1-'MORTALITY RATES MALE'!B72/'MORTALITY RATES MALE'!B71)</f>
         <v>1043.9603262824521</v>
       </c>
-      <c r="N12" s="57">
+      <c r="N12" s="49">
         <v>0</v>
       </c>
-      <c r="O12" s="77">
+      <c r="O12" s="65">
         <f>G12*DATA!$C$15*J12*I12</f>
         <v>256.45753559518442</v>
       </c>
-      <c r="P12" s="57">
+      <c r="P12" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A12)*'BASE CASE'!I12*'BASE CASE'!J12</f>
         <v>12.759110096023175</v>
       </c>
-      <c r="Q12" s="57">
+      <c r="Q12" s="49">
         <f t="shared" si="2"/>
-        <v>4545.081365849851</v>
-      </c>
-      <c r="R12" s="30">
+        <v>4545.8199113211094</v>
+      </c>
+      <c r="R12" s="26">
         <f>Q12*'EIOPA RATES'!G21</f>
-        <v>3525.7655131816769</v>
+        <v>3526.3384266111357</v>
       </c>
       <c r="T12">
         <f t="shared" si="3"/>
         <v>1929.8449611478718</v>
       </c>
-      <c r="U12" s="50">
+      <c r="U12" s="42">
         <f t="shared" si="4"/>
         <v>412.07024416403988</v>
       </c>
-      <c r="V12" s="50">
+      <c r="V12" s="42">
         <f>U12*'EIOPA RATES'!G20</f>
         <v>328.82857886944754</v>
       </c>
@@ -16561,157 +16559,157 @@
       </c>
       <c r="AA12">
         <f>DATA!C4-'BASE CASE'!AA11</f>
-        <v>-63827.975403349905</v>
+        <v>-63843.482259525423</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A13" s="66">
+      <c r="A13" s="57">
         <v>10</v>
       </c>
-      <c r="B13" s="54">
+      <c r="B13" s="46">
         <f>$B12*EXP('EIOPA RATES'!Q21)</f>
         <v>72189.870692196666</v>
       </c>
-      <c r="C13" s="57">
+      <c r="C13" s="49">
         <f>B13*(1-DATA!$C$14)</f>
         <v>70601.693536968334</v>
       </c>
-      <c r="D13" s="57">
+      <c r="D13" s="49">
         <f>$D12*EXP('EIOPA RATES'!Q21)</f>
         <v>18047.467673049166</v>
       </c>
-      <c r="E13" s="57">
+      <c r="E13" s="49">
         <f>D13*(1-DATA!$C$14)</f>
         <v>17650.423384242084</v>
       </c>
-      <c r="F13" s="57">
+      <c r="F13" s="49">
         <f t="shared" si="0"/>
         <v>90237.338365245829</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="26">
         <f t="shared" si="1"/>
         <v>88252.116921210414</v>
       </c>
-      <c r="I13" s="54">
+      <c r="I13" s="46">
         <f>'MORTALITY RATES MALE'!B73/'MORTALITY RATES MALE'!$B$63</f>
         <v>0.90863808728067352</v>
       </c>
-      <c r="J13" s="68">
+      <c r="J13" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J12</f>
         <v>0.19687440434072256</v>
       </c>
-      <c r="L13" s="74">
-        <f>(G13-DATA!$C$11)*'BASE CASE'!I13*J12*DATA!$C$12</f>
-        <v>2785.3464825799942</v>
-      </c>
-      <c r="M13" s="57">
+      <c r="L13" s="63">
+        <f>(G13-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I13*J12*DATA!$C$12</f>
+        <v>2785.9652231584087</v>
+      </c>
+      <c r="M13" s="49">
         <f>MAX(G13,DATA!$C$4)*I12*(1-'MORTALITY RATES MALE'!B73/'MORTALITY RATES MALE'!B72)</f>
         <v>1169.3967974755985</v>
       </c>
-      <c r="N13" s="57">
+      <c r="N13" s="49">
         <v>0</v>
       </c>
-      <c r="O13" s="77">
+      <c r="O13" s="65">
         <f>G13*DATA!$C$15*J13*I13</f>
         <v>221.02090947436071</v>
       </c>
-      <c r="P13" s="57">
+      <c r="P13" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A13)*'BASE CASE'!I13*'BASE CASE'!J13</f>
         <v>10.90314822508318</v>
       </c>
-      <c r="Q13" s="57">
+      <c r="Q13" s="49">
         <f t="shared" si="2"/>
-        <v>4186.667337755036</v>
-      </c>
-      <c r="R13" s="30">
+        <v>4187.2860783334509</v>
+      </c>
+      <c r="R13" s="26">
         <f>Q13*'EIOPA RATES'!G22</f>
-        <v>3150.379651886919</v>
+        <v>3150.8452412377751</v>
       </c>
       <c r="T13">
         <f t="shared" si="3"/>
         <v>1985.2214440354146</v>
       </c>
-      <c r="U13" s="50">
+      <c r="U13" s="42">
         <f t="shared" si="4"/>
         <v>355.13146424451878</v>
       </c>
-      <c r="V13" s="50">
+      <c r="V13" s="42">
         <f>U13*'EIOPA RATES'!G21</f>
         <v>275.48687657980207</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A14" s="65">
+      <c r="A14" s="56">
         <v>11</v>
       </c>
-      <c r="B14" s="54">
+      <c r="B14" s="46">
         <f>$B13*EXP('EIOPA RATES'!Q22)</f>
         <v>74420.672052606809</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="49">
         <f>B14*(1-DATA!$C$14)</f>
         <v>72783.417267449462</v>
       </c>
-      <c r="D14" s="57">
+      <c r="D14" s="49">
         <f>$D13*EXP('EIOPA RATES'!Q22)</f>
         <v>18605.168013151702</v>
       </c>
-      <c r="E14" s="57">
+      <c r="E14" s="49">
         <f>D14*(1-DATA!$C$14)</f>
         <v>18195.854316862366</v>
       </c>
-      <c r="F14" s="57">
+      <c r="F14" s="49">
         <f t="shared" si="0"/>
         <v>93025.840065758515</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="26">
         <f t="shared" si="1"/>
         <v>90979.27158431182</v>
       </c>
-      <c r="I14" s="54">
+      <c r="I14" s="46">
         <f>'MORTALITY RATES MALE'!B74/'MORTALITY RATES MALE'!$B$63</f>
         <v>0.894455513422028</v>
       </c>
-      <c r="J14" s="68">
+      <c r="J14" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J13</f>
         <v>0.16734324368961417</v>
       </c>
-      <c r="L14" s="74">
-        <f>(G14-DATA!$C$11)*'BASE CASE'!I14*J13*DATA!$C$12</f>
-        <v>2402.6263480784442</v>
-      </c>
-      <c r="M14" s="57">
+      <c r="L14" s="63">
+        <f>(G14-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I14*J13*DATA!$C$12</f>
+        <v>2403.144068543902</v>
+      </c>
+      <c r="M14" s="49">
         <f>MAX(G14,DATA!$C$4)*I13*(1-'MORTALITY RATES MALE'!B74/'MORTALITY RATES MALE'!B73)</f>
         <v>1290.3202388502743</v>
       </c>
-      <c r="N14" s="57">
+      <c r="N14" s="49">
         <v>0</v>
       </c>
-      <c r="O14" s="77">
+      <c r="O14" s="65">
         <f>G14*DATA!$C$15*J14*I14</f>
         <v>190.65026765190316</v>
       </c>
-      <c r="P14" s="57">
+      <c r="P14" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A14)*'BASE CASE'!I14*'BASE CASE'!J14</f>
         <v>9.3054808984414432</v>
       </c>
-      <c r="Q14" s="57">
+      <c r="Q14" s="49">
         <f t="shared" si="2"/>
-        <v>3892.9023354790634</v>
-      </c>
-      <c r="R14" s="30">
+        <v>3893.4200559445208</v>
+      </c>
+      <c r="R14" s="26">
         <f>Q14*'EIOPA RATES'!G23</f>
-        <v>2843.5739368013615</v>
+        <v>2843.9521061709615</v>
       </c>
       <c r="T14">
         <f t="shared" si="3"/>
         <v>2046.5684814466949</v>
       </c>
-      <c r="U14" s="50">
+      <c r="U14" s="42">
         <f t="shared" si="4"/>
         <v>306.33259482485289</v>
       </c>
-      <c r="V14" s="50">
+      <c r="V14" s="42">
         <f>U14*'EIOPA RATES'!G22</f>
         <v>230.50887390623703</v>
       </c>
@@ -16720,233 +16718,233 @@
       </c>
       <c r="AA14">
         <f>SUMPRODUCT(R3:R53,A3:A53)/SUM(R3:R53)</f>
-        <v>15.14897778598135</v>
+        <v>15.147835508575902</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A15" s="65">
+      <c r="A15" s="56">
         <v>12</v>
       </c>
-      <c r="B15" s="54">
+      <c r="B15" s="46">
         <f>$B14*EXP('EIOPA RATES'!Q23)</f>
         <v>76664.977113994479</v>
       </c>
-      <c r="C15" s="57">
+      <c r="C15" s="49">
         <f>B15*(1-DATA!$C$14)</f>
         <v>74978.347617486594</v>
       </c>
-      <c r="D15" s="57">
+      <c r="D15" s="49">
         <f>$D14*EXP('EIOPA RATES'!Q23)</f>
         <v>19166.24427849862</v>
       </c>
-      <c r="E15" s="57">
+      <c r="E15" s="49">
         <f>D15*(1-DATA!$C$14)</f>
         <v>18744.586904371648</v>
       </c>
-      <c r="F15" s="57">
+      <c r="F15" s="49">
         <f t="shared" si="0"/>
         <v>95831.221392493098</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="26">
         <f t="shared" si="1"/>
         <v>93722.934521858246</v>
       </c>
-      <c r="I15" s="54">
+      <c r="I15" s="46">
         <f>'MORTALITY RATES MALE'!B75/'MORTALITY RATES MALE'!$B$63</f>
         <v>0.87890181459819616</v>
       </c>
-      <c r="J15" s="68">
+      <c r="J15" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J14</f>
         <v>0.14224175713617204</v>
       </c>
-      <c r="L15" s="74">
-        <f>(G15-DATA!$C$11)*'BASE CASE'!I15*J14*DATA!$C$12</f>
-        <v>2067.249973647743</v>
-      </c>
-      <c r="M15" s="57">
+      <c r="L15" s="63">
+        <f>(G15-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I15*J14*DATA!$C$12</f>
+        <v>2067.6823837925299</v>
+      </c>
+      <c r="M15" s="49">
         <f>MAX(G15,DATA!$C$4)*I14*(1-'MORTALITY RATES MALE'!B75/'MORTALITY RATES MALE'!B74)</f>
         <v>1457.7382964387</v>
       </c>
-      <c r="N15" s="57">
+      <c r="N15" s="49">
         <v>0</v>
       </c>
-      <c r="O15" s="77">
+      <c r="O15" s="65">
         <f>G15*DATA!$C$15*J15*I15</f>
         <v>164.03683587348937</v>
       </c>
-      <c r="P15" s="57">
+      <c r="P15" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A15)*'BASE CASE'!I15*'BASE CASE'!J15</f>
         <v>7.9275599542377275</v>
       </c>
-      <c r="Q15" s="57">
+      <c r="Q15" s="49">
         <f t="shared" si="2"/>
-        <v>3696.9526659141702</v>
-      </c>
-      <c r="R15" s="30">
+        <v>3697.3850760589576</v>
+      </c>
+      <c r="R15" s="26">
         <f>Q15*'EIOPA RATES'!G24</f>
-        <v>2622.3621423785335</v>
+        <v>2622.6688641832579</v>
       </c>
       <c r="T15">
         <f t="shared" si="3"/>
         <v>2108.2868706348527</v>
       </c>
-      <c r="U15" s="50">
+      <c r="U15" s="42">
         <f t="shared" si="4"/>
         <v>263.57072664452045</v>
       </c>
-      <c r="V15" s="50">
+      <c r="V15" s="42">
         <f>U15*'EIOPA RATES'!G23</f>
         <v>192.52546922627138</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A16" s="65">
+      <c r="A16" s="56">
         <v>13</v>
       </c>
-      <c r="B16" s="54">
+      <c r="B16" s="46">
         <f>$B15*EXP('EIOPA RATES'!Q24)</f>
         <v>78947.657894196833</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="49">
         <f>B16*(1-DATA!$C$14)</f>
         <v>77210.8094205245</v>
       </c>
-      <c r="D16" s="57">
+      <c r="D16" s="49">
         <f>$D15*EXP('EIOPA RATES'!Q24)</f>
         <v>19736.914473549208</v>
       </c>
-      <c r="E16" s="57">
+      <c r="E16" s="49">
         <f>D16*(1-DATA!$C$14)</f>
         <v>19302.702355131125</v>
       </c>
-      <c r="F16" s="57">
+      <c r="F16" s="49">
         <f t="shared" si="0"/>
         <v>98684.572367746034</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="26">
         <f t="shared" si="1"/>
         <v>96513.511775655628</v>
       </c>
-      <c r="I16" s="54">
+      <c r="I16" s="46">
         <f>'MORTALITY RATES MALE'!B76/'MORTALITY RATES MALE'!$B$63</f>
         <v>0.86194485506780638</v>
       </c>
-      <c r="J16" s="68">
+      <c r="J16" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J15</f>
         <v>0.12090549356574623</v>
       </c>
-      <c r="L16" s="74">
-        <f>(G16-DATA!$C$11)*'BASE CASE'!I16*J15*DATA!$C$12</f>
-        <v>1774.5815490771458</v>
-      </c>
-      <c r="M16" s="57">
+      <c r="L16" s="63">
+        <f>(G16-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I16*J15*DATA!$C$12</f>
+        <v>1774.9420064563196</v>
+      </c>
+      <c r="M16" s="49">
         <f>MAX(G16,DATA!$C$4)*I15*(1-'MORTALITY RATES MALE'!B76/'MORTALITY RATES MALE'!B75)</f>
         <v>1636.5757133155857</v>
       </c>
-      <c r="N16" s="57">
+      <c r="N16" s="49">
         <v>0</v>
       </c>
-      <c r="O16" s="77">
+      <c r="O16" s="65">
         <f>G16*DATA!$C$15*J16*I16</f>
         <v>140.81264944319619</v>
       </c>
-      <c r="P16" s="57">
+      <c r="P16" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A16)*'BASE CASE'!I16*'BASE CASE'!J16</f>
         <v>6.7405875398086463</v>
       </c>
-      <c r="Q16" s="57">
+      <c r="Q16" s="49">
         <f t="shared" si="2"/>
-        <v>3558.7104993757362</v>
-      </c>
-      <c r="R16" s="30">
+        <v>3559.0709567549102</v>
+      </c>
+      <c r="R16" s="26">
         <f>Q16*'EIOPA RATES'!G25</f>
-        <v>2454.135318694236</v>
+        <v>2454.3838950213271</v>
       </c>
       <c r="T16">
         <f t="shared" si="3"/>
         <v>2171.0605920904054</v>
       </c>
-      <c r="U16" s="50">
+      <c r="U16" s="42">
         <f t="shared" si="4"/>
         <v>226.2546222429379</v>
       </c>
-      <c r="V16" s="50">
+      <c r="V16" s="42">
         <f>U16*'EIOPA RATES'!G24</f>
         <v>160.4893569177797</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A17" s="65">
+      <c r="A17" s="56">
         <v>14</v>
       </c>
-      <c r="B17" s="54">
+      <c r="B17" s="46">
         <f>$B16*EXP('EIOPA RATES'!Q25)</f>
         <v>81204.889741400097</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="49">
         <f>B17*(1-DATA!$C$14)</f>
         <v>79418.382167089294</v>
       </c>
-      <c r="D17" s="57">
+      <c r="D17" s="49">
         <f>$D16*EXP('EIOPA RATES'!Q25)</f>
         <v>20301.222435350024</v>
       </c>
-      <c r="E17" s="57">
+      <c r="E17" s="49">
         <f>D17*(1-DATA!$C$14)</f>
         <v>19854.595541772323</v>
       </c>
-      <c r="F17" s="57">
+      <c r="F17" s="49">
         <f t="shared" si="0"/>
         <v>101506.11217675012</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="26">
         <f t="shared" si="1"/>
         <v>99272.97770886161</v>
       </c>
-      <c r="I17" s="54">
+      <c r="I17" s="46">
         <f>'MORTALITY RATES MALE'!B77/'MORTALITY RATES MALE'!$B$63</f>
         <v>0.84323114167577184</v>
       </c>
-      <c r="J17" s="68">
+      <c r="J17" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J16</f>
         <v>0.10276966953088429</v>
       </c>
-      <c r="L17" s="74">
-        <f>(G17-DATA!$C$11)*'BASE CASE'!I17*J16*DATA!$C$12</f>
-        <v>1517.8451790934562</v>
-      </c>
-      <c r="M17" s="57">
+      <c r="L17" s="63">
+        <f>(G17-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I17*J16*DATA!$C$12</f>
+        <v>1518.1449158489365</v>
+      </c>
+      <c r="M17" s="49">
         <f>MAX(G17,DATA!$C$4)*I16*(1-'MORTALITY RATES MALE'!B77/'MORTALITY RATES MALE'!B76)</f>
         <v>1857.7660524174814</v>
       </c>
-      <c r="N17" s="57">
+      <c r="N17" s="49">
         <v>0</v>
       </c>
-      <c r="O17" s="77">
+      <c r="O17" s="65">
         <f>G17*DATA!$C$15*J17*I17</f>
         <v>120.43998194542927</v>
       </c>
-      <c r="P17" s="57">
+      <c r="P17" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A17)*'BASE CASE'!I17*'BASE CASE'!J17</f>
         <v>5.7172081779080948</v>
       </c>
-      <c r="Q17" s="57">
+      <c r="Q17" s="49">
         <f t="shared" si="2"/>
-        <v>3501.768421634275</v>
-      </c>
-      <c r="R17" s="30">
+        <v>3502.0681583897554</v>
+      </c>
+      <c r="R17" s="26">
         <f>Q17*'EIOPA RATES'!G26</f>
-        <v>2348.5196587227565</v>
+        <v>2348.7206821994482</v>
       </c>
       <c r="T17">
         <f t="shared" si="3"/>
         <v>2233.1344678885071</v>
       </c>
-      <c r="U17" s="50">
+      <c r="U17" s="42">
         <f t="shared" si="4"/>
         <v>193.52027481737142</v>
       </c>
-      <c r="V17" s="50">
+      <c r="V17" s="42">
         <f>U17*'EIOPA RATES'!G25</f>
         <v>133.45422208298106</v>
       </c>
@@ -16959,2738 +16957,2738 @@
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A18" s="66">
+      <c r="A18" s="57">
         <v>15</v>
       </c>
-      <c r="B18" s="54">
+      <c r="B18" s="46">
         <f>$B17*EXP('EIOPA RATES'!Q26)</f>
         <v>83498.99515772755</v>
       </c>
-      <c r="C18" s="57">
+      <c r="C18" s="49">
         <f>B18*(1-DATA!$C$14)</f>
         <v>81662.017264257549</v>
       </c>
-      <c r="D18" s="57">
+      <c r="D18" s="49">
         <f>$D17*EXP('EIOPA RATES'!Q26)</f>
         <v>20874.748789431887</v>
       </c>
-      <c r="E18" s="57">
+      <c r="E18" s="49">
         <f>D18*(1-DATA!$C$14)</f>
         <v>20415.504316064387</v>
       </c>
-      <c r="F18" s="57">
+      <c r="F18" s="49">
         <f t="shared" si="0"/>
         <v>104373.74394715944</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18" s="26">
         <f t="shared" si="1"/>
         <v>102077.52158032193</v>
       </c>
-      <c r="I18" s="54">
+      <c r="I18" s="46">
         <f>'MORTALITY RATES MALE'!B78/'MORTALITY RATES MALE'!$B$63</f>
         <v>0.82299633652548365</v>
       </c>
-      <c r="J18" s="68">
+      <c r="J18" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J17</f>
         <v>8.7354219101251643E-2</v>
       </c>
-      <c r="L18" s="74">
-        <f>(G18-DATA!$C$11)*'BASE CASE'!I18*J17*DATA!$C$12</f>
-        <v>1294.7894095989429</v>
-      </c>
-      <c r="M18" s="57">
+      <c r="L18" s="63">
+        <f>(G18-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I18*J17*DATA!$C$12</f>
+        <v>1295.0380720398407</v>
+      </c>
+      <c r="M18" s="49">
         <f>MAX(G18,DATA!$C$4)*I17*(1-'MORTALITY RATES MALE'!B78/'MORTALITY RATES MALE'!B77)</f>
         <v>2065.5187594021509</v>
       </c>
-      <c r="N18" s="57">
+      <c r="N18" s="49">
         <v>0</v>
       </c>
-      <c r="O18" s="77">
+      <c r="O18" s="65">
         <f>G18*DATA!$C$15*J18*I18</f>
         <v>102.74008964482692</v>
       </c>
-      <c r="P18" s="57">
+      <c r="P18" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A18)*'BASE CASE'!I18*'BASE CASE'!J18</f>
         <v>4.8378719424233605</v>
       </c>
-      <c r="Q18" s="57">
+      <c r="Q18" s="49">
         <f t="shared" si="2"/>
-        <v>3467.8861305883443</v>
-      </c>
-      <c r="R18" s="30">
+        <v>3468.1347930292418</v>
+      </c>
+      <c r="R18" s="26">
         <f>Q18*'EIOPA RATES'!G27</f>
-        <v>2261.1470939042501</v>
+        <v>2261.3092279347302</v>
       </c>
       <c r="T18">
         <f t="shared" si="3"/>
         <v>2296.2223668375082</v>
       </c>
-      <c r="U18" s="50">
+      <c r="U18" s="42">
         <f t="shared" si="4"/>
         <v>165.08048292332694</v>
       </c>
-      <c r="V18" s="50">
+      <c r="V18" s="42">
         <f>U18*'EIOPA RATES'!G26</f>
         <v>110.71399154257679</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A19" s="65">
+      <c r="A19" s="56">
         <v>16</v>
       </c>
-      <c r="B19" s="54">
+      <c r="B19" s="46">
         <f>$B18*EXP('EIOPA RATES'!Q27)</f>
         <v>85886.329039136312</v>
       </c>
-      <c r="C19" s="57">
+      <c r="C19" s="49">
         <f>B19*(1-DATA!$C$14)</f>
         <v>83996.829800275314</v>
       </c>
-      <c r="D19" s="57">
+      <c r="D19" s="49">
         <f>$D18*EXP('EIOPA RATES'!Q27)</f>
         <v>21471.582259784078</v>
       </c>
-      <c r="E19" s="57">
+      <c r="E19" s="49">
         <f>D19*(1-DATA!$C$14)</f>
         <v>20999.207450068829</v>
       </c>
-      <c r="F19" s="57">
+      <c r="F19" s="49">
         <f t="shared" si="0"/>
         <v>107357.91129892039</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="26">
         <f t="shared" si="1"/>
         <v>104996.03725034415</v>
       </c>
-      <c r="I19" s="54">
+      <c r="I19" s="46">
         <f>'MORTALITY RATES MALE'!B79/'MORTALITY RATES MALE'!$B$63</f>
         <v>0.80079053923774024</v>
       </c>
-      <c r="J19" s="68">
+      <c r="J19" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J18</f>
         <v>7.4251086236063898E-2</v>
       </c>
-      <c r="L19" s="74">
-        <f>(G19-DATA!$C$11)*'BASE CASE'!I19*J18*DATA!$C$12</f>
-        <v>1101.4993695526709</v>
-      </c>
-      <c r="M19" s="57">
+      <c r="L19" s="63">
+        <f>(G19-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I19*J18*DATA!$C$12</f>
+        <v>1101.7050297033943</v>
+      </c>
+      <c r="M19" s="49">
         <f>MAX(G19,DATA!$C$4)*I18*(1-'MORTALITY RATES MALE'!B79/'MORTALITY RATES MALE'!B78)</f>
         <v>2331.5207191974969</v>
       </c>
-      <c r="N19" s="57">
+      <c r="N19" s="49">
         <v>0</v>
       </c>
-      <c r="O19" s="77">
+      <c r="O19" s="65">
         <f>G19*DATA!$C$15*J19*I19</f>
         <v>87.402265330046632</v>
       </c>
-      <c r="P19" s="57">
+      <c r="P19" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A19)*'BASE CASE'!I19*'BASE CASE'!J19</f>
         <v>4.0812622069162749</v>
       </c>
-      <c r="Q19" s="57">
+      <c r="Q19" s="49">
         <f t="shared" si="2"/>
-        <v>3524.5036162871306</v>
-      </c>
-      <c r="R19" s="30">
+        <v>3524.709276437854</v>
+      </c>
+      <c r="R19" s="26">
         <f>Q19*'EIOPA RATES'!G28</f>
-        <v>2234.8598020805657</v>
+        <v>2234.9902095517391</v>
       </c>
       <c r="T19">
         <f t="shared" si="3"/>
         <v>2361.8740485762391</v>
       </c>
-      <c r="U19" s="50">
+      <c r="U19" s="42">
         <f t="shared" si="4"/>
         <v>140.43600914848219</v>
       </c>
-      <c r="V19" s="50">
+      <c r="V19" s="42">
         <f>U19*'EIOPA RATES'!G27</f>
         <v>91.567733774386596</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A20" s="65">
+      <c r="A20" s="56">
         <v>17</v>
       </c>
-      <c r="B20" s="54">
+      <c r="B20" s="46">
         <f>$B19*EXP('EIOPA RATES'!Q28)</f>
         <v>88315.250168414888</v>
       </c>
-      <c r="C20" s="57">
+      <c r="C20" s="49">
         <f>B20*(1-DATA!$C$14)</f>
         <v>86372.31466470976</v>
       </c>
-      <c r="D20" s="57">
+      <c r="D20" s="49">
         <f>$D19*EXP('EIOPA RATES'!Q28)</f>
         <v>22078.812542103722</v>
       </c>
-      <c r="E20" s="57">
+      <c r="E20" s="49">
         <f>D20*(1-DATA!$C$14)</f>
         <v>21593.07866617744</v>
       </c>
-      <c r="F20" s="57">
+      <c r="F20" s="49">
         <f t="shared" si="0"/>
         <v>110394.06271051861</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="26">
         <f t="shared" si="1"/>
         <v>107965.39333088719</v>
       </c>
-      <c r="I20" s="54">
+      <c r="I20" s="46">
         <f>'MORTALITY RATES MALE'!B80/'MORTALITY RATES MALE'!$B$63</f>
         <v>0.77767422927780272</v>
       </c>
-      <c r="J20" s="68">
+      <c r="J20" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J19</f>
         <v>6.3113423300654309E-2</v>
       </c>
-      <c r="L20" s="74">
-        <f>(G20-DATA!$C$11)*'BASE CASE'!I20*J19*DATA!$C$12</f>
-        <v>934.966157224938</v>
-      </c>
-      <c r="M20" s="57">
+      <c r="L20" s="63">
+        <f>(G20-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I20*J19*DATA!$C$12</f>
+        <v>935.1359221043474</v>
+      </c>
+      <c r="M20" s="49">
         <f>MAX(G20,DATA!$C$4)*I19*(1-'MORTALITY RATES MALE'!B80/'MORTALITY RATES MALE'!B79)</f>
         <v>2495.761497183355</v>
       </c>
-      <c r="N20" s="57">
+      <c r="N20" s="49">
         <v>0</v>
       </c>
-      <c r="O20" s="77">
+      <c r="O20" s="65">
         <f>G20*DATA!$C$15*J20*I20</f>
         <v>74.187724677702022</v>
       </c>
-      <c r="P20" s="57">
+      <c r="P20" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A20)*'BASE CASE'!I20*'BASE CASE'!J20</f>
         <v>3.4363102605808953</v>
       </c>
-      <c r="Q20" s="57">
+      <c r="Q20" s="49">
         <f t="shared" si="2"/>
-        <v>3508.3516893465758</v>
-      </c>
-      <c r="R20" s="30">
+        <v>3508.5214542259851</v>
+      </c>
+      <c r="R20" s="26">
         <f>Q20*'EIOPA RATES'!G29</f>
-        <v>2166.5542113172669</v>
+        <v>2166.6590482455417</v>
       </c>
       <c r="T20">
         <f t="shared" si="3"/>
         <v>2428.6693796314212</v>
       </c>
-      <c r="U20" s="50">
+      <c r="U20" s="42">
         <f t="shared" si="4"/>
         <v>119.20318017159309</v>
       </c>
-      <c r="V20" s="50">
+      <c r="V20" s="42">
         <f>U20*'EIOPA RATES'!G28</f>
         <v>75.585791546527247</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A21" s="65">
+      <c r="A21" s="56">
         <v>18</v>
       </c>
-      <c r="B21" s="54">
+      <c r="B21" s="46">
         <f>$B20*EXP('EIOPA RATES'!Q29)</f>
         <v>90682.104134359834</v>
       </c>
-      <c r="C21" s="57">
+      <c r="C21" s="49">
         <f>B21*(1-DATA!$C$14)</f>
         <v>88687.097843403913</v>
       </c>
-      <c r="D21" s="57">
+      <c r="D21" s="49">
         <f>$D20*EXP('EIOPA RATES'!Q29)</f>
         <v>22670.526033589958</v>
       </c>
-      <c r="E21" s="57">
+      <c r="E21" s="49">
         <f>D21*(1-DATA!$C$14)</f>
         <v>22171.774460850978</v>
       </c>
-      <c r="F21" s="57">
+      <c r="F21" s="49">
         <f t="shared" si="0"/>
         <v>113352.6301679498</v>
       </c>
-      <c r="G21" s="30">
+      <c r="G21" s="26">
         <f t="shared" si="1"/>
         <v>110858.8723042549</v>
       </c>
-      <c r="I21" s="54">
+      <c r="I21" s="46">
         <f>'MORTALITY RATES MALE'!B81/'MORTALITY RATES MALE'!$B$63</f>
         <v>0.75285472502517303</v>
       </c>
-      <c r="J21" s="68">
+      <c r="J21" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J20</f>
         <v>5.3646409805556163E-2</v>
       </c>
-      <c r="L21" s="74">
-        <f>(G21-DATA!$C$11)*'BASE CASE'!I21*J20*DATA!$C$12</f>
-        <v>789.98032527986686</v>
-      </c>
-      <c r="M21" s="57">
+      <c r="L21" s="63">
+        <f>(G21-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I21*J20*DATA!$C$12</f>
+        <v>790.12002008236368</v>
+      </c>
+      <c r="M21" s="49">
         <f>MAX(G21,DATA!$C$4)*I20*(1-'MORTALITY RATES MALE'!B81/'MORTALITY RATES MALE'!B80)</f>
         <v>2751.462252597199</v>
       </c>
-      <c r="N21" s="57">
+      <c r="N21" s="49">
         <v>0</v>
       </c>
-      <c r="O21" s="77">
+      <c r="O21" s="65">
         <f>G21*DATA!$C$15*J21*I21</f>
         <v>62.683081099071551</v>
       </c>
-      <c r="P21" s="57">
+      <c r="P21" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A21)*'BASE CASE'!I21*'BASE CASE'!J21</f>
         <v>2.8841971233144394</v>
       </c>
-      <c r="Q21" s="57">
+      <c r="Q21" s="49">
         <f t="shared" si="2"/>
-        <v>3607.009856099452</v>
-      </c>
-      <c r="R21" s="30">
+        <v>3607.1495509019487</v>
+      </c>
+      <c r="R21" s="26">
         <f>Q21*'EIOPA RATES'!G30</f>
-        <v>2174.6493914148691</v>
+        <v>2174.7336127586836</v>
       </c>
       <c r="T21">
         <f t="shared" si="3"/>
         <v>2493.7578636949038</v>
       </c>
-      <c r="U21" s="50">
+      <c r="U21" s="42">
         <f t="shared" si="4"/>
         <v>100.71777564852313</v>
       </c>
-      <c r="V21" s="50">
+      <c r="V21" s="42">
         <f>U21*'EIOPA RATES'!G29</f>
         <v>62.197447778234796</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A22" s="65">
+      <c r="A22" s="56">
         <v>19</v>
       </c>
-      <c r="B22" s="54">
+      <c r="B22" s="46">
         <f>$B21*EXP('EIOPA RATES'!Q30)</f>
         <v>92885.111843316074</v>
       </c>
-      <c r="C22" s="57">
+      <c r="C22" s="49">
         <f>B22*(1-DATA!$C$14)</f>
         <v>90841.639382763125</v>
       </c>
-      <c r="D22" s="57">
+      <c r="D22" s="49">
         <f>$D21*EXP('EIOPA RATES'!Q30)</f>
         <v>23221.277960829018</v>
       </c>
-      <c r="E22" s="57">
+      <c r="E22" s="49">
         <f>D22*(1-DATA!$C$14)</f>
         <v>22710.409845690781</v>
       </c>
-      <c r="F22" s="57">
+      <c r="F22" s="49">
         <f t="shared" si="0"/>
         <v>116106.38980414509</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="26">
         <f t="shared" si="1"/>
         <v>113552.04922845391</v>
       </c>
-      <c r="I22" s="54">
+      <c r="I22" s="46">
         <f>'MORTALITY RATES MALE'!B82/'MORTALITY RATES MALE'!$B$63</f>
         <v>0.72572144739379141</v>
       </c>
-      <c r="J22" s="68">
+      <c r="J22" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J21</f>
         <v>4.5599448334722736E-2</v>
       </c>
-      <c r="L22" s="74">
-        <f>(G22-DATA!$C$11)*'BASE CASE'!I22*J21*DATA!$C$12</f>
-        <v>663.01042443869153</v>
-      </c>
-      <c r="M22" s="57">
+      <c r="L22" s="63">
+        <f>(G22-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I22*J21*DATA!$C$12</f>
+        <v>663.12488554819595</v>
+      </c>
+      <c r="M22" s="49">
         <f>MAX(G22,DATA!$C$4)*I21*(1-'MORTALITY RATES MALE'!B82/'MORTALITY RATES MALE'!B81)</f>
         <v>3081.0392773279486</v>
       </c>
-      <c r="N22" s="57">
+      <c r="N22" s="49">
         <v>0</v>
       </c>
-      <c r="O22" s="77">
+      <c r="O22" s="65">
         <f>G22*DATA!$C$15*J22*I22</f>
         <v>52.608092904810363</v>
       </c>
-      <c r="P22" s="57">
+      <c r="P22" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A22)*'BASE CASE'!I22*'BASE CASE'!J22</f>
         <v>2.4104760148649973</v>
       </c>
-      <c r="Q22" s="57">
+      <c r="Q22" s="49">
         <f t="shared" si="2"/>
-        <v>3799.0682706863154</v>
-      </c>
-      <c r="R22" s="30">
+        <v>3799.1827317958196</v>
+      </c>
+      <c r="R22" s="26">
         <f>Q22*'EIOPA RATES'!G31</f>
-        <v>2242.0054249558029</v>
+        <v>2242.0729737362331</v>
       </c>
       <c r="T22">
         <f t="shared" si="3"/>
         <v>2554.3405756911816</v>
       </c>
-      <c r="U22" s="50">
+      <c r="U22" s="42">
         <f t="shared" si="4"/>
         <v>84.529509487717135</v>
       </c>
-      <c r="V22" s="50">
+      <c r="V22" s="42">
         <f>U22*'EIOPA RATES'!G30</f>
         <v>50.962446374583216</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A23" s="66">
+      <c r="A23" s="57">
         <v>20</v>
       </c>
-      <c r="B23" s="54">
+      <c r="B23" s="46">
         <f>$B22*EXP('EIOPA RATES'!Q31)</f>
         <v>94891.7521743408</v>
       </c>
-      <c r="C23" s="57">
+      <c r="C23" s="49">
         <f>B23*(1-DATA!$C$14)</f>
         <v>92804.133626505296</v>
       </c>
-      <c r="D23" s="57">
+      <c r="D23" s="49">
         <f>$D22*EXP('EIOPA RATES'!Q31)</f>
         <v>23722.9380435852</v>
       </c>
-      <c r="E23" s="57">
+      <c r="E23" s="49">
         <f>D23*(1-DATA!$C$14)</f>
         <v>23201.033406626324</v>
       </c>
-      <c r="F23" s="57">
+      <c r="F23" s="49">
         <f t="shared" si="0"/>
         <v>118614.69021792599</v>
       </c>
-      <c r="G23" s="30">
+      <c r="G23" s="26">
         <f t="shared" si="1"/>
         <v>116005.16703313161</v>
       </c>
-      <c r="I23" s="54">
+      <c r="I23" s="46">
         <f>'MORTALITY RATES MALE'!B83/'MORTALITY RATES MALE'!$B$63</f>
         <v>0.69585663174582768</v>
       </c>
-      <c r="J23" s="68">
+      <c r="J23" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J22</f>
         <v>3.8759531084514326E-2</v>
       </c>
-      <c r="L23" s="74">
-        <f>(G23-DATA!$C$11)*'BASE CASE'!I23*J22*DATA!$C$12</f>
-        <v>552.04320736592729</v>
-      </c>
-      <c r="M23" s="57">
+      <c r="L23" s="63">
+        <f>(G23-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I23*J22*DATA!$C$12</f>
+        <v>552.13649556079861</v>
+      </c>
+      <c r="M23" s="49">
         <f>MAX(G23,DATA!$C$4)*I22*(1-'MORTALITY RATES MALE'!B83/'MORTALITY RATES MALE'!B82)</f>
         <v>3464.4729276557123</v>
       </c>
-      <c r="N23" s="57">
+      <c r="N23" s="49">
         <v>0</v>
       </c>
-      <c r="O23" s="77">
+      <c r="O23" s="65">
         <f>G23*DATA!$C$15*J23*I23</f>
         <v>43.802979685853153</v>
       </c>
-      <c r="P23" s="57">
+      <c r="P23" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A23)*'BASE CASE'!I23*'BASE CASE'!J23</f>
         <v>2.0038800630596216</v>
       </c>
-      <c r="Q23" s="57">
+      <c r="Q23" s="49">
         <f t="shared" si="2"/>
-        <v>4062.3229947705522</v>
-      </c>
-      <c r="R23" s="30">
+        <v>4062.4162829654238</v>
+      </c>
+      <c r="R23" s="26">
         <f>Q23*'EIOPA RATES'!G32</f>
-        <v>2345.0255362688854</v>
+        <v>2345.0793880181154</v>
       </c>
       <c r="T23">
         <f t="shared" si="3"/>
         <v>2609.5231847943796</v>
       </c>
-      <c r="U23" s="50">
+      <c r="U23" s="42">
         <f t="shared" si="4"/>
         <v>70.381650094125931</v>
       </c>
-      <c r="V23" s="50">
+      <c r="V23" s="42">
         <f>U23*'EIOPA RATES'!G31</f>
         <v>41.535458192717613</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A24" s="65">
+      <c r="A24" s="56">
         <v>21</v>
       </c>
-      <c r="B24" s="54">
+      <c r="B24" s="46">
         <f>$B23*EXP('EIOPA RATES'!Q32)</f>
         <v>97009.641979892913</v>
       </c>
-      <c r="C24" s="57">
+      <c r="C24" s="49">
         <f>B24*(1-DATA!$C$14)</f>
         <v>94875.429856335264</v>
       </c>
-      <c r="D24" s="57">
+      <c r="D24" s="49">
         <f>$D23*EXP('EIOPA RATES'!Q32)</f>
         <v>24252.410494973228</v>
       </c>
-      <c r="E24" s="57">
+      <c r="E24" s="49">
         <f>D24*(1-DATA!$C$14)</f>
         <v>23718.857464083816</v>
       </c>
-      <c r="F24" s="57">
+      <c r="F24" s="49">
         <f t="shared" si="0"/>
         <v>121262.05247486614</v>
       </c>
-      <c r="G24" s="30">
+      <c r="G24" s="26">
         <f t="shared" si="1"/>
         <v>118594.28732041908</v>
       </c>
-      <c r="I24" s="54">
+      <c r="I24" s="46">
         <f>'MORTALITY RATES MALE'!B84/'MORTALITY RATES MALE'!$B$63</f>
         <v>0.66379587377080784</v>
       </c>
-      <c r="J24" s="68">
+      <c r="J24" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J23</f>
         <v>3.2945601421837174E-2</v>
       </c>
-      <c r="L24" s="74">
-        <f>(G24-DATA!$C$11)*'BASE CASE'!I24*J23*DATA!$C$12</f>
-        <v>457.60930294817751</v>
-      </c>
-      <c r="M24" s="57">
+      <c r="L24" s="63">
+        <f>(G24-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I24*J23*DATA!$C$12</f>
+        <v>457.68494449357894</v>
+      </c>
+      <c r="M24" s="49">
         <f>MAX(G24,DATA!$C$4)*I23*(1-'MORTALITY RATES MALE'!B84/'MORTALITY RATES MALE'!B83)</f>
         <v>3802.2227429999184</v>
       </c>
-      <c r="N24" s="57">
+      <c r="N24" s="49">
         <v>0</v>
       </c>
-      <c r="O24" s="77">
+      <c r="O24" s="65">
         <f>G24*DATA!$C$15*J24*I24</f>
         <v>36.309794730421238</v>
       </c>
-      <c r="P24" s="57">
+      <c r="P24" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A24)*'BASE CASE'!I24*'BASE CASE'!J24</f>
         <v>1.6573170557909722</v>
       </c>
-      <c r="Q24" s="57">
+      <c r="Q24" s="49">
         <f t="shared" si="2"/>
-        <v>4297.7991577343082</v>
-      </c>
-      <c r="R24" s="30">
+        <v>4297.8747992797098</v>
+      </c>
+      <c r="R24" s="26">
         <f>Q24*'EIOPA RATES'!G33</f>
-        <v>2424.1485429526597</v>
+        <v>2424.1912081250753</v>
       </c>
       <c r="T24">
         <f t="shared" si="3"/>
         <v>2667.7651544470573</v>
       </c>
-      <c r="U24" s="50">
+      <c r="U24" s="42">
         <f t="shared" si="4"/>
         <v>58.341767752648842</v>
       </c>
-      <c r="V24" s="50">
+      <c r="V24" s="42">
         <f>U24*'EIOPA RATES'!G32</f>
         <v>33.678497595378325</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A25" s="65">
+      <c r="A25" s="56">
         <v>22</v>
       </c>
-      <c r="B25" s="54">
+      <c r="B25" s="46">
         <f>$B24*EXP('EIOPA RATES'!Q33)</f>
         <v>99283.005380508723</v>
       </c>
-      <c r="C25" s="57">
+      <c r="C25" s="49">
         <f>B25*(1-DATA!$C$14)</f>
         <v>97098.779262137527</v>
       </c>
-      <c r="D25" s="57">
+      <c r="D25" s="49">
         <f>$D24*EXP('EIOPA RATES'!Q33)</f>
         <v>24820.751345127181</v>
       </c>
-      <c r="E25" s="57">
+      <c r="E25" s="49">
         <f>D25*(1-DATA!$C$14)</f>
         <v>24274.694815534382</v>
       </c>
-      <c r="F25" s="57">
+      <c r="F25" s="49">
         <f t="shared" si="0"/>
         <v>124103.7567256359</v>
       </c>
-      <c r="G25" s="30">
+      <c r="G25" s="26">
         <f t="shared" si="1"/>
         <v>121373.47407767191</v>
       </c>
-      <c r="I25" s="54">
+      <c r="I25" s="46">
         <f>'MORTALITY RATES MALE'!B85/'MORTALITY RATES MALE'!$B$63</f>
         <v>0.62830730338282237</v>
       </c>
-      <c r="J25" s="68">
+      <c r="J25" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J24</f>
         <v>2.8003761208561597E-2</v>
       </c>
-      <c r="L25" s="74">
-        <f>(G25-DATA!$C$11)*'BASE CASE'!I25*J24*DATA!$C$12</f>
-        <v>376.80184507210407</v>
-      </c>
-      <c r="M25" s="57">
+      <c r="L25" s="63">
+        <f>(G25-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I25*J24*DATA!$C$12</f>
+        <v>376.8627029603478</v>
+      </c>
+      <c r="M25" s="49">
         <f>MAX(G25,DATA!$C$4)*I24*(1-'MORTALITY RATES MALE'!B85/'MORTALITY RATES MALE'!B84)</f>
         <v>4307.3710780397978</v>
       </c>
-      <c r="N25" s="57">
+      <c r="N25" s="49">
         <v>0</v>
       </c>
-      <c r="O25" s="77">
+      <c r="O25" s="65">
         <f>G25*DATA!$C$15*J25*I25</f>
         <v>29.897872966673319</v>
       </c>
-      <c r="P25" s="57">
+      <c r="P25" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A25)*'BASE CASE'!I25*'BASE CASE'!J25</f>
         <v>1.3600731177984233</v>
       </c>
-      <c r="Q25" s="57">
+      <c r="Q25" s="49">
         <f t="shared" si="2"/>
-        <v>4715.4308691963734</v>
-      </c>
-      <c r="R25" s="30">
+        <v>4715.4917270846172</v>
+      </c>
+      <c r="R25" s="26">
         <f>Q25*'EIOPA RATES'!G34</f>
-        <v>2596.0266465795521</v>
+        <v>2596.0601511953378</v>
       </c>
       <c r="T25">
         <f t="shared" si="3"/>
         <v>2730.2826479639916</v>
       </c>
-      <c r="U25" s="50">
+      <c r="U25" s="42">
         <f t="shared" si="4"/>
         <v>48.039234974204902</v>
       </c>
-      <c r="V25" s="50">
+      <c r="V25" s="42">
         <f>U25*'EIOPA RATES'!G33</f>
         <v>27.09625024187287</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A26" s="65">
+      <c r="A26" s="56">
         <v>23</v>
       </c>
-      <c r="B26" s="54">
+      <c r="B26" s="46">
         <f>$B25*EXP('EIOPA RATES'!Q34)</f>
         <v>101718.57404580958</v>
       </c>
-      <c r="C26" s="57">
+      <c r="C26" s="49">
         <f>B26*(1-DATA!$C$14)</f>
         <v>99480.765416801776</v>
       </c>
-      <c r="D26" s="57">
+      <c r="D26" s="49">
         <f>$D25*EXP('EIOPA RATES'!Q34)</f>
         <v>25429.643511452396</v>
       </c>
-      <c r="E26" s="57">
+      <c r="E26" s="49">
         <f>D26*(1-DATA!$C$14)</f>
         <v>24870.191354200444</v>
       </c>
-      <c r="F26" s="57">
+      <c r="F26" s="49">
         <f t="shared" si="0"/>
         <v>127148.21755726197</v>
       </c>
-      <c r="G26" s="30">
+      <c r="G26" s="26">
         <f t="shared" si="1"/>
         <v>124350.95677100222</v>
       </c>
-      <c r="I26" s="54">
+      <c r="I26" s="46">
         <f>'MORTALITY RATES MALE'!B86/'MORTALITY RATES MALE'!$B$63</f>
         <v>0.59080489320221952</v>
       </c>
-      <c r="J26" s="68">
+      <c r="J26" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J25</f>
         <v>2.3803197027277356E-2</v>
       </c>
-      <c r="L26" s="74">
-        <f>(G26-DATA!$C$11)*'BASE CASE'!I26*J25*DATA!$C$12</f>
-        <v>308.55386020137354</v>
-      </c>
-      <c r="M26" s="57">
+      <c r="L26" s="63">
+        <f>(G26-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I26*J25*DATA!$C$12</f>
+        <v>308.60250179327471</v>
+      </c>
+      <c r="M26" s="49">
         <f>MAX(G26,DATA!$C$4)*I25*(1-'MORTALITY RATES MALE'!B86/'MORTALITY RATES MALE'!B85)</f>
         <v>4663.4605871765407</v>
       </c>
-      <c r="N26" s="57">
+      <c r="N26" s="49">
         <v>0</v>
       </c>
-      <c r="O26" s="77">
+      <c r="O26" s="65">
         <f>G26*DATA!$C$15*J26*I26</f>
         <v>24.482543895320013</v>
       </c>
-      <c r="P26" s="57">
+      <c r="P26" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A26)*'BASE CASE'!I26*'BASE CASE'!J26</f>
         <v>1.1088002875246785</v>
       </c>
-      <c r="Q26" s="57">
+      <c r="Q26" s="49">
         <f t="shared" si="2"/>
-        <v>4997.6057915607598</v>
-      </c>
-      <c r="R26" s="30">
+        <v>4997.6544331526602</v>
+      </c>
+      <c r="R26" s="26">
         <f>Q26*'EIOPA RATES'!G35</f>
-        <v>2682.7756080609306</v>
+        <v>2682.801719459414</v>
       </c>
       <c r="T26">
         <f t="shared" si="3"/>
         <v>2797.2607862597506</v>
       </c>
-      <c r="U26" s="50">
+      <c r="U26" s="42">
         <f t="shared" si="4"/>
         <v>39.338005090347494</v>
       </c>
-      <c r="V26" s="50">
+      <c r="V26" s="42">
         <f>U26*'EIOPA RATES'!G34</f>
         <v>21.657089727460765</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A27" s="65">
+      <c r="A27" s="56">
         <v>24</v>
       </c>
-      <c r="B27" s="54">
+      <c r="B27" s="46">
         <f>$B26*EXP('EIOPA RATES'!Q35)</f>
         <v>104319.54259852742</v>
       </c>
-      <c r="C27" s="57">
+      <c r="C27" s="49">
         <f>B27*(1-DATA!$C$14)</f>
         <v>102024.51266135981</v>
       </c>
-      <c r="D27" s="57">
+      <c r="D27" s="49">
         <f>$D26*EXP('EIOPA RATES'!Q35)</f>
         <v>26079.885649631855</v>
       </c>
-      <c r="E27" s="57">
+      <c r="E27" s="49">
         <f>D27*(1-DATA!$C$14)</f>
         <v>25506.128165339953</v>
       </c>
-      <c r="F27" s="57">
+      <c r="F27" s="49">
         <f t="shared" si="0"/>
         <v>130399.42824815927</v>
       </c>
-      <c r="G27" s="30">
+      <c r="G27" s="26">
         <f t="shared" si="1"/>
         <v>127530.64082669976</v>
       </c>
-      <c r="I27" s="54">
+      <c r="I27" s="46">
         <f>'MORTALITY RATES MALE'!B87/'MORTALITY RATES MALE'!$B$63</f>
         <v>0.55137433853932338</v>
       </c>
-      <c r="J27" s="68">
+      <c r="J27" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J26</f>
         <v>2.0232717473185752E-2</v>
       </c>
-      <c r="L27" s="74">
-        <f>(G27-DATA!$C$11)*'BASE CASE'!I27*J26*DATA!$C$12</f>
-        <v>251.02647559153039</v>
-      </c>
-      <c r="M27" s="57">
+      <c r="L27" s="63">
+        <f>(G27-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I27*J26*DATA!$C$12</f>
+        <v>251.06506153925753</v>
+      </c>
+      <c r="M27" s="49">
         <f>MAX(G27,DATA!$C$4)*I26*(1-'MORTALITY RATES MALE'!B87/'MORTALITY RATES MALE'!B86)</f>
         <v>5028.6039043113515</v>
       </c>
-      <c r="N27" s="57">
+      <c r="N27" s="49">
         <v>0</v>
       </c>
-      <c r="O27" s="77">
+      <c r="O27" s="65">
         <f>G27*DATA!$C$15*J27*I27</f>
         <v>19.917890687934559</v>
       </c>
-      <c r="P27" s="57">
+      <c r="P27" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A27)*'BASE CASE'!I27*'BASE CASE'!J27</f>
         <v>0.89717031098723543</v>
       </c>
-      <c r="Q27" s="57">
+      <c r="Q27" s="49">
         <f t="shared" si="2"/>
-        <v>5300.4454409018035</v>
-      </c>
-      <c r="R27" s="30">
+        <v>5300.4840268495309</v>
+      </c>
+      <c r="R27" s="26">
         <f>Q27*'EIOPA RATES'!G36</f>
-        <v>2771.8614881958465</v>
+        <v>2771.8816666702187</v>
       </c>
       <c r="T27">
         <f t="shared" si="3"/>
         <v>2868.7874214595067</v>
       </c>
-      <c r="U27" s="50">
+      <c r="U27" s="42">
         <f t="shared" si="4"/>
         <v>32.003622197966749</v>
       </c>
-      <c r="V27" s="50">
+      <c r="V27" s="42">
         <f>U27*'EIOPA RATES'!G35</f>
         <v>17.179933868991451</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A28" s="66">
+      <c r="A28" s="57">
         <v>25</v>
       </c>
-      <c r="B28" s="54">
+      <c r="B28" s="46">
         <f>$B27*EXP('EIOPA RATES'!Q36)</f>
         <v>107085.05672254889</v>
       </c>
-      <c r="C28" s="57">
+      <c r="C28" s="49">
         <f>B28*(1-DATA!$C$14)</f>
         <v>104729.18547465281</v>
       </c>
-      <c r="D28" s="57">
+      <c r="D28" s="49">
         <f>$D27*EXP('EIOPA RATES'!Q36)</f>
         <v>26771.264180637223</v>
       </c>
-      <c r="E28" s="57">
+      <c r="E28" s="49">
         <f>D28*(1-DATA!$C$14)</f>
         <v>26182.296368663203</v>
       </c>
-      <c r="F28" s="57">
+      <c r="F28" s="49">
         <f t="shared" si="0"/>
         <v>133856.3209031861</v>
       </c>
-      <c r="G28" s="30">
+      <c r="G28" s="26">
         <f t="shared" si="1"/>
         <v>130911.48184331601</v>
       </c>
-      <c r="I28" s="54">
+      <c r="I28" s="46">
         <f>'MORTALITY RATES MALE'!B88/'MORTALITY RATES MALE'!$B$63</f>
         <v>0.50986567260106685</v>
       </c>
-      <c r="J28" s="68">
+      <c r="J28" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J27</f>
         <v>1.7197809852207889E-2</v>
       </c>
-      <c r="L28" s="74">
-        <f>(G28-DATA!$C$11)*'BASE CASE'!I28*J27*DATA!$C$12</f>
-        <v>202.54085274776716</v>
-      </c>
-      <c r="M28" s="57">
+      <c r="L28" s="63">
+        <f>(G28-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I28*J27*DATA!$C$12</f>
+        <v>202.57118169398998</v>
+      </c>
+      <c r="M28" s="49">
         <f>MAX(G28,DATA!$C$4)*I27*(1-'MORTALITY RATES MALE'!B88/'MORTALITY RATES MALE'!B87)</f>
         <v>5433.9609673163386</v>
       </c>
-      <c r="N28" s="57">
+      <c r="N28" s="49">
         <v>0</v>
       </c>
-      <c r="O28" s="77">
+      <c r="O28" s="65">
         <f>G28*DATA!$C$15*J28*I28</f>
         <v>16.070696185064708</v>
       </c>
-      <c r="P28" s="57">
+      <c r="P28" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A28)*'BASE CASE'!I28*'BASE CASE'!J28</f>
         <v>0.71928866211169284</v>
       </c>
-      <c r="Q28" s="57">
+      <c r="Q28" s="49">
         <f t="shared" si="2"/>
-        <v>5653.2918049112823</v>
-      </c>
-      <c r="R28" s="30">
+        <v>5653.3221338575049</v>
+      </c>
+      <c r="R28" s="26">
         <f>Q28*'EIOPA RATES'!G37</f>
-        <v>2878.5173496288439</v>
+        <v>2878.5327923834211</v>
       </c>
       <c r="T28">
         <f t="shared" si="3"/>
         <v>2944.8390598700935</v>
       </c>
-      <c r="U28" s="50">
+      <c r="U28" s="42">
         <f t="shared" si="4"/>
         <v>25.822035938608202</v>
       </c>
-      <c r="V28" s="50">
+      <c r="V28" s="42">
         <f>U28*'EIOPA RATES'!G36</f>
         <v>13.50360224684429</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A29" s="65">
+      <c r="A29" s="56">
         <v>26</v>
       </c>
-      <c r="B29" s="54">
+      <c r="B29" s="46">
         <f>$B28*EXP('EIOPA RATES'!Q37)</f>
         <v>109981.73803463517</v>
       </c>
-      <c r="C29" s="57">
+      <c r="C29" s="49">
         <f>B29*(1-DATA!$C$14)</f>
         <v>107562.1397978732</v>
       </c>
-      <c r="D29" s="57">
+      <c r="D29" s="49">
         <f>$D28*EXP('EIOPA RATES'!Q37)</f>
         <v>27495.434508658793</v>
       </c>
-      <c r="E29" s="57">
+      <c r="E29" s="49">
         <f>D29*(1-DATA!$C$14)</f>
         <v>26890.5349494683</v>
       </c>
-      <c r="F29" s="57">
+      <c r="F29" s="49">
         <f t="shared" si="0"/>
         <v>137477.17254329397</v>
       </c>
-      <c r="G29" s="30">
+      <c r="G29" s="26">
         <f t="shared" si="1"/>
         <v>134452.67474734149</v>
       </c>
-      <c r="I29" s="54">
+      <c r="I29" s="46">
         <f>'MORTALITY RATES MALE'!B89/'MORTALITY RATES MALE'!$B$63</f>
         <v>0.46754290121473102</v>
       </c>
-      <c r="J29" s="68">
+      <c r="J29" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J28</f>
         <v>1.4618138374376706E-2</v>
       </c>
-      <c r="L29" s="74">
-        <f>(G29-DATA!$C$11)*'BASE CASE'!I29*J28*DATA!$C$12</f>
-        <v>162.14020172719782</v>
-      </c>
-      <c r="M29" s="57">
+      <c r="L29" s="63">
+        <f>(G29-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I29*J28*DATA!$C$12</f>
+        <v>162.16384142610153</v>
+      </c>
+      <c r="M29" s="49">
         <f>MAX(G29,DATA!$C$4)*I28*(1-'MORTALITY RATES MALE'!B89/'MORTALITY RATES MALE'!B88)</f>
         <v>5690.4098156131122</v>
       </c>
-      <c r="N29" s="57">
+      <c r="N29" s="49">
         <v>0</v>
       </c>
-      <c r="O29" s="77">
+      <c r="O29" s="65">
         <f>G29*DATA!$C$15*J29*I29</f>
         <v>12.865036360268949</v>
       </c>
-      <c r="P29" s="57">
+      <c r="P29" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A29)*'BASE CASE'!I29*'BASE CASE'!J29</f>
         <v>0.57185774334864736</v>
       </c>
-      <c r="Q29" s="57">
+      <c r="Q29" s="49">
         <f t="shared" si="2"/>
-        <v>5865.986911443928</v>
-      </c>
-      <c r="R29" s="30">
+        <v>5866.0105511428319</v>
+      </c>
+      <c r="R29" s="26">
         <f>Q29*'EIOPA RATES'!G38</f>
-        <v>2905.6861381071153</v>
+        <v>2905.6978479091404</v>
       </c>
       <c r="T29">
         <f t="shared" si="3"/>
         <v>3024.497795952484</v>
       </c>
-      <c r="U29" s="50">
+      <c r="U29" s="42">
         <f t="shared" si="4"/>
         <v>20.671253281180139</v>
       </c>
-      <c r="V29" s="50">
+      <c r="V29" s="42">
         <f>U29*'EIOPA RATES'!G37</f>
         <v>10.525294511908355</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A30" s="65">
+      <c r="A30" s="56">
         <v>27</v>
       </c>
-      <c r="B30" s="54">
+      <c r="B30" s="46">
         <f>$B29*EXP('EIOPA RATES'!Q38)</f>
         <v>113052.56363815517</v>
       </c>
-      <c r="C30" s="57">
+      <c r="C30" s="49">
         <f>B30*(1-DATA!$C$14)</f>
         <v>110565.40723811576</v>
       </c>
-      <c r="D30" s="57">
+      <c r="D30" s="49">
         <f>$D29*EXP('EIOPA RATES'!Q38)</f>
         <v>28263.140909538793</v>
       </c>
-      <c r="E30" s="57">
+      <c r="E30" s="49">
         <f>D30*(1-DATA!$C$14)</f>
         <v>27641.35180952894</v>
       </c>
-      <c r="F30" s="57">
+      <c r="F30" s="49">
         <f t="shared" si="0"/>
         <v>141315.70454769395</v>
       </c>
-      <c r="G30" s="30">
+      <c r="G30" s="26">
         <f t="shared" si="1"/>
         <v>138206.75904764471</v>
       </c>
-      <c r="I30" s="54">
+      <c r="I30" s="46">
         <f>'MORTALITY RATES MALE'!B90/'MORTALITY RATES MALE'!$B$63</f>
         <v>0.4238168691218373</v>
       </c>
-      <c r="J30" s="68">
+      <c r="J30" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J29</f>
         <v>1.24254176182202E-2</v>
       </c>
-      <c r="L30" s="74">
-        <f>(G30-DATA!$C$11)*'BASE CASE'!I30*J29*DATA!$C$12</f>
-        <v>128.41861974374086</v>
-      </c>
-      <c r="M30" s="57">
+      <c r="L30" s="63">
+        <f>(G30-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I30*J29*DATA!$C$12</f>
+        <v>128.43683425983724</v>
+      </c>
+      <c r="M30" s="49">
         <f>MAX(G30,DATA!$C$4)*I29*(1-'MORTALITY RATES MALE'!B90/'MORTALITY RATES MALE'!B89)</f>
         <v>6043.23318157214</v>
       </c>
-      <c r="N30" s="57">
+      <c r="N30" s="49">
         <v>0</v>
       </c>
-      <c r="O30" s="77">
+      <c r="O30" s="65">
         <f>G30*DATA!$C$15*J30*I30</f>
         <v>10.189351674782673</v>
       </c>
-      <c r="P30" s="57">
+      <c r="P30" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A30)*'BASE CASE'!I30*'BASE CASE'!J30</f>
         <v>0.44943187964157583</v>
       </c>
-      <c r="Q30" s="57">
+      <c r="Q30" s="49">
         <f t="shared" si="2"/>
-        <v>6182.2905848703049</v>
-      </c>
-      <c r="R30" s="30">
+        <v>6182.308799386401</v>
+      </c>
+      <c r="R30" s="26">
         <f>Q30*'EIOPA RATES'!G39</f>
-        <v>2978.0225434519916</v>
+        <v>2978.0313174231933</v>
       </c>
       <c r="T30">
         <f t="shared" si="3"/>
         <v>3108.9455000492453</v>
       </c>
-      <c r="U30" s="50">
+      <c r="U30" s="42">
         <f t="shared" si="4"/>
         <v>16.372022848759656</v>
       </c>
-      <c r="V30" s="50">
+      <c r="V30" s="42">
         <f>U30*'EIOPA RATES'!G38</f>
         <v>8.1097964524274637</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A31" s="65">
+      <c r="A31" s="56">
         <v>28</v>
       </c>
-      <c r="B31" s="54">
+      <c r="B31" s="46">
         <f>$B30*EXP('EIOPA RATES'!Q39)</f>
         <v>116254.41637907411</v>
       </c>
-      <c r="C31" s="57">
+      <c r="C31" s="49">
         <f>B31*(1-DATA!$C$14)</f>
         <v>113696.81921873448</v>
       </c>
-      <c r="D31" s="57">
+      <c r="D31" s="49">
         <f>$D30*EXP('EIOPA RATES'!Q39)</f>
         <v>29063.604094768529</v>
       </c>
-      <c r="E31" s="57">
+      <c r="E31" s="49">
         <f>D31*(1-DATA!$C$14)</f>
         <v>28424.204804683621</v>
       </c>
-      <c r="F31" s="57">
+      <c r="F31" s="49">
         <f t="shared" si="0"/>
         <v>145318.02047384265</v>
       </c>
-      <c r="G31" s="30">
+      <c r="G31" s="26">
         <f t="shared" si="1"/>
         <v>142121.02402341811</v>
       </c>
-      <c r="I31" s="54">
+      <c r="I31" s="46">
         <f>'MORTALITY RATES MALE'!B91/'MORTALITY RATES MALE'!$B$63</f>
         <v>0.37850547378794697</v>
       </c>
-      <c r="J31" s="68">
+      <c r="J31" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J30</f>
         <v>1.0561604975487169E-2</v>
       </c>
-      <c r="L31" s="74">
-        <f>(G31-DATA!$C$11)*'BASE CASE'!I31*J30*DATA!$C$12</f>
-        <v>100.24705554899349</v>
-      </c>
-      <c r="M31" s="57">
+      <c r="L31" s="63">
+        <f>(G31-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I31*J30*DATA!$C$12</f>
+        <v>100.26088262942631</v>
+      </c>
+      <c r="M31" s="49">
         <f>MAX(G31,DATA!$C$4)*I30*(1-'MORTALITY RATES MALE'!B91/'MORTALITY RATES MALE'!B90)</f>
         <v>6439.7019047824242</v>
       </c>
-      <c r="N31" s="57">
+      <c r="N31" s="49">
         <v>0</v>
       </c>
-      <c r="O31" s="77">
+      <c r="O31" s="65">
         <f>G31*DATA!$C$15*J31*I31</f>
         <v>7.9540524086361399</v>
       </c>
-      <c r="P31" s="57">
+      <c r="P31" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A31)*'BASE CASE'!I31*'BASE CASE'!J31</f>
         <v>0.34799812030850796</v>
       </c>
-      <c r="Q31" s="57">
+      <c r="Q31" s="49">
         <f t="shared" si="2"/>
-        <v>6548.2510108603619</v>
-      </c>
-      <c r="R31" s="30">
+        <v>6548.2648379407947</v>
+      </c>
+      <c r="R31" s="26">
         <f>Q31*'EIOPA RATES'!G40</f>
-        <v>3065.2808748958273</v>
+        <v>3065.2873474463045</v>
       </c>
       <c r="T31">
         <f t="shared" si="3"/>
         <v>3196.9964504245436</v>
       </c>
-      <c r="U31" s="50">
+      <c r="U31" s="42">
         <f t="shared" si="4"/>
         <v>12.780393878907054</v>
       </c>
-      <c r="V31" s="50">
+      <c r="V31" s="42">
         <f>U31*'EIOPA RATES'!G39</f>
         <v>6.1563429546201922</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A32" s="65">
+      <c r="A32" s="56">
         <v>29</v>
       </c>
-      <c r="B32" s="54">
+      <c r="B32" s="46">
         <f>$B31*EXP('EIOPA RATES'!Q40)</f>
         <v>119630.81739471678</v>
       </c>
-      <c r="C32" s="57">
+      <c r="C32" s="49">
         <f>B32*(1-DATA!$C$14)</f>
         <v>116998.93941203301</v>
       </c>
-      <c r="D32" s="57">
+      <c r="D32" s="49">
         <f>$D31*EXP('EIOPA RATES'!Q40)</f>
         <v>29907.704348679195</v>
       </c>
-      <c r="E32" s="57">
+      <c r="E32" s="49">
         <f>D32*(1-DATA!$C$14)</f>
         <v>29249.734853008253</v>
       </c>
-      <c r="F32" s="57">
+      <c r="F32" s="49">
         <f t="shared" si="0"/>
         <v>149538.52174339598</v>
       </c>
-      <c r="G32" s="30">
+      <c r="G32" s="26">
         <f t="shared" si="1"/>
         <v>146248.67426504125</v>
       </c>
-      <c r="I32" s="54">
+      <c r="I32" s="46">
         <f>'MORTALITY RATES MALE'!B92/'MORTALITY RATES MALE'!$B$63</f>
         <v>0.33229427769565312</v>
       </c>
-      <c r="J32" s="68">
+      <c r="J32" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J31</f>
         <v>8.9773642291640938E-3</v>
       </c>
-      <c r="L32" s="74">
-        <f>(G32-DATA!$C$11)*'BASE CASE'!I32*J31*DATA!$C$12</f>
-        <v>76.979765575133897</v>
-      </c>
-      <c r="M32" s="57">
+      <c r="L32" s="63">
+        <f>(G32-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I32*J31*DATA!$C$12</f>
+        <v>76.990083684170003</v>
+      </c>
+      <c r="M32" s="49">
         <f>MAX(G32,DATA!$C$4)*I31*(1-'MORTALITY RATES MALE'!B92/'MORTALITY RATES MALE'!B91)</f>
         <v>6758.3261646998317</v>
       </c>
-      <c r="N32" s="57">
+      <c r="N32" s="49">
         <v>0</v>
       </c>
-      <c r="O32" s="77">
+      <c r="O32" s="65">
         <f>G32*DATA!$C$15*J32*I32</f>
         <v>6.1078966777873545</v>
       </c>
-      <c r="P32" s="57">
+      <c r="P32" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A32)*'BASE CASE'!I32*'BASE CASE'!J32</f>
         <v>0.26487849105159827</v>
       </c>
-      <c r="Q32" s="57">
+      <c r="Q32" s="49">
         <f t="shared" si="2"/>
-        <v>6841.6787054438046</v>
-      </c>
-      <c r="R32" s="30">
+        <v>6841.6890235528408</v>
+      </c>
+      <c r="R32" s="26">
         <f>Q32*'EIOPA RATES'!G41</f>
-        <v>3111.7017611839356</v>
+        <v>3111.7064540202177</v>
       </c>
       <c r="T32">
         <f t="shared" si="3"/>
         <v>3289.8474783547281</v>
       </c>
-      <c r="U32" s="50">
+      <c r="U32" s="42">
         <f t="shared" si="4"/>
         <v>9.8140320560416665</v>
       </c>
-      <c r="V32" s="50">
+      <c r="V32" s="42">
         <f>U32*'EIOPA RATES'!G40</f>
         <v>4.5940152136969745</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A33" s="66">
+      <c r="A33" s="57">
         <v>30</v>
       </c>
-      <c r="B33" s="54">
+      <c r="B33" s="46">
         <f>$B32*EXP('EIOPA RATES'!Q41)</f>
         <v>123126.84084450272</v>
       </c>
-      <c r="C33" s="57">
+      <c r="C33" s="49">
         <f>B33*(1-DATA!$C$14)</f>
         <v>120418.05034592365</v>
       </c>
-      <c r="D33" s="57">
+      <c r="D33" s="49">
         <f>$D32*EXP('EIOPA RATES'!Q41)</f>
         <v>30781.710211125679</v>
       </c>
-      <c r="E33" s="57">
+      <c r="E33" s="49">
         <f>D33*(1-DATA!$C$14)</f>
         <v>30104.512586480912</v>
       </c>
-      <c r="F33" s="57">
+      <c r="F33" s="49">
         <f t="shared" si="0"/>
         <v>153908.5510556284</v>
       </c>
-      <c r="G33" s="30">
+      <c r="G33" s="26">
         <f t="shared" si="1"/>
         <v>150522.56293240457</v>
       </c>
-      <c r="I33" s="54">
+      <c r="I33" s="46">
         <f>'MORTALITY RATES MALE'!B93/'MORTALITY RATES MALE'!$B$63</f>
         <v>0.28638301518949377</v>
       </c>
-      <c r="J33" s="68">
+      <c r="J33" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J32</f>
         <v>7.6307595947894798E-3</v>
       </c>
-      <c r="L33" s="74">
-        <f>(G33-DATA!$C$11)*'BASE CASE'!I33*J32*DATA!$C$12</f>
-        <v>58.040515048068983</v>
-      </c>
-      <c r="M33" s="57">
+      <c r="L33" s="63">
+        <f>(G33-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I33*J32*DATA!$C$12</f>
+        <v>58.048073684100018</v>
+      </c>
+      <c r="M33" s="49">
         <f>MAX(G33,DATA!$C$4)*I32*(1-'MORTALITY RATES MALE'!B93/'MORTALITY RATES MALE'!B92)</f>
         <v>6910.6808998895185</v>
       </c>
-      <c r="N33" s="57">
+      <c r="N33" s="49">
         <v>0</v>
       </c>
-      <c r="O33" s="77">
+      <c r="O33" s="65">
         <f>G33*DATA!$C$15*J33*I33</f>
         <v>4.6051594167302712</v>
       </c>
-      <c r="P33" s="57">
+      <c r="P33" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A33)*'BASE CASE'!I33*'BASE CASE'!J33</f>
         <v>0.19792022949986476</v>
       </c>
-      <c r="Q33" s="57">
+      <c r="Q33" s="49">
         <f t="shared" si="2"/>
-        <v>6973.5244945838176</v>
-      </c>
-      <c r="R33" s="30">
+        <v>6973.5320532198484</v>
+      </c>
+      <c r="R33" s="26">
         <f>Q33*'EIOPA RATES'!G42</f>
-        <v>3079.212423749053</v>
+        <v>3079.215761321896</v>
       </c>
       <c r="T33">
         <f t="shared" si="3"/>
         <v>3385.9881232238258</v>
       </c>
-      <c r="U33" s="50">
+      <c r="U33" s="42">
         <f t="shared" si="4"/>
         <v>7.399467365473706</v>
       </c>
-      <c r="V33" s="50">
+      <c r="V33" s="42">
         <f>U33*'EIOPA RATES'!G41</f>
         <v>3.3653927090506377</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A34" s="65">
+      <c r="A34" s="56">
         <v>31</v>
       </c>
-      <c r="B34" s="54">
+      <c r="B34" s="46">
         <f>$B33*EXP('EIOPA RATES'!Q42)</f>
         <v>126823.78412244286</v>
       </c>
-      <c r="C34" s="57">
+      <c r="C34" s="49">
         <f>B34*(1-DATA!$C$14)</f>
         <v>124033.6608717491</v>
       </c>
-      <c r="D34" s="57">
+      <c r="D34" s="49">
         <f>$D33*EXP('EIOPA RATES'!Q42)</f>
         <v>31705.946030610714</v>
       </c>
-      <c r="E34" s="57">
+      <c r="E34" s="49">
         <f>D34*(1-DATA!$C$14)</f>
         <v>31008.415217937276</v>
       </c>
-      <c r="F34" s="57">
+      <c r="F34" s="49">
         <f t="shared" si="0"/>
         <v>158529.73015305356</v>
       </c>
-      <c r="G34" s="30">
+      <c r="G34" s="26">
         <f t="shared" si="1"/>
         <v>155042.07608968636</v>
       </c>
-      <c r="I34" s="54">
+      <c r="I34" s="46">
         <f>'MORTALITY RATES MALE'!B94/'MORTALITY RATES MALE'!$B$63</f>
         <v>0.24177860616577757</v>
       </c>
-      <c r="J34" s="68">
+      <c r="J34" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J33</f>
         <v>6.486145655571058E-3</v>
       </c>
-      <c r="L34" s="74">
-        <f>(G34-DATA!$C$11)*'BASE CASE'!I34*J33*DATA!$C$12</f>
-        <v>42.90129964431582</v>
-      </c>
-      <c r="M34" s="57">
+      <c r="L34" s="63">
+        <f>(G34-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I34*J33*DATA!$C$12</f>
+        <v>42.906723810307128</v>
+      </c>
+      <c r="M34" s="49">
         <f>MAX(G34,DATA!$C$4)*I33*(1-'MORTALITY RATES MALE'!B94/'MORTALITY RATES MALE'!B93)</f>
         <v>6915.5601777904985</v>
       </c>
-      <c r="N34" s="57">
+      <c r="N34" s="49">
         <v>0</v>
       </c>
-      <c r="O34" s="77">
+      <c r="O34" s="65">
         <f>G34*DATA!$C$15*J34*I34</f>
         <v>3.4039422042673992</v>
       </c>
-      <c r="P34" s="57">
+      <c r="P34" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A34)*'BASE CASE'!I34*'BASE CASE'!J34</f>
         <v>0.14487047886799828</v>
       </c>
-      <c r="Q34" s="57">
+      <c r="Q34" s="49">
         <f t="shared" si="2"/>
-        <v>6962.0102901179498</v>
-      </c>
-      <c r="R34" s="30">
+        <v>6962.0157142839407</v>
+      </c>
+      <c r="R34" s="26">
         <f>Q34*'EIOPA RATES'!G43</f>
-        <v>2984.8083408054349</v>
+        <v>2984.8106662969549</v>
       </c>
       <c r="T34">
         <f t="shared" si="3"/>
         <v>3487.6540633671975</v>
       </c>
-      <c r="U34" s="50">
+      <c r="U34" s="42">
         <f t="shared" si="4"/>
         <v>5.4693783591793164</v>
       </c>
-      <c r="V34" s="50">
+      <c r="V34" s="42">
         <f>U34*'EIOPA RATES'!G42</f>
         <v>2.4150453342279774</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A35" s="65">
+      <c r="A35" s="56">
         <v>32</v>
       </c>
-      <c r="B35" s="54">
+      <c r="B35" s="46">
         <f>$B34*EXP('EIOPA RATES'!Q43)</f>
         <v>130618.9650158242</v>
       </c>
-      <c r="C35" s="57">
+      <c r="C35" s="49">
         <f>B35*(1-DATA!$C$14)</f>
         <v>127745.34778547607</v>
       </c>
-      <c r="D35" s="57">
+      <c r="D35" s="49">
         <f>$D34*EXP('EIOPA RATES'!Q43)</f>
         <v>32654.74125395605</v>
       </c>
-      <c r="E35" s="57">
+      <c r="E35" s="49">
         <f>D35*(1-DATA!$C$14)</f>
         <v>31936.336946369018</v>
       </c>
-      <c r="F35" s="57">
+      <c r="F35" s="49">
         <f t="shared" si="0"/>
         <v>163273.70626978026</v>
       </c>
-      <c r="G35" s="30">
+      <c r="G35" s="26">
         <f t="shared" si="1"/>
         <v>159681.6847318451</v>
       </c>
-      <c r="I35" s="54">
+      <c r="I35" s="46">
         <f>'MORTALITY RATES MALE'!B95/'MORTALITY RATES MALE'!$B$63</f>
         <v>0.19954153008976583</v>
       </c>
-      <c r="J35" s="68">
+      <c r="J35" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J34</f>
         <v>5.5132238072353994E-3</v>
       </c>
-      <c r="L35" s="74">
-        <f>(G35-DATA!$C$11)*'BASE CASE'!I35*J34*DATA!$C$12</f>
-        <v>30.996450328092696</v>
-      </c>
-      <c r="M35" s="57">
+      <c r="L35" s="63">
+        <f>(G35-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I35*J34*DATA!$C$12</f>
+        <v>31.000255439052477</v>
+      </c>
+      <c r="M35" s="49">
         <f>MAX(G35,DATA!$C$4)*I34*(1-'MORTALITY RATES MALE'!B95/'MORTALITY RATES MALE'!B94)</f>
         <v>6744.487465964663</v>
       </c>
-      <c r="N35" s="57">
+      <c r="N35" s="49">
         <v>0</v>
       </c>
-      <c r="O35" s="77">
+      <c r="O35" s="65">
         <f>G35*DATA!$C$15*J35*I35</f>
         <v>2.4593597588206699</v>
       </c>
-      <c r="P35" s="57">
+      <c r="P35" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A35)*'BASE CASE'!I35*'BASE CASE'!J35</f>
         <v>0.10366076789092701</v>
       </c>
-      <c r="Q35" s="57">
+      <c r="Q35" s="49">
         <f t="shared" si="2"/>
-        <v>6778.0469368194672</v>
-      </c>
-      <c r="R35" s="30">
+        <v>6778.0507419304267</v>
+      </c>
+      <c r="R35" s="26">
         <f>Q35*'EIOPA RATES'!G44</f>
-        <v>2820.0500222587357</v>
+        <v>2820.0516053996234</v>
       </c>
       <c r="T35">
         <f t="shared" si="3"/>
         <v>3592.0215379351575</v>
       </c>
-      <c r="U35" s="50">
+      <c r="U35" s="42">
         <f t="shared" si="4"/>
         <v>3.9516443685403599</v>
       </c>
-      <c r="V35" s="50">
+      <c r="V35" s="42">
         <f>U35*'EIOPA RATES'!G43</f>
         <v>1.6941803559035336</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A36" s="65">
+      <c r="A36" s="56">
         <v>33</v>
       </c>
-      <c r="B36" s="54">
+      <c r="B36" s="46">
         <f>$B35*EXP('EIOPA RATES'!Q44)</f>
         <v>134597.1261027033</v>
       </c>
-      <c r="C36" s="57">
+      <c r="C36" s="49">
         <f>B36*(1-DATA!$C$14)</f>
         <v>131635.98932844383</v>
       </c>
-      <c r="D36" s="57">
+      <c r="D36" s="49">
         <f>$D35*EXP('EIOPA RATES'!Q44)</f>
         <v>33649.281525675826</v>
       </c>
-      <c r="E36" s="57">
+      <c r="E36" s="49">
         <f>D36*(1-DATA!$C$14)</f>
         <v>32908.997332110957</v>
       </c>
-      <c r="F36" s="57">
+      <c r="F36" s="49">
         <f t="shared" si="0"/>
         <v>168246.40762837912</v>
       </c>
-      <c r="G36" s="30">
+      <c r="G36" s="26">
         <f t="shared" si="1"/>
         <v>164544.98666055477</v>
       </c>
-      <c r="I36" s="54">
+      <c r="I36" s="46">
         <f>'MORTALITY RATES MALE'!B96/'MORTALITY RATES MALE'!$B$63</f>
         <v>0.16076440216809135</v>
       </c>
-      <c r="J36" s="68">
+      <c r="J36" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J35</f>
         <v>4.6862402361500894E-3</v>
       </c>
-      <c r="L36" s="74">
-        <f>(G36-DATA!$C$11)*'BASE CASE'!I36*J35*DATA!$C$12</f>
-        <v>21.873517907188109</v>
-      </c>
-      <c r="M36" s="57">
+      <c r="L36" s="63">
+        <f>(G36-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I36*J35*DATA!$C$12</f>
+        <v>21.876123717768515</v>
+      </c>
+      <c r="M36" s="49">
         <f>MAX(G36,DATA!$C$4)*I35*(1-'MORTALITY RATES MALE'!B96/'MORTALITY RATES MALE'!B95)</f>
         <v>6380.5819966065537</v>
       </c>
-      <c r="N36" s="57">
+      <c r="N36" s="49">
         <v>0</v>
       </c>
-      <c r="O36" s="77">
+      <c r="O36" s="65">
         <f>G36*DATA!$C$15*J36*I36</f>
         <v>1.7355100338743847</v>
       </c>
-      <c r="P36" s="57">
+      <c r="P36" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A36)*'BASE CASE'!I36*'BASE CASE'!J36</f>
         <v>7.2408593381339773E-2</v>
       </c>
-      <c r="Q36" s="57">
+      <c r="Q36" s="49">
         <f t="shared" si="2"/>
-        <v>6404.2634331409981</v>
-      </c>
-      <c r="R36" s="30">
+        <v>6404.2660389515786</v>
+      </c>
+      <c r="R36" s="26">
         <f>Q36*'EIOPA RATES'!G45</f>
-        <v>2584.3732223988477</v>
+        <v>2584.3742739463296</v>
       </c>
       <c r="T36">
         <f t="shared" si="3"/>
         <v>3701.4209678243496</v>
       </c>
-      <c r="U36" s="50">
+      <c r="U36" s="42">
         <f t="shared" si="4"/>
         <v>2.7885787865349516</v>
       </c>
-      <c r="V36" s="50">
+      <c r="V36" s="42">
         <f>U36*'EIOPA RATES'!G44</f>
         <v>1.1602061393703187</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A37" s="65">
+      <c r="A37" s="56">
         <v>34</v>
       </c>
-      <c r="B37" s="54">
+      <c r="B37" s="46">
         <f>$B36*EXP('EIOPA RATES'!Q45)</f>
         <v>138772.04311960912</v>
       </c>
-      <c r="C37" s="57">
+      <c r="C37" s="49">
         <f>B37*(1-DATA!$C$14)</f>
         <v>135719.05817097772</v>
       </c>
-      <c r="D37" s="57">
+      <c r="D37" s="49">
         <f>$D36*EXP('EIOPA RATES'!Q45)</f>
         <v>34693.010779902281</v>
       </c>
-      <c r="E37" s="57">
+      <c r="E37" s="49">
         <f>D37*(1-DATA!$C$14)</f>
         <v>33929.764542744429</v>
       </c>
-      <c r="F37" s="57">
+      <c r="F37" s="49">
         <f t="shared" si="0"/>
         <v>173465.0538995114</v>
       </c>
-      <c r="G37" s="30">
+      <c r="G37" s="26">
         <f t="shared" si="1"/>
         <v>169648.82271372215</v>
       </c>
-      <c r="I37" s="54">
+      <c r="I37" s="46">
         <f>'MORTALITY RATES MALE'!B97/'MORTALITY RATES MALE'!$B$63</f>
         <v>0.12646485421085332</v>
       </c>
-      <c r="J37" s="68">
+      <c r="J37" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J36</f>
         <v>3.9833042007275761E-3</v>
       </c>
-      <c r="L37" s="74">
-        <f>(G37-DATA!$C$11)*'BASE CASE'!I37*J36*DATA!$C$12</f>
-        <v>15.079443113607377</v>
-      </c>
-      <c r="M37" s="57">
+      <c r="L37" s="63">
+        <f>(G37-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I37*J36*DATA!$C$12</f>
+        <v>15.081185488990869</v>
+      </c>
+      <c r="M37" s="49">
         <f>MAX(G37,DATA!$C$4)*I36*(1-'MORTALITY RATES MALE'!B97/'MORTALITY RATES MALE'!B96)</f>
         <v>5818.8779305582866</v>
       </c>
-      <c r="N37" s="57">
+      <c r="N37" s="49">
         <v>0</v>
       </c>
-      <c r="O37" s="77">
+      <c r="O37" s="65">
         <f>G37*DATA!$C$15*J37*I37</f>
         <v>1.1964435364486583</v>
       </c>
-      <c r="P37" s="57">
+      <c r="P37" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A37)*'BASE CASE'!I37*'BASE CASE'!J37</f>
         <v>4.9384330020649292E-2</v>
       </c>
-      <c r="Q37" s="57">
+      <c r="Q37" s="49">
         <f t="shared" si="2"/>
-        <v>5835.2032015383638</v>
-      </c>
-      <c r="R37" s="30">
+        <v>5835.2049439137472</v>
+      </c>
+      <c r="R37" s="26">
         <f>Q37*'EIOPA RATES'!G46</f>
-        <v>2284.1390186337549</v>
+        <v>2284.1397006712882</v>
       </c>
       <c r="T37">
         <f t="shared" si="3"/>
         <v>3816.2311857892491</v>
       </c>
-      <c r="U37" s="50">
+      <c r="U37" s="42">
         <f t="shared" si="4"/>
         <v>1.9224187702213316</v>
       </c>
-      <c r="V37" s="50">
+      <c r="V37" s="42">
         <f>U37*'EIOPA RATES'!G45</f>
         <v>0.77577189693463855</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A38" s="66">
+      <c r="A38" s="57">
         <v>35</v>
       </c>
-      <c r="B38" s="54">
+      <c r="B38" s="46">
         <f>$B37*EXP('EIOPA RATES'!Q46)</f>
         <v>143061.07317478643</v>
       </c>
-      <c r="C38" s="57">
+      <c r="C38" s="49">
         <f>B38*(1-DATA!$C$14)</f>
         <v>139913.72956494114</v>
       </c>
-      <c r="D38" s="57">
+      <c r="D38" s="49">
         <f>$D37*EXP('EIOPA RATES'!Q46)</f>
         <v>35765.268293696608</v>
       </c>
-      <c r="E38" s="57">
+      <c r="E38" s="49">
         <f>D38*(1-DATA!$C$14)</f>
         <v>34978.432391235285</v>
       </c>
-      <c r="F38" s="57">
+      <c r="F38" s="49">
         <f t="shared" si="0"/>
         <v>178826.34146848303</v>
       </c>
-      <c r="G38" s="30">
+      <c r="G38" s="26">
         <f t="shared" si="1"/>
         <v>174892.16195617642</v>
       </c>
-      <c r="I38" s="54">
+      <c r="I38" s="46">
         <f>'MORTALITY RATES MALE'!B98/'MORTALITY RATES MALE'!$B$63</f>
         <v>9.6525055166356025E-2</v>
       </c>
-      <c r="J38" s="68">
+      <c r="J38" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J37</f>
         <v>3.3858085706184394E-3</v>
       </c>
-      <c r="L38" s="74">
-        <f>(G38-DATA!$C$11)*'BASE CASE'!I38*J37*DATA!$C$12</f>
-        <v>10.085454423458398</v>
-      </c>
-      <c r="M38" s="57">
+      <c r="L38" s="63">
+        <f>(G38-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I38*J37*DATA!$C$12</f>
+        <v>10.086584820112092</v>
+      </c>
+      <c r="M38" s="49">
         <f>MAX(G38,DATA!$C$4)*I37*(1-'MORTALITY RATES MALE'!B98/'MORTALITY RATES MALE'!B97)</f>
         <v>5236.2361834255962</v>
       </c>
-      <c r="N38" s="57">
+      <c r="N38" s="49">
         <v>0</v>
       </c>
-      <c r="O38" s="77">
+      <c r="O38" s="65">
         <f>G38*DATA!$C$15*J38*I38</f>
         <v>0.80020422589490348</v>
       </c>
-      <c r="P38" s="57">
+      <c r="P38" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A38)*'BASE CASE'!I38*'BASE CASE'!J38</f>
         <v>3.2679731111852725E-2</v>
       </c>
-      <c r="Q38" s="57">
+      <c r="Q38" s="49">
         <f t="shared" si="2"/>
-        <v>5247.154521806061</v>
-      </c>
-      <c r="R38" s="30">
+        <v>5247.1556522027149</v>
+      </c>
+      <c r="R38" s="26">
         <f>Q38*'EIOPA RATES'!G47</f>
-        <v>1991.9482980971354</v>
+        <v>1991.9487272233755</v>
       </c>
       <c r="T38">
         <f t="shared" si="3"/>
         <v>3934.1795123066113</v>
       </c>
-      <c r="U38" s="50">
+      <c r="U38" s="42">
         <f t="shared" si="4"/>
         <v>1.2857502899275348</v>
       </c>
-      <c r="V38" s="50">
+      <c r="V38" s="42">
         <f>U38*'EIOPA RATES'!G46</f>
         <v>0.5032956529549637</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A39" s="65">
+      <c r="A39" s="56">
         <v>36</v>
       </c>
-      <c r="B39" s="54">
+      <c r="B39" s="46">
         <f>$B38*EXP('EIOPA RATES'!Q47)</f>
         <v>147514.19678002642</v>
       </c>
-      <c r="C39" s="57">
+      <c r="C39" s="49">
         <f>B39*(1-DATA!$C$14)</f>
         <v>144268.88445086585</v>
       </c>
-      <c r="D39" s="57">
+      <c r="D39" s="49">
         <f>$D38*EXP('EIOPA RATES'!Q47)</f>
         <v>36878.549195006606</v>
       </c>
-      <c r="E39" s="57">
+      <c r="E39" s="49">
         <f>D39*(1-DATA!$C$14)</f>
         <v>36067.221112716463</v>
       </c>
-      <c r="F39" s="57">
+      <c r="F39" s="49">
         <f t="shared" si="0"/>
         <v>184392.74597503303</v>
       </c>
-      <c r="G39" s="30">
+      <c r="G39" s="26">
         <f t="shared" si="1"/>
         <v>180336.10556358233</v>
       </c>
-      <c r="I39" s="54">
+      <c r="I39" s="46">
         <f>'MORTALITY RATES MALE'!B99/'MORTALITY RATES MALE'!$B$63</f>
         <v>7.1737686655097804E-2</v>
       </c>
-      <c r="J39" s="68">
+      <c r="J39" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J38</f>
         <v>2.8779372850256733E-3</v>
       </c>
-      <c r="L39" s="74">
-        <f>(G39-DATA!$C$11)*'BASE CASE'!I39*J38*DATA!$C$12</f>
-        <v>6.5695488420299926</v>
-      </c>
-      <c r="M39" s="57">
+      <c r="L39" s="63">
+        <f>(G39-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I39*J38*DATA!$C$12</f>
+        <v>6.5702629388484741</v>
+      </c>
+      <c r="M39" s="49">
         <f>MAX(G39,DATA!$C$4)*I38*(1-'MORTALITY RATES MALE'!B99/'MORTALITY RATES MALE'!B98)</f>
         <v>4470.0575044896805</v>
       </c>
-      <c r="N39" s="57">
+      <c r="N39" s="49">
         <v>0</v>
       </c>
-      <c r="O39" s="77">
+      <c r="O39" s="65">
         <f>G39*DATA!$C$15*J39*I39</f>
         <v>0.52124201597206588</v>
       </c>
-      <c r="P39" s="57">
+      <c r="P39" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A39)*'BASE CASE'!I39*'BASE CASE'!J39</f>
         <v>2.105740651148811E-2</v>
       </c>
-      <c r="Q39" s="57">
+      <c r="Q39" s="49">
         <f t="shared" si="2"/>
-        <v>4477.1693527541938</v>
-      </c>
-      <c r="R39" s="30">
+        <v>4477.170066851013</v>
+      </c>
+      <c r="R39" s="26">
         <f>Q39*'EIOPA RATES'!G48</f>
-        <v>1647.9823684874636</v>
+        <v>1647.9826313363474</v>
       </c>
       <c r="T39">
         <f t="shared" si="3"/>
         <v>4056.6404114507022</v>
       </c>
-      <c r="U39" s="50">
+      <c r="U39" s="42">
         <f t="shared" si="4"/>
         <v>0.83752003734920966</v>
       </c>
-      <c r="V39" s="50">
+      <c r="V39" s="42">
         <f>U39*'EIOPA RATES'!G47</f>
         <v>0.317943107275938</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A40" s="65">
+      <c r="A40" s="56">
         <v>37</v>
       </c>
-      <c r="B40" s="54">
+      <c r="B40" s="46">
         <f>$B39*EXP('EIOPA RATES'!Q48)</f>
         <v>152138.45035511511</v>
       </c>
-      <c r="C40" s="57">
+      <c r="C40" s="49">
         <f>B40*(1-DATA!$C$14)</f>
         <v>148791.40444730257</v>
       </c>
-      <c r="D40" s="57">
+      <c r="D40" s="49">
         <f>$D39*EXP('EIOPA RATES'!Q48)</f>
         <v>38034.612588778778</v>
       </c>
-      <c r="E40" s="57">
+      <c r="E40" s="49">
         <f>D40*(1-DATA!$C$14)</f>
         <v>37197.851111825643</v>
       </c>
-      <c r="F40" s="57">
+      <c r="F40" s="49">
         <f t="shared" si="0"/>
         <v>190173.06294389389</v>
       </c>
-      <c r="G40" s="30">
+      <c r="G40" s="26">
         <f t="shared" si="1"/>
         <v>185989.25555912821</v>
       </c>
-      <c r="I40" s="54">
+      <c r="I40" s="46">
         <f>'MORTALITY RATES MALE'!B100/'MORTALITY RATES MALE'!$B$63</f>
         <v>5.1792103177153631E-2</v>
       </c>
-      <c r="J40" s="68">
+      <c r="J40" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J39</f>
         <v>2.4462466922718223E-3</v>
       </c>
-      <c r="L40" s="74">
-        <f>(G40-DATA!$C$11)*'BASE CASE'!I40*J39*DATA!$C$12</f>
-        <v>4.1579310627731081</v>
-      </c>
-      <c r="M40" s="57">
+      <c r="L40" s="63">
+        <f>(G40-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I40*J39*DATA!$C$12</f>
+        <v>4.1583692827820302</v>
+      </c>
+      <c r="M40" s="49">
         <f>MAX(G40,DATA!$C$4)*I39*(1-'MORTALITY RATES MALE'!B100/'MORTALITY RATES MALE'!B99)</f>
         <v>3709.6642227552843</v>
       </c>
-      <c r="N40" s="57">
+      <c r="N40" s="49">
         <v>0</v>
       </c>
-      <c r="O40" s="77">
+      <c r="O40" s="65">
         <f>G40*DATA!$C$15*J40*I40</f>
         <v>0.32989800593310314</v>
       </c>
-      <c r="P40" s="57">
+      <c r="P40" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A40)*'BASE CASE'!I40*'BASE CASE'!J40</f>
         <v>1.3180751073435871E-2</v>
       </c>
-      <c r="Q40" s="57">
+      <c r="Q40" s="49">
         <f t="shared" si="2"/>
-        <v>3714.1652325750638</v>
-      </c>
-      <c r="R40" s="30">
+        <v>3714.1656707950729</v>
+      </c>
+      <c r="R40" s="26">
         <f>Q40*'EIOPA RATES'!G49</f>
-        <v>1325.2941327531032</v>
+        <v>1325.2942891194389</v>
       </c>
       <c r="T40">
         <f t="shared" si="3"/>
         <v>4183.8073847656779</v>
       </c>
-      <c r="U40" s="50">
+      <c r="U40" s="42">
         <f t="shared" si="4"/>
         <v>0.53007275274089183</v>
       </c>
-      <c r="V40" s="50">
+      <c r="V40" s="42">
         <f>U40*'EIOPA RATES'!G48</f>
         <v>0.19511224206768671</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A41" s="65">
+      <c r="A41" s="56">
         <v>38</v>
       </c>
-      <c r="B41" s="54">
+      <c r="B41" s="46">
         <f>$B40*EXP('EIOPA RATES'!Q49)</f>
         <v>156941.20111444869</v>
       </c>
-      <c r="C41" s="57">
+      <c r="C41" s="49">
         <f>B41*(1-DATA!$C$14)</f>
         <v>153488.49468993081</v>
       </c>
-      <c r="D41" s="57">
+      <c r="D41" s="49">
         <f>$D40*EXP('EIOPA RATES'!Q49)</f>
         <v>39235.300278612172</v>
       </c>
-      <c r="E41" s="57">
+      <c r="E41" s="49">
         <f>D41*(1-DATA!$C$14)</f>
         <v>38372.123672482703</v>
       </c>
-      <c r="F41" s="57">
+      <c r="F41" s="49">
         <f t="shared" si="0"/>
         <v>196176.50139306087</v>
       </c>
-      <c r="G41" s="30">
+      <c r="G41" s="26">
         <f t="shared" si="1"/>
         <v>191860.61836241352</v>
       </c>
-      <c r="I41" s="54">
+      <c r="I41" s="46">
         <f>'MORTALITY RATES MALE'!B101/'MORTALITY RATES MALE'!$B$63</f>
         <v>3.630267583606487E-2</v>
       </c>
-      <c r="J41" s="68">
+      <c r="J41" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J40</f>
         <v>2.0793096884310488E-3</v>
       </c>
-      <c r="L41" s="74">
-        <f>(G41-DATA!$C$11)*'BASE CASE'!I41*J40*DATA!$C$12</f>
-        <v>2.555469569578769</v>
-      </c>
-      <c r="M41" s="57">
+      <c r="L41" s="63">
+        <f>(G41-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I41*J40*DATA!$C$12</f>
+        <v>2.5557306571627811</v>
+      </c>
+      <c r="M41" s="49">
         <f>MAX(G41,DATA!$C$4)*I40*(1-'MORTALITY RATES MALE'!B101/'MORTALITY RATES MALE'!B100)</f>
         <v>2971.811107740964</v>
       </c>
-      <c r="N41" s="57">
+      <c r="N41" s="49">
         <v>0</v>
       </c>
-      <c r="O41" s="77">
+      <c r="O41" s="65">
         <f>G41*DATA!$C$15*J41*I41</f>
         <v>0.20275505484814521</v>
       </c>
-      <c r="P41" s="57">
+      <c r="P41" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A41)*'BASE CASE'!I41*'BASE CASE'!J41</f>
         <v>8.0100337520758857E-3</v>
       </c>
-      <c r="Q41" s="57">
+      <c r="Q41" s="49">
         <f t="shared" si="2"/>
-        <v>2974.5773423991432</v>
-      </c>
-      <c r="R41" s="30">
+        <v>2974.5776034867272</v>
+      </c>
+      <c r="R41" s="26">
         <f>Q41*'EIOPA RATES'!G50</f>
-        <v>1028.6924144744137</v>
+        <v>1028.6925047658353</v>
       </c>
       <c r="T41">
         <f t="shared" si="3"/>
         <v>4315.8830306473537</v>
       </c>
-      <c r="U41" s="50">
+      <c r="U41" s="42">
         <f t="shared" si="4"/>
         <v>0.32578229671773373</v>
       </c>
-      <c r="V41" s="50">
+      <c r="V41" s="42">
         <f>U41*'EIOPA RATES'!G49</f>
         <v>0.1162461385961286</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A42" s="65">
+      <c r="A42" s="56">
         <v>39</v>
       </c>
-      <c r="B42" s="54">
+      <c r="B42" s="46">
         <f>$B41*EXP('EIOPA RATES'!Q50)</f>
         <v>161930.16379872925</v>
       </c>
-      <c r="C42" s="57">
+      <c r="C42" s="49">
         <f>B42*(1-DATA!$C$14)</f>
         <v>158367.7001951572</v>
       </c>
-      <c r="D42" s="57">
+      <c r="D42" s="49">
         <f>$D41*EXP('EIOPA RATES'!Q50)</f>
         <v>40482.540949682312</v>
       </c>
-      <c r="E42" s="57">
+      <c r="E42" s="49">
         <f>D42*(1-DATA!$C$14)</f>
         <v>39591.9250487893</v>
       </c>
-      <c r="F42" s="57">
+      <c r="F42" s="49">
         <f t="shared" si="0"/>
         <v>202412.70474841155</v>
       </c>
-      <c r="G42" s="30">
+      <c r="G42" s="26">
         <f t="shared" si="1"/>
         <v>197959.6252439465</v>
       </c>
-      <c r="I42" s="54">
+      <c r="I42" s="46">
         <f>'MORTALITY RATES MALE'!B102/'MORTALITY RATES MALE'!$B$63</f>
         <v>2.4637401718190972E-2</v>
       </c>
-      <c r="J42" s="68">
+      <c r="J42" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J41</f>
         <v>1.7674132351663914E-3</v>
       </c>
-      <c r="L42" s="74">
-        <f>(G42-DATA!$C$11)*'BASE CASE'!I42*J41*DATA!$C$12</f>
-        <v>1.5210310674473657</v>
-      </c>
-      <c r="M42" s="57">
+      <c r="L42" s="63">
+        <f>(G42-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I42*J41*DATA!$C$12</f>
+        <v>1.5211816800843516</v>
+      </c>
+      <c r="M42" s="49">
         <f>MAX(G42,DATA!$C$4)*I41*(1-'MORTALITY RATES MALE'!B102/'MORTALITY RATES MALE'!B101)</f>
         <v>2309.2532927422253</v>
       </c>
-      <c r="N42" s="57">
+      <c r="N42" s="49">
         <v>0</v>
       </c>
-      <c r="O42" s="77">
+      <c r="O42" s="65">
         <f>G42*DATA!$C$15*J42*I42</f>
         <v>0.12068065713572321</v>
       </c>
-      <c r="P42" s="57">
+      <c r="P42" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A42)*'BASE CASE'!I42*'BASE CASE'!J42</f>
         <v>4.7131331676053458E-3</v>
       </c>
-      <c r="Q42" s="57">
+      <c r="Q42" s="49">
         <f t="shared" si="2"/>
-        <v>2310.8997175999762</v>
-      </c>
-      <c r="R42" s="30">
+        <v>2310.899868212613</v>
+      </c>
+      <c r="R42" s="26">
         <f>Q42*'EIOPA RATES'!G51</f>
-        <v>774.38655433003771</v>
+        <v>774.38660480059684</v>
       </c>
       <c r="T42">
         <f t="shared" si="3"/>
         <v>4453.079504465044</v>
       </c>
-      <c r="U42" s="50">
+      <c r="U42" s="42">
         <f t="shared" si="4"/>
         <v>0.19390698634136025</v>
       </c>
-      <c r="V42" s="50">
+      <c r="V42" s="42">
         <f>U42*'EIOPA RATES'!G50</f>
         <v>6.7058483610336422E-2</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A43" s="66">
+      <c r="A43" s="57">
         <v>40</v>
       </c>
-      <c r="B43" s="54">
+      <c r="B43" s="46">
         <f>$B42*EXP('EIOPA RATES'!Q51)</f>
         <v>167113.4183076802</v>
       </c>
-      <c r="C43" s="57">
+      <c r="C43" s="49">
         <f>B43*(1-DATA!$C$14)</f>
         <v>163436.92310491123</v>
       </c>
-      <c r="D43" s="57">
+      <c r="D43" s="49">
         <f>$D42*EXP('EIOPA RATES'!Q51)</f>
         <v>41778.35457692005</v>
       </c>
-      <c r="E43" s="57">
+      <c r="E43" s="49">
         <f>D43*(1-DATA!$C$14)</f>
         <v>40859.230776227807</v>
       </c>
-      <c r="F43" s="57">
+      <c r="F43" s="49">
         <f t="shared" si="0"/>
         <v>208891.77288460024</v>
       </c>
-      <c r="G43" s="30">
+      <c r="G43" s="26">
         <f t="shared" si="1"/>
         <v>204296.15388113903</v>
       </c>
-      <c r="I43" s="54">
+      <c r="I43" s="46">
         <f>'MORTALITY RATES MALE'!B103/'MORTALITY RATES MALE'!$B$63</f>
         <v>1.6153565996100863E-2</v>
       </c>
-      <c r="J43" s="68">
+      <c r="J43" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J42</f>
         <v>1.5023012498914326E-3</v>
       </c>
-      <c r="L43" s="74">
-        <f>(G43-DATA!$C$11)*'BASE CASE'!I43*J42*DATA!$C$12</f>
-        <v>0.87481343598818151</v>
-      </c>
-      <c r="M43" s="57">
+      <c r="L43" s="63">
+        <f>(G43-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I43*J42*DATA!$C$12</f>
+        <v>0.87489737306561111</v>
+      </c>
+      <c r="M43" s="49">
         <f>MAX(G43,DATA!$C$4)*I42*(1-'MORTALITY RATES MALE'!B103/'MORTALITY RATES MALE'!B102)</f>
         <v>1733.2150081824254</v>
       </c>
-      <c r="N43" s="57">
+      <c r="N43" s="49">
         <v>0</v>
       </c>
-      <c r="O43" s="77">
+      <c r="O43" s="65">
         <f>G43*DATA!$C$15*J43*I43</f>
         <v>6.9408660827997168E-2</v>
       </c>
-      <c r="P43" s="57">
+      <c r="P43" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A43)*'BASE CASE'!I43*'BASE CASE'!J43</f>
         <v>2.6791825983135927E-3</v>
       </c>
-      <c r="Q43" s="57">
+      <c r="Q43" s="49">
         <f t="shared" si="2"/>
-        <v>1734.16190946184</v>
-      </c>
-      <c r="R43" s="30">
+        <v>1734.1619933989173</v>
+      </c>
+      <c r="R43" s="26">
         <f>Q43*'EIOPA RATES'!G52</f>
-        <v>563.20078541717351</v>
+        <v>563.20081267727403</v>
       </c>
       <c r="T43">
         <f t="shared" si="3"/>
         <v>4595.6190034612082</v>
       </c>
-      <c r="U43" s="50">
+      <c r="U43" s="42">
         <f t="shared" si="4"/>
         <v>0.11152428704469315</v>
       </c>
-      <c r="V43" s="50">
+      <c r="V43" s="42">
         <f>U43*'EIOPA RATES'!G51</f>
         <v>3.7371984474664978E-2</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A44" s="65">
+      <c r="A44" s="56">
         <v>41</v>
       </c>
-      <c r="B44" s="54">
+      <c r="B44" s="46">
         <f>$B43*EXP('EIOPA RATES'!Q52)</f>
         <v>172430.63121428282</v>
       </c>
-      <c r="C44" s="57">
+      <c r="C44" s="49">
         <f>B44*(1-DATA!$C$14)</f>
         <v>168637.1573275686</v>
       </c>
-      <c r="D44" s="57">
+      <c r="D44" s="49">
         <f>$D43*EXP('EIOPA RATES'!Q52)</f>
         <v>43107.657803570706</v>
       </c>
-      <c r="E44" s="57">
+      <c r="E44" s="49">
         <f>D44*(1-DATA!$C$14)</f>
         <v>42159.289331892149</v>
       </c>
-      <c r="F44" s="57">
+      <c r="F44" s="49">
         <f t="shared" si="0"/>
         <v>215538.28901785353</v>
       </c>
-      <c r="G44" s="30">
+      <c r="G44" s="26">
         <f t="shared" si="1"/>
         <v>210796.44665946075</v>
       </c>
-      <c r="I44" s="54">
+      <c r="I44" s="46">
         <f>'MORTALITY RATES MALE'!B104/'MORTALITY RATES MALE'!$B$63</f>
         <v>1.0101334704458299E-2</v>
       </c>
-      <c r="J44" s="68">
+      <c r="J44" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J43</f>
         <v>1.2769560624077175E-3</v>
       </c>
-      <c r="L44" s="74">
-        <f>(G44-DATA!$C$11)*'BASE CASE'!I44*J43*DATA!$C$12</f>
-        <v>0.47978771975404</v>
-      </c>
-      <c r="M44" s="57">
+      <c r="L44" s="63">
+        <f>(G44-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I44*J43*DATA!$C$12</f>
+        <v>0.47983233498243116</v>
+      </c>
+      <c r="M44" s="49">
         <f>MAX(G44,DATA!$C$4)*I43*(1-'MORTALITY RATES MALE'!B104/'MORTALITY RATES MALE'!B103)</f>
         <v>1275.7888506394513</v>
       </c>
-      <c r="N44" s="57">
+      <c r="N44" s="49">
         <v>0</v>
       </c>
-      <c r="O44" s="77">
+      <c r="O44" s="65">
         <f>G44*DATA!$C$15*J44*I44</f>
         <v>3.8066770809452172E-2</v>
       </c>
-      <c r="P44" s="57">
+      <c r="P44" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A44)*'BASE CASE'!I44*'BASE CASE'!J44</f>
         <v>1.452552246625879E-3</v>
       </c>
-      <c r="Q44" s="57">
+      <c r="Q44" s="49">
         <f t="shared" si="2"/>
-        <v>1276.3081576822615</v>
-      </c>
-      <c r="R44" s="30">
+        <v>1276.3082022974897</v>
+      </c>
+      <c r="R44" s="26">
         <f>Q44*'EIOPA RATES'!G53</f>
-        <v>401.48032639457745</v>
+        <v>401.4803404289126</v>
       </c>
       <c r="T44">
         <f t="shared" si="3"/>
         <v>4741.8423583927797</v>
       </c>
-      <c r="U44" s="50">
+      <c r="U44" s="42">
         <f t="shared" si="4"/>
         <v>6.1164837701427693E-2</v>
       </c>
-      <c r="V44" s="50">
+      <c r="V44" s="42">
         <f>U44*'EIOPA RATES'!G52</f>
         <v>1.9864399307471959E-2</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A45" s="65">
+      <c r="A45" s="56">
         <v>42</v>
       </c>
-      <c r="B45" s="54">
+      <c r="B45" s="46">
         <f>$B44*EXP('EIOPA RATES'!Q53)</f>
         <v>178024.30687465941</v>
       </c>
-      <c r="C45" s="57">
+      <c r="C45" s="49">
         <f>B45*(1-DATA!$C$14)</f>
         <v>174107.77212341689</v>
       </c>
-      <c r="D45" s="57">
+      <c r="D45" s="49">
         <f>$D44*EXP('EIOPA RATES'!Q53)</f>
         <v>44506.076718664852</v>
       </c>
-      <c r="E45" s="57">
+      <c r="E45" s="49">
         <f>D45*(1-DATA!$C$14)</f>
         <v>43526.943030854221</v>
       </c>
-      <c r="F45" s="57">
+      <c r="F45" s="49">
         <f t="shared" si="0"/>
         <v>222530.38359332425</v>
       </c>
-      <c r="G45" s="30">
+      <c r="G45" s="26">
         <f t="shared" si="1"/>
         <v>217634.71515427111</v>
       </c>
-      <c r="I45" s="54">
+      <c r="I45" s="46">
         <f>'MORTALITY RATES MALE'!B105/'MORTALITY RATES MALE'!$B$63</f>
         <v>5.9665359813184226E-3</v>
       </c>
-      <c r="J45" s="68">
+      <c r="J45" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J44</f>
         <v>1.08541265304656E-3</v>
       </c>
-      <c r="L45" s="74">
-        <f>(G45-DATA!$C$11)*'BASE CASE'!I45*J44*DATA!$C$12</f>
-        <v>0.24870111734438896</v>
-      </c>
-      <c r="M45" s="57">
+      <c r="L45" s="63">
+        <f>(G45-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I45*J44*DATA!$C$12</f>
+        <v>0.24872351721701014</v>
+      </c>
+      <c r="M45" s="49">
         <f>MAX(G45,DATA!$C$4)*I44*(1-'MORTALITY RATES MALE'!B105/'MORTALITY RATES MALE'!B104)</f>
         <v>899.87574233079079</v>
       </c>
-      <c r="N45" s="57">
+      <c r="N45" s="49">
         <v>0</v>
       </c>
-      <c r="O45" s="77">
+      <c r="O45" s="65">
         <f>G45*DATA!$C$15*J45*I45</f>
         <v>1.9732101965676575E-2</v>
       </c>
-      <c r="P45" s="57">
+      <c r="P45" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A45)*'BASE CASE'!I45*'BASE CASE'!J45</f>
         <v>7.438654065623784E-4</v>
       </c>
-      <c r="Q45" s="57">
+      <c r="Q45" s="49">
         <f t="shared" si="2"/>
-        <v>900.14491941550739</v>
-      </c>
-      <c r="R45" s="30">
+        <v>900.14494181538009</v>
+      </c>
+      <c r="R45" s="26">
         <f>Q45*'EIOPA RATES'!G54</f>
-        <v>274.31224059116209</v>
+        <v>274.31224741735105</v>
       </c>
       <c r="T45">
         <f t="shared" si="3"/>
         <v>4895.6684390531445</v>
       </c>
-      <c r="U45" s="50">
+      <c r="U45" s="42">
         <f t="shared" si="4"/>
         <v>3.1705101025773126E-2</v>
       </c>
-      <c r="V45" s="50">
+      <c r="V45" s="42">
         <f>U45*'EIOPA RATES'!G53</f>
         <v>9.9732766194301336E-3</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A46" s="65">
+      <c r="A46" s="56">
         <v>43</v>
       </c>
-      <c r="B46" s="54">
+      <c r="B46" s="46">
         <f>$B45*EXP('EIOPA RATES'!Q54)</f>
         <v>183761.81601898413</v>
       </c>
-      <c r="C46" s="57">
+      <c r="C46" s="49">
         <f>B46*(1-DATA!$C$14)</f>
         <v>179719.05606656647</v>
       </c>
-      <c r="D46" s="57">
+      <c r="D46" s="49">
         <f>$D45*EXP('EIOPA RATES'!Q54)</f>
         <v>45940.454004746032</v>
       </c>
-      <c r="E46" s="57">
+      <c r="E46" s="49">
         <f>D46*(1-DATA!$C$14)</f>
         <v>44929.764016641617</v>
       </c>
-      <c r="F46" s="57">
+      <c r="F46" s="49">
         <f t="shared" si="0"/>
         <v>229702.27002373018</v>
       </c>
-      <c r="G46" s="30">
+      <c r="G46" s="26">
         <f t="shared" si="1"/>
         <v>224648.82008320809</v>
       </c>
-      <c r="I46" s="54">
+      <c r="I46" s="46">
         <f>'MORTALITY RATES MALE'!B106/'MORTALITY RATES MALE'!$B$63</f>
         <v>3.3206932750605221E-3</v>
       </c>
-      <c r="J46" s="68">
+      <c r="J46" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J45</f>
         <v>9.2260075508957592E-4</v>
       </c>
-      <c r="L46" s="74">
-        <f>(G46-DATA!$C$11)*'BASE CASE'!I46*J45*DATA!$C$12</f>
-        <v>0.12144520647654462</v>
-      </c>
-      <c r="M46" s="57">
+      <c r="L46" s="63">
+        <f>(G46-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I46*J45*DATA!$C$12</f>
+        <v>0.12145580318468767</v>
+      </c>
+      <c r="M46" s="49">
         <f>MAX(G46,DATA!$C$4)*I45*(1-'MORTALITY RATES MALE'!B106/'MORTALITY RATES MALE'!B105)</f>
         <v>594.38544208659948</v>
       </c>
-      <c r="N46" s="57">
+      <c r="N46" s="49">
         <v>0</v>
       </c>
-      <c r="O46" s="77">
+      <c r="O46" s="65">
         <f>G46*DATA!$C$15*J46*I46</f>
         <v>9.635510875893644E-3</v>
       </c>
-      <c r="P46" s="57">
+      <c r="P46" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A46)*'BASE CASE'!I46*'BASE CASE'!J46</f>
         <v>3.5893842966206531E-4</v>
       </c>
-      <c r="Q46" s="57">
+      <c r="Q46" s="49">
         <f t="shared" si="2"/>
-        <v>594.51688174238166</v>
-      </c>
-      <c r="R46" s="30">
+        <v>594.51689233908974</v>
+      </c>
+      <c r="R46" s="26">
         <f>Q46*'EIOPA RATES'!G55</f>
-        <v>175.55876733925197</v>
+        <v>175.55877046842301</v>
       </c>
       <c r="T46">
         <f t="shared" si="3"/>
         <v>5053.4499405220849</v>
       </c>
-      <c r="U46" s="50">
+      <c r="U46" s="42">
         <f t="shared" si="4"/>
         <v>1.5482123814611531E-2</v>
       </c>
-      <c r="V46" s="50">
+      <c r="V46" s="42">
         <f>U46*'EIOPA RATES'!G54</f>
         <v>4.7180581494072633E-3</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A47" s="65">
+      <c r="A47" s="56">
         <v>44</v>
       </c>
-      <c r="B47" s="54">
+      <c r="B47" s="46">
         <f>$B46*EXP('EIOPA RATES'!Q55)</f>
         <v>189639.89028948743</v>
       </c>
-      <c r="C47" s="57">
+      <c r="C47" s="49">
         <f>B47*(1-DATA!$C$14)</f>
         <v>185467.81270311872</v>
       </c>
-      <c r="D47" s="57">
+      <c r="D47" s="49">
         <f>$D46*EXP('EIOPA RATES'!Q55)</f>
         <v>47409.972572371858</v>
       </c>
-      <c r="E47" s="57">
+      <c r="E47" s="49">
         <f>D47*(1-DATA!$C$14)</f>
         <v>46366.953175779679</v>
       </c>
-      <c r="F47" s="57">
+      <c r="F47" s="49">
         <f t="shared" si="0"/>
         <v>237049.86286185929</v>
       </c>
-      <c r="G47" s="30">
+      <c r="G47" s="26">
         <f t="shared" si="1"/>
         <v>231834.76587889838</v>
       </c>
-      <c r="I47" s="54">
+      <c r="I47" s="46">
         <f>'MORTALITY RATES MALE'!B107/'MORTALITY RATES MALE'!$B$63</f>
         <v>1.7353300340638858E-3</v>
       </c>
-      <c r="J47" s="68">
+      <c r="J47" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J46</f>
         <v>7.8421064182613946E-4</v>
       </c>
-      <c r="L47" s="74">
-        <f>(G47-DATA!$C$11)*'BASE CASE'!I47*J46*DATA!$C$12</f>
-        <v>5.5670900190576446E-2</v>
-      </c>
-      <c r="M47" s="57">
+      <c r="L47" s="63">
+        <f>(G47-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I47*J46*DATA!$C$12</f>
+        <v>5.5675607179967723E-2</v>
+      </c>
+      <c r="M47" s="49">
         <f>MAX(G47,DATA!$C$4)*I46*(1-'MORTALITY RATES MALE'!B107/'MORTALITY RATES MALE'!B106)</f>
         <v>367.54231580946674</v>
       </c>
-      <c r="N47" s="57">
+      <c r="N47" s="49">
         <v>0</v>
       </c>
-      <c r="O47" s="77">
+      <c r="O47" s="65">
         <f>G47*DATA!$C$15*J47*I47</f>
         <v>4.4169391237840732E-3</v>
       </c>
-      <c r="P47" s="57">
+      <c r="P47" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A47)*'BASE CASE'!I47*'BASE CASE'!J47</f>
         <v>1.6262689741856687E-4</v>
       </c>
-      <c r="Q47" s="57">
+      <c r="Q47" s="49">
         <f t="shared" si="2"/>
-        <v>367.6025662756785</v>
-      </c>
-      <c r="R47" s="30">
+        <v>367.60257098266788</v>
+      </c>
+      <c r="R47" s="26">
         <f>Q47*'EIOPA RATES'!G56</f>
-        <v>105.12269449164337</v>
+        <v>105.1226958376933</v>
       </c>
       <c r="T47">
         <f t="shared" si="3"/>
         <v>5215.0969829609094</v>
       </c>
-      <c r="U47" s="50">
+      <c r="U47" s="42">
         <f t="shared" si="4"/>
         <v>7.0970391997699162E-3</v>
       </c>
-      <c r="V47" s="50">
+      <c r="V47" s="42">
         <f>U47*'EIOPA RATES'!G55</f>
         <v>2.095730990881864E-3</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A48" s="66">
+      <c r="A48" s="57">
         <v>45</v>
       </c>
-      <c r="B48" s="54">
+      <c r="B48" s="46">
         <f>$B47*EXP('EIOPA RATES'!Q56)</f>
         <v>195825.87576343425</v>
       </c>
-      <c r="C48" s="57">
+      <c r="C48" s="49">
         <f>B48*(1-DATA!$C$14)</f>
         <v>191517.70649663868</v>
       </c>
-      <c r="D48" s="57">
+      <c r="D48" s="49">
         <f>$D47*EXP('EIOPA RATES'!Q56)</f>
         <v>48956.468940858562</v>
       </c>
-      <c r="E48" s="57">
+      <c r="E48" s="49">
         <f>D48*(1-DATA!$C$14)</f>
         <v>47879.426624159671</v>
       </c>
-      <c r="F48" s="57">
+      <c r="F48" s="49">
         <f t="shared" si="0"/>
         <v>244782.3447042928</v>
       </c>
-      <c r="G48" s="30">
+      <c r="G48" s="26">
         <f t="shared" si="1"/>
         <v>239397.13312079836</v>
       </c>
-      <c r="I48" s="54">
+      <c r="I48" s="46">
         <f>'MORTALITY RATES MALE'!B108/'MORTALITY RATES MALE'!$B$63</f>
         <v>8.4624118945090729E-4</v>
       </c>
-      <c r="J48" s="68">
+      <c r="J48" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J47</f>
         <v>6.6657904555221851E-4</v>
       </c>
-      <c r="L48" s="74">
-        <f>(G48-DATA!$C$11)*'BASE CASE'!I48*J47*DATA!$C$12</f>
-        <v>2.3828725369641104E-2</v>
-      </c>
-      <c r="M48" s="57">
+      <c r="L48" s="63">
+        <f>(G48-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I48*J47*DATA!$C$12</f>
+        <v>2.3830676445799281E-2</v>
+      </c>
+      <c r="M48" s="49">
         <f>MAX(G48,DATA!$C$4)*I47*(1-'MORTALITY RATES MALE'!B108/'MORTALITY RATES MALE'!B107)</f>
         <v>212.84532049003005</v>
       </c>
-      <c r="N48" s="57">
+      <c r="N48" s="49">
         <v>0</v>
       </c>
-      <c r="O48" s="77">
+      <c r="O48" s="65">
         <f>G48*DATA!$C$15*J48*I48</f>
         <v>1.8905701569186183E-3</v>
       </c>
-      <c r="P48" s="57">
+      <c r="P48" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A48)*'BASE CASE'!I48*'BASE CASE'!J48</f>
         <v>6.8758049906727766E-5</v>
       </c>
-      <c r="Q48" s="57">
+      <c r="Q48" s="49">
         <f t="shared" si="2"/>
-        <v>212.87110854360651</v>
-      </c>
-      <c r="R48" s="30">
+        <v>212.87111049468268</v>
+      </c>
+      <c r="R48" s="26">
         <f>Q48*'EIOPA RATES'!G57</f>
-        <v>58.966353920293599</v>
+        <v>58.966354460751383</v>
       </c>
       <c r="T48">
         <f t="shared" si="3"/>
         <v>5385.2115834944416</v>
       </c>
-      <c r="U48" s="50">
+      <c r="U48" s="42">
         <f t="shared" si="4"/>
         <v>3.0377259313620797E-3</v>
       </c>
-      <c r="V48" s="50">
+      <c r="V48" s="42">
         <f>U48*'EIOPA RATES'!G56</f>
         <v>8.6869343233158668E-4</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A49" s="65">
+      <c r="A49" s="56">
         <v>46</v>
       </c>
-      <c r="B49" s="54">
+      <c r="B49" s="46">
         <f>$B48*EXP('EIOPA RATES'!Q57)</f>
         <v>202162.44156041282</v>
       </c>
-      <c r="C49" s="57">
+      <c r="C49" s="49">
         <f>B49*(1-DATA!$C$14)</f>
         <v>197714.86784608374</v>
       </c>
-      <c r="D49" s="57">
+      <c r="D49" s="49">
         <f>$D48*EXP('EIOPA RATES'!Q57)</f>
         <v>50540.610390103204</v>
       </c>
-      <c r="E49" s="57">
+      <c r="E49" s="49">
         <f>D49*(1-DATA!$C$14)</f>
         <v>49428.716961520935</v>
       </c>
-      <c r="F49" s="57">
+      <c r="F49" s="49">
         <f t="shared" si="0"/>
         <v>252703.051950516</v>
       </c>
-      <c r="G49" s="30">
+      <c r="G49" s="26">
         <f t="shared" si="1"/>
         <v>247143.58480760467</v>
       </c>
-      <c r="I49" s="54">
+      <c r="I49" s="46">
         <f>'MORTALITY RATES MALE'!B109/'MORTALITY RATES MALE'!$B$63</f>
         <v>3.8562889645864132E-4</v>
       </c>
-      <c r="J49" s="68">
+      <c r="J49" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J48</f>
         <v>5.665921887193857E-4</v>
       </c>
-      <c r="L49" s="74">
-        <f>(G49-DATA!$C$11)*'BASE CASE'!I49*J48*DATA!$C$12</f>
-        <v>9.5285470123430971E-3</v>
-      </c>
-      <c r="M49" s="57">
+      <c r="L49" s="63">
+        <f>(G49-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I49*J48*DATA!$C$12</f>
+        <v>9.5293027456398102E-3</v>
+      </c>
+      <c r="M49" s="49">
         <f>MAX(G49,DATA!$C$4)*I48*(1-'MORTALITY RATES MALE'!B109/'MORTALITY RATES MALE'!B108)</f>
         <v>113.83737329655935</v>
       </c>
-      <c r="N49" s="57">
+      <c r="N49" s="49">
         <v>0</v>
       </c>
-      <c r="O49" s="77">
+      <c r="O49" s="65">
         <f>G49*DATA!$C$15*J49*I49</f>
         <v>7.5599257472228629E-4</v>
       </c>
-      <c r="P49" s="57">
+      <c r="P49" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A49)*'BASE CASE'!I49*'BASE CASE'!J49</f>
         <v>2.7165522198592248E-5</v>
       </c>
-      <c r="Q49" s="57">
+      <c r="Q49" s="49">
         <f t="shared" si="2"/>
-        <v>113.84768500166861</v>
-      </c>
-      <c r="R49" s="30">
+        <v>113.8476857574019</v>
+      </c>
+      <c r="R49" s="26">
         <f>Q49*'EIOPA RATES'!G58</f>
-        <v>30.542563951009317</v>
+        <v>30.542564153754174</v>
       </c>
       <c r="T49">
         <f t="shared" si="3"/>
         <v>5559.4671429113369</v>
       </c>
-      <c r="U49" s="50">
+      <c r="U49" s="42">
         <f t="shared" si="4"/>
         <v>1.2147119956098635E-3</v>
       </c>
-      <c r="V49" s="50">
+      <c r="V49" s="42">
         <f>U49*'EIOPA RATES'!G57</f>
         <v>3.3648125353603144E-4</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A50" s="65">
+      <c r="A50" s="56">
         <v>47</v>
       </c>
-      <c r="B50" s="54">
+      <c r="B50" s="46">
         <f>$B49*EXP('EIOPA RATES'!Q58)</f>
         <v>208740.50948439649</v>
       </c>
-      <c r="C50" s="57">
+      <c r="C50" s="49">
         <f>B50*(1-DATA!$C$14)</f>
         <v>204148.21827573975</v>
       </c>
-      <c r="D50" s="57">
+      <c r="D50" s="49">
         <f>$D49*EXP('EIOPA RATES'!Q58)</f>
         <v>52185.127371099123</v>
       </c>
-      <c r="E50" s="57">
+      <c r="E50" s="49">
         <f>D50*(1-DATA!$C$14)</f>
         <v>51037.054568934938</v>
       </c>
-      <c r="F50" s="57">
+      <c r="F50" s="49">
         <f t="shared" si="0"/>
         <v>260925.63685549563</v>
       </c>
-      <c r="G50" s="30">
+      <c r="G50" s="26">
         <f t="shared" si="1"/>
         <v>255185.27284467471</v>
       </c>
-      <c r="I50" s="54">
+      <c r="I50" s="46">
         <f>'MORTALITY RATES MALE'!B110/'MORTALITY RATES MALE'!$B$63</f>
         <v>1.6067870685776721E-4</v>
       </c>
-      <c r="J50" s="68">
+      <c r="J50" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J49</f>
         <v>4.8160336041147783E-4</v>
       </c>
-      <c r="L50" s="74">
-        <f>(G50-DATA!$C$11)*'BASE CASE'!I50*J49*DATA!$C$12</f>
-        <v>3.4845101812353814E-3</v>
-      </c>
-      <c r="M50" s="57">
+      <c r="L50" s="63">
+        <f>(G50-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I50*J49*DATA!$C$12</f>
+        <v>3.4847778367779673E-3</v>
+      </c>
+      <c r="M50" s="49">
         <f>MAX(G50,DATA!$C$4)*I49*(1-'MORTALITY RATES MALE'!B110/'MORTALITY RATES MALE'!B109)</f>
         <v>57.403975509760357</v>
       </c>
-      <c r="N50" s="57">
+      <c r="N50" s="49">
         <v>0</v>
       </c>
-      <c r="O50" s="77">
+      <c r="O50" s="65">
         <f>G50*DATA!$C$15*J50*I50</f>
         <v>2.7645947506478764E-4</v>
       </c>
-      <c r="P50" s="57">
+      <c r="P50" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A50)*'BASE CASE'!I50*'BASE CASE'!J50</f>
         <v>9.8135448942414448E-6</v>
       </c>
-      <c r="Q50" s="57">
+      <c r="Q50" s="49">
         <f t="shared" si="2"/>
-        <v>57.407746292961555</v>
-      </c>
-      <c r="R50" s="30">
+        <v>57.407746560617092</v>
+      </c>
+      <c r="R50" s="26">
         <f>Q50*'EIOPA RATES'!G59</f>
-        <v>14.913159468316358</v>
+        <v>14.913159537846866</v>
       </c>
       <c r="T50">
         <f t="shared" si="3"/>
         <v>5740.364010820922</v>
       </c>
-      <c r="U50" s="50">
+      <c r="U50" s="42">
         <f t="shared" si="4"/>
         <v>4.4420891406845957E-4</v>
       </c>
-      <c r="V50" s="50">
+      <c r="V50" s="42">
         <f>U50*'EIOPA RATES'!G58</f>
         <v>1.1917044396067851E-4</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A51" s="65">
+      <c r="A51" s="56">
         <v>48</v>
       </c>
-      <c r="B51" s="54">
+      <c r="B51" s="46">
         <f>$B50*EXP('EIOPA RATES'!Q59)</f>
         <v>215570.26860980739</v>
       </c>
-      <c r="C51" s="57">
+      <c r="C51" s="49">
         <f>B51*(1-DATA!$C$14)</f>
         <v>210827.72270039163</v>
       </c>
-      <c r="D51" s="57">
+      <c r="D51" s="49">
         <f>$D50*EXP('EIOPA RATES'!Q59)</f>
         <v>53892.567152451848</v>
       </c>
-      <c r="E51" s="57">
+      <c r="E51" s="49">
         <f>D51*(1-DATA!$C$14)</f>
         <v>52706.930675097909</v>
       </c>
-      <c r="F51" s="57">
+      <c r="F51" s="49">
         <f t="shared" si="0"/>
         <v>269462.83576225926</v>
       </c>
-      <c r="G51" s="30">
+      <c r="G51" s="26">
         <f t="shared" si="1"/>
         <v>263534.65337548952</v>
       </c>
-      <c r="I51" s="54">
+      <c r="I51" s="46">
         <f>'MORTALITY RATES MALE'!B111/'MORTALITY RATES MALE'!$B$63</f>
         <v>6.4271482743106877E-5</v>
       </c>
-      <c r="J51" s="68">
+      <c r="J51" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J50</f>
         <v>4.0936285634975616E-4</v>
       </c>
-      <c r="L51" s="74">
-        <f>(G51-DATA!$C$11)*'BASE CASE'!I51*J50*DATA!$C$12</f>
-        <v>1.2234996714117379E-3</v>
-      </c>
-      <c r="M51" s="57">
+      <c r="L51" s="63">
+        <f>(G51-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I51*J50*DATA!$C$12</f>
+        <v>1.2235906742962166E-3</v>
+      </c>
+      <c r="M51" s="49">
         <f>MAX(G51,DATA!$C$4)*I50*(1-'MORTALITY RATES MALE'!B111/'MORTALITY RATES MALE'!B110)</f>
         <v>25.406644389950142</v>
       </c>
-      <c r="N51" s="57">
+      <c r="N51" s="49">
         <v>0</v>
       </c>
-      <c r="O51" s="77">
+      <c r="O51" s="65">
         <f>G51*DATA!$C$15*J51*I51</f>
         <v>9.7071674165503323E-5</v>
       </c>
-      <c r="P51" s="57">
+      <c r="P51" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A51)*'BASE CASE'!I51*'BASE CASE'!J51</f>
         <v>3.403337369322933E-6</v>
       </c>
-      <c r="Q51" s="57">
+      <c r="Q51" s="49">
         <f t="shared" si="2"/>
-        <v>25.407968364633088</v>
-      </c>
-      <c r="R51" s="30">
+        <v>25.407968455635974</v>
+      </c>
+      <c r="R51" s="26">
         <f>Q51*'EIOPA RATES'!G60</f>
-        <v>6.393196103715951</v>
+        <v>6.3931961266142512</v>
       </c>
       <c r="T51">
         <f t="shared" si="3"/>
         <v>5928.1823867697385</v>
       </c>
-      <c r="U51" s="50">
+      <c r="U51" s="42">
         <f t="shared" si="4"/>
         <v>1.5597259944793204E-4</v>
       </c>
-      <c r="V51" s="50">
+      <c r="V51" s="42">
         <f>U51*'EIOPA RATES'!G59</f>
         <v>4.0517950946630799E-5</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A52" s="65">
+      <c r="A52" s="56">
         <v>49</v>
       </c>
-      <c r="B52" s="54">
+      <c r="B52" s="46">
         <f>$B51*EXP('EIOPA RATES'!Q60)</f>
         <v>222556.32477665527</v>
       </c>
-      <c r="C52" s="57">
+      <c r="C52" s="49">
         <f>B52*(1-DATA!$C$14)</f>
         <v>217660.08563156886</v>
       </c>
-      <c r="D52" s="57">
+      <c r="D52" s="49">
         <f>$D51*EXP('EIOPA RATES'!Q60)</f>
         <v>55639.081194163817</v>
       </c>
-      <c r="E52" s="57">
+      <c r="E52" s="49">
         <f>D52*(1-DATA!$C$14)</f>
         <v>54415.021407892214</v>
       </c>
-      <c r="F52" s="57">
+      <c r="F52" s="49">
         <f t="shared" si="0"/>
         <v>278195.40597081906</v>
       </c>
-      <c r="G52" s="30">
+      <c r="G52" s="26">
         <f t="shared" si="1"/>
         <v>272075.10703946109</v>
       </c>
-      <c r="I52" s="54">
+      <c r="I52" s="46">
         <f>'MORTALITY RATES MALE'!B112/'MORTALITY RATES MALE'!$B$63</f>
         <v>2.1423827581035627E-5</v>
       </c>
-      <c r="J52" s="68">
+      <c r="J52" s="59">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J51</f>
         <v>3.4795842789729273E-4</v>
       </c>
-      <c r="L52" s="74">
-        <f>(G52-DATA!$C$11)*'BASE CASE'!I52*J51*DATA!$C$12</f>
-        <v>3.5789335979887025E-4</v>
-      </c>
-      <c r="M52" s="57">
+      <c r="L52" s="63">
+        <f>(G52-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I52*J51*DATA!$C$12</f>
+        <v>3.5791914394947262E-4</v>
+      </c>
+      <c r="M52" s="49">
         <f>MAX(G52,DATA!$C$4)*I51*(1-'MORTALITY RATES MALE'!B112/'MORTALITY RATES MALE'!B111)</f>
         <v>11.657780364610455</v>
       </c>
-      <c r="N52" s="57">
+      <c r="N52" s="49">
         <v>0</v>
       </c>
-      <c r="O52" s="77">
+      <c r="O52" s="65">
         <f>G52*DATA!$C$15*J52*I52</f>
         <v>2.8394960499092469E-5</v>
       </c>
-      <c r="P52" s="57">
+      <c r="P52" s="49">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A52)*'BASE CASE'!I52*'BASE CASE'!J52</f>
         <v>9.8356449973432766E-7</v>
       </c>
-      <c r="Q52" s="57">
+      <c r="Q52" s="49">
         <f t="shared" si="2"/>
-        <v>11.658167636495252</v>
-      </c>
-      <c r="R52" s="30">
+        <v>11.658167662279402</v>
+      </c>
+      <c r="R52" s="26">
         <f>Q52*'EIOPA RATES'!G61</f>
-        <v>2.8409256963506273</v>
+        <v>2.8409257026338492</v>
       </c>
       <c r="T52">
         <f t="shared" si="3"/>
         <v>6120.2989313579747</v>
       </c>
-      <c r="U52" s="50">
+      <c r="U52" s="42">
         <f t="shared" si="4"/>
         <v>4.5624388765704771E-5</v>
       </c>
-      <c r="V52" s="50">
+      <c r="V52" s="42">
         <f>U52*'EIOPA RATES'!G60</f>
         <v>1.1480086101545243E-5</v>
       </c>
     </row>
     <row r="53" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="67">
+      <c r="A53" s="58">
         <v>50</v>
       </c>
-      <c r="B53" s="55">
+      <c r="B53" s="47">
         <f>$B52*EXP('EIOPA RATES'!Q61)</f>
         <v>229804.45721701792</v>
       </c>
-      <c r="C53" s="58">
+      <c r="C53" s="50">
         <f>B53*(1-DATA!$C$14)</f>
         <v>224748.75915824351</v>
       </c>
-      <c r="D53" s="58">
+      <c r="D53" s="50">
         <f>$D52*EXP('EIOPA RATES'!Q61)</f>
         <v>57451.114304254479</v>
       </c>
-      <c r="E53" s="58">
+      <c r="E53" s="50">
         <f>D53*(1-DATA!$C$14)</f>
         <v>56187.189789560878</v>
       </c>
-      <c r="F53" s="58">
+      <c r="F53" s="50">
         <f t="shared" si="0"/>
         <v>287255.57152127242</v>
       </c>
-      <c r="G53" s="32">
+      <c r="G53" s="28">
         <f t="shared" si="1"/>
         <v>280935.9489478044</v>
       </c>
-      <c r="I53" s="55">
+      <c r="I53" s="47">
         <f>'MORTALITY RATES MALE'!B113/'MORTALITY RATES MALE'!$B$63</f>
         <v>1.0711913790517813E-5</v>
       </c>
-      <c r="J53" s="69">
+      <c r="J53" s="60">
         <f>(1-DATA!$C$12)*'BASE CASE'!$J52</f>
         <v>2.957646637126988E-4</v>
       </c>
-      <c r="L53" s="75">
-        <f>(G53-DATA!$C$11)*'BASE CASE'!I53*J52*DATA!$C$12</f>
-        <v>1.5705873122815437E-4</v>
-      </c>
-      <c r="M53" s="58">
+      <c r="L53" s="63">
+        <f>(G53-DATA!$C$11*DATA!$C$10)*'BASE CASE'!I53*J52*DATA!$C$12</f>
+        <v>1.5706968949216038E-4</v>
+      </c>
+      <c r="M53" s="50">
         <f>MAX(G53,DATA!$C$4)*I52*(1-'MORTALITY RATES MALE'!B113/'MORTALITY RATES MALE'!B112)</f>
         <v>3.0093616657861944</v>
       </c>
-      <c r="N53" s="76">
+      <c r="N53" s="64">
         <f>J53*I53*G53</f>
         <v>8.9006284107114085E-4</v>
       </c>
-      <c r="O53" s="78">
+      <c r="O53" s="65">
         <f>G53*DATA!$C$15*J53*I53</f>
         <v>1.2460879774995972E-5</v>
       </c>
-      <c r="P53" s="58">
+      <c r="P53" s="50">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A53)*'BASE CASE'!I53*'BASE CASE'!J53</f>
         <v>4.263752106348311E-7</v>
       </c>
-      <c r="Q53" s="58">
+      <c r="Q53" s="50">
         <f t="shared" si="2"/>
-        <v>3.0104216746134793</v>
-      </c>
-      <c r="R53" s="32">
+        <v>3.0104216855717434</v>
+      </c>
+      <c r="R53" s="28">
         <f>Q53*'EIOPA RATES'!G62</f>
-        <v>0.7103477076078647</v>
+        <v>0.7103477101936081</v>
       </c>
       <c r="T53">
         <f t="shared" si="3"/>
         <v>6319.6225734680193</v>
       </c>
-      <c r="U53" s="50">
+      <c r="U53" s="42">
         <f t="shared" si="4"/>
         <v>2.0021863500577892E-5</v>
       </c>
-      <c r="V53" s="50">
+      <c r="V53" s="42">
         <f>U53*'EIOPA RATES'!G61</f>
         <v>4.8790365931567827E-6</v>
       </c>

--- a/insurance/GROUP_04_SII_project.xlsx
+++ b/insurance/GROUP_04_SII_project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\PoliMi\Magistrale\Insurance&amp;Econometrics\Econometrics\Labs\Project\econometric-insurance\insurance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F94D65-0AB8-44B3-865A-77E6AD03A9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F338EE4-4869-400B-B0BE-EFAF81F80122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" tabRatio="500" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MORTALITY RATES MALE+FEMALE" sheetId="1" r:id="rId1"/>
@@ -969,6 +969,24 @@
     <xf numFmtId="0" fontId="11" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1018,24 +1036,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
@@ -1395,16 +1395,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -4553,16 +4553,16 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="77" t="s">
+      <c r="A123" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="B123" s="78"/>
-      <c r="C123" s="78"/>
-      <c r="D123" s="78"/>
-      <c r="E123" s="78"/>
-      <c r="F123" s="78"/>
-      <c r="G123" s="78"/>
-      <c r="H123" s="78"/>
+      <c r="B123" s="90"/>
+      <c r="C123" s="90"/>
+      <c r="D123" s="90"/>
+      <c r="E123" s="90"/>
+      <c r="F123" s="90"/>
+      <c r="G123" s="90"/>
+      <c r="H123" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4594,16 +4594,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -7752,16 +7752,16 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="77" t="s">
+      <c r="A123" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="B123" s="78"/>
-      <c r="C123" s="78"/>
-      <c r="D123" s="78"/>
-      <c r="E123" s="78"/>
-      <c r="F123" s="78"/>
-      <c r="G123" s="78"/>
-      <c r="H123" s="78"/>
+      <c r="B123" s="90"/>
+      <c r="C123" s="90"/>
+      <c r="D123" s="90"/>
+      <c r="E123" s="90"/>
+      <c r="F123" s="90"/>
+      <c r="G123" s="90"/>
+      <c r="H123" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7776,8 +7776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F913A49-EA44-4963-BCFF-524C51BD3A2F}">
   <dimension ref="A1:S171"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U149" sqref="U149"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="V149" sqref="V149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7797,21 +7797,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="L1" s="80" t="s">
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="L1" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="Q1" s="80" t="s">
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="Q1" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
@@ -15602,7 +15602,7 @@
   <dimension ref="B2:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15614,10 +15614,10 @@
   <sheetData>
     <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="84"/>
+      <c r="C3" s="96"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="28" t="s">
@@ -15722,10 +15722,10 @@
       <c r="C16" s="25"/>
     </row>
     <row r="17" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="82"/>
+      <c r="C17" s="94"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="28" t="s">
@@ -15764,8 +15764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD73126-F20D-45CA-BC7D-AAAD6494E8F5}">
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15791,30 +15791,30 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="42"/>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="F1" s="86" t="s">
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="F1" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="87"/>
-      <c r="I1" s="88" t="s">
+      <c r="G1" s="99"/>
+      <c r="I1" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="90"/>
-      <c r="Q1" s="91" t="s">
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="102"/>
+      <c r="Q1" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="93"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="105"/>
     </row>
     <row r="2" spans="1:24" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
@@ -15855,16 +15855,16 @@
       <c r="O2" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" s="97" t="s">
+      <c r="Q2" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="R2" s="98" t="s">
+      <c r="R2" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="S2" s="98" t="s">
+      <c r="S2" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="T2" s="99" t="s">
+      <c r="T2" s="82" t="s">
         <v>67</v>
       </c>
     </row>
@@ -15931,7 +15931,7 @@
       </c>
       <c r="X3" s="70">
         <f>SUM(O4:O53)</f>
-        <v>65488.115662770739</v>
+        <v>65590.207345565766</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
@@ -15970,8 +15970,8 @@
         <v>0</v>
       </c>
       <c r="L4" s="60">
-        <f>D4*DATA!$C$15*G4*F4</f>
-        <v>827.19344130254103</v>
+        <f>D3*EXP('EIOPA RATES'!Q12)*DATA!$C$15*G4*F4</f>
+        <v>845.80106472652471</v>
       </c>
       <c r="M4" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A4)*'BASE CASE'!F4*'BASE CASE'!G4</f>
@@ -15979,17 +15979,17 @@
       </c>
       <c r="N4" s="47">
         <f t="shared" ref="N4:N53" si="1">SUM(I4:M4)</f>
-        <v>11647.786169526718</v>
+        <v>11666.393792950703</v>
       </c>
       <c r="O4" s="26">
         <f>N4*'EIOPA RATES'!G12</f>
-        <v>11403.29942975282</v>
-      </c>
-      <c r="Q4" s="102">
+        <v>11421.516479627491</v>
+      </c>
+      <c r="Q4" s="85">
         <f>B3*EXP('EIOPA RATES'!Q12)*(DATA!$C$14-DATA!$C$15)</f>
         <v>457.60511999999983</v>
       </c>
-      <c r="R4" s="104">
+      <c r="R4" s="87">
         <f>C3*EXP('EIOPA RATES'!Q12)*(DATA!$C$14-DATA!$C$15)</f>
         <v>114.40127999999996</v>
       </c>
@@ -15997,7 +15997,7 @@
         <f>Q4+R4</f>
         <v>572.00639999999976</v>
       </c>
-      <c r="T4" s="100">
+      <c r="T4" s="83">
         <f>S4*F4*G3</f>
         <v>568.60575779934425</v>
       </c>
@@ -16044,8 +16044,8 @@
         <v>0</v>
       </c>
       <c r="L5" s="60">
-        <f>D5*DATA!$C$15*G5*F5</f>
-        <v>697.11611359805704</v>
+        <f>D4*EXP('EIOPA RATES'!Q13)*DATA!$C$15*G5*F5</f>
+        <v>712.79766216570226</v>
       </c>
       <c r="M5" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A5)*'BASE CASE'!F5*'BASE CASE'!G5</f>
@@ -16053,17 +16053,17 @@
       </c>
       <c r="N5" s="47">
         <f t="shared" si="1"/>
-        <v>9844.3876701762383</v>
+        <v>9860.0692187438835</v>
       </c>
       <c r="O5" s="26">
         <f>N5*'EIOPA RATES'!G13</f>
-        <v>9445.2572788794441</v>
-      </c>
-      <c r="Q5" s="102">
+        <v>9460.3030354785442</v>
+      </c>
+      <c r="Q5" s="85">
         <f>B4*EXP('EIOPA RATES'!Q13)*(DATA!$C$14-DATA!$C$15)</f>
         <v>456.65875094864623</v>
       </c>
-      <c r="R5" s="104">
+      <c r="R5" s="87">
         <f>C4*EXP('EIOPA RATES'!Q13)*(DATA!$C$14-DATA!$C$15)</f>
         <v>114.16468773716156</v>
       </c>
@@ -16071,7 +16071,7 @@
         <f t="shared" ref="S5:S53" si="2">Q5+R5</f>
         <v>570.82343868580779</v>
       </c>
-      <c r="T5" s="100">
+      <c r="T5" s="83">
         <f t="shared" ref="T5:T53" si="3">S5*F5*G4</f>
         <v>479.19170565761499</v>
       </c>
@@ -16119,8 +16119,8 @@
         <v>0</v>
       </c>
       <c r="L6" s="60">
-        <f>D6*DATA!$C$15*G6*F6</f>
-        <v>588.62743819200261</v>
+        <f>D5*EXP('EIOPA RATES'!Q14)*DATA!$C$15*G6*F6</f>
+        <v>601.86854620859174</v>
       </c>
       <c r="M6" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A6)*'BASE CASE'!F6*'BASE CASE'!G6</f>
@@ -16128,17 +16128,17 @@
       </c>
       <c r="N6" s="47">
         <f t="shared" si="1"/>
-        <v>8337.7805099458546</v>
+        <v>8351.021617962444</v>
       </c>
       <c r="O6" s="26">
         <f>N6*'EIOPA RATES'!G14</f>
-        <v>7820.248594915739</v>
-      </c>
-      <c r="Q6" s="102">
+        <v>7832.6678180217368</v>
+      </c>
+      <c r="Q6" s="85">
         <f>B5*EXP('EIOPA RATES'!Q14)*(DATA!$C$14-DATA!$C$15)</f>
         <v>456.86261674469409</v>
       </c>
-      <c r="R6" s="104">
+      <c r="R6" s="87">
         <f>C5*EXP('EIOPA RATES'!Q14)*(DATA!$C$14-DATA!$C$15)</f>
         <v>114.21565418617352</v>
       </c>
@@ -16146,7 +16146,7 @@
         <f t="shared" si="2"/>
         <v>571.07827093086757</v>
       </c>
-      <c r="T6" s="100">
+      <c r="T6" s="83">
         <f t="shared" si="3"/>
         <v>404.61751005619607</v>
       </c>
@@ -16194,8 +16194,8 @@
         <v>0</v>
       </c>
       <c r="L7" s="60">
-        <f>D7*DATA!$C$15*G7*F7</f>
-        <v>497.53625638436273</v>
+        <f>D6*EXP('EIOPA RATES'!Q15)*DATA!$C$15*G7*F7</f>
+        <v>508.72827851161833</v>
       </c>
       <c r="M7" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A7)*'BASE CASE'!F7*'BASE CASE'!G7</f>
@@ -16203,17 +16203,17 @@
       </c>
       <c r="N7" s="47">
         <f t="shared" si="1"/>
-        <v>7074.8049031045775</v>
+        <v>7085.9969252318333</v>
       </c>
       <c r="O7" s="26">
         <f>N7*'EIOPA RATES'!G15</f>
-        <v>6475.1240964292265</v>
-      </c>
-      <c r="Q7" s="102">
+        <v>6485.3674505791278</v>
+      </c>
+      <c r="Q7" s="85">
         <f>B6*EXP('EIOPA RATES'!Q15)*(DATA!$C$14-DATA!$C$15)</f>
         <v>457.88978008483207</v>
       </c>
-      <c r="R7" s="104">
+      <c r="R7" s="87">
         <f>C6*EXP('EIOPA RATES'!Q15)*(DATA!$C$14-DATA!$C$15)</f>
         <v>114.47244502120802</v>
       </c>
@@ -16221,7 +16221,7 @@
         <f t="shared" si="2"/>
         <v>572.36222510604011</v>
       </c>
-      <c r="T7" s="100">
+      <c r="T7" s="83">
         <f t="shared" si="3"/>
         <v>342.00220404142408</v>
       </c>
@@ -16269,8 +16269,8 @@
         <v>0</v>
       </c>
       <c r="L8" s="60">
-        <f>D8*DATA!$C$15*G8*F8</f>
-        <v>420.78699327732613</v>
+        <f>D7*EXP('EIOPA RATES'!Q16)*DATA!$C$15*G8*F8</f>
+        <v>430.25254936331902</v>
       </c>
       <c r="M8" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A8)*'BASE CASE'!F8*'BASE CASE'!G8</f>
@@ -16278,17 +16278,17 @@
       </c>
       <c r="N8" s="47">
         <f t="shared" si="1"/>
-        <v>6007.4606486499806</v>
+        <v>6016.9262047359734</v>
       </c>
       <c r="O8" s="26">
         <f>N8*'EIOPA RATES'!G16</f>
-        <v>5357.8973855350232</v>
-      </c>
-      <c r="Q8" s="102">
+        <v>5366.3394680007941</v>
+      </c>
+      <c r="Q8" s="85">
         <f>B7*EXP('EIOPA RATES'!Q16)*(DATA!$C$14-DATA!$C$15)</f>
         <v>459.5470431522653</v>
       </c>
-      <c r="R8" s="104">
+      <c r="R8" s="87">
         <f>C7*EXP('EIOPA RATES'!Q16)*(DATA!$C$14-DATA!$C$15)</f>
         <v>114.88676078806633</v>
       </c>
@@ -16296,7 +16296,7 @@
         <f t="shared" si="2"/>
         <v>574.43380394033159</v>
       </c>
-      <c r="T8" s="100">
+      <c r="T8" s="83">
         <f t="shared" si="3"/>
         <v>289.24541133668509</v>
       </c>
@@ -16305,7 +16305,7 @@
       </c>
       <c r="X8" s="71">
         <f>SUMPRODUCT(L4:L53,'EIOPA RATES'!G12:G61)</f>
-        <v>4538.4393533434459</v>
+        <v>4640.5310361384936</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16344,8 +16344,8 @@
         <v>0</v>
       </c>
       <c r="L9" s="60">
-        <f>D9*DATA!$C$15*G9*F9</f>
-        <v>355.82055211114351</v>
+        <f>D8*EXP('EIOPA RATES'!Q17)*DATA!$C$15*G9*F9</f>
+        <v>363.82469541016724</v>
       </c>
       <c r="M9" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A9)*'BASE CASE'!F9*'BASE CASE'!G9</f>
@@ -16353,17 +16353,17 @@
       </c>
       <c r="N9" s="47">
         <f t="shared" si="1"/>
-        <v>5104.3029774184179</v>
+        <v>5112.3071207174416</v>
       </c>
       <c r="O9" s="26">
         <f>N9*'EIOPA RATES'!G17</f>
-        <v>4432.7286401349547</v>
-      </c>
-      <c r="Q9" s="102">
+        <v>4439.6796764269411</v>
+      </c>
+      <c r="Q9" s="85">
         <f>B8*EXP('EIOPA RATES'!Q17)*(DATA!$C$14-DATA!$C$15)</f>
         <v>461.57001416860459</v>
       </c>
-      <c r="R9" s="104">
+      <c r="R9" s="87">
         <f>C8*EXP('EIOPA RATES'!Q17)*(DATA!$C$14-DATA!$C$15)</f>
         <v>115.39250354215115</v>
       </c>
@@ -16371,7 +16371,7 @@
         <f t="shared" si="2"/>
         <v>576.96251771075572</v>
       </c>
-      <c r="T9" s="100">
+      <c r="T9" s="83">
         <f t="shared" si="3"/>
         <v>244.5880305278435</v>
       </c>
@@ -16419,8 +16419,8 @@
         <v>0</v>
       </c>
       <c r="L10" s="60">
-        <f>D10*DATA!$C$15*G10*F10</f>
-        <v>300.80543106826713</v>
+        <f>D9*EXP('EIOPA RATES'!Q18)*DATA!$C$15*G10*F10</f>
+        <v>307.57201540722616</v>
       </c>
       <c r="M10" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A10)*'BASE CASE'!F10*'BASE CASE'!G10</f>
@@ -16428,17 +16428,17 @@
       </c>
       <c r="N10" s="47">
         <f t="shared" si="1"/>
-        <v>4339.2242595120133</v>
+        <v>4345.9908438509729</v>
       </c>
       <c r="O10" s="26">
         <f>N10*'EIOPA RATES'!G18</f>
-        <v>3666.1829904544961</v>
-      </c>
-      <c r="Q10" s="102">
+        <v>3671.9000345442523</v>
+      </c>
+      <c r="Q10" s="85">
         <f>B9*EXP('EIOPA RATES'!Q18)*(DATA!$C$14-DATA!$C$15)</f>
         <v>463.99051262311571</v>
       </c>
-      <c r="R10" s="104">
+      <c r="R10" s="87">
         <f>C9*EXP('EIOPA RATES'!Q18)*(DATA!$C$14-DATA!$C$15)</f>
         <v>115.99762815577893</v>
       </c>
@@ -16446,7 +16446,7 @@
         <f t="shared" si="2"/>
         <v>579.9881407788946</v>
       </c>
-      <c r="T10" s="100">
+      <c r="T10" s="83">
         <f t="shared" si="3"/>
         <v>206.77110279477384</v>
       </c>
@@ -16487,8 +16487,8 @@
         <v>0</v>
       </c>
       <c r="L11" s="60">
-        <f>D11*DATA!$C$15*G11*F11</f>
-        <v>254.18373490238724</v>
+        <f>D10*EXP('EIOPA RATES'!Q19)*DATA!$C$15*G11*F11</f>
+        <v>259.90156942984379</v>
       </c>
       <c r="M11" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A11)*'BASE CASE'!F11*'BASE CASE'!G11</f>
@@ -16496,17 +16496,17 @@
       </c>
       <c r="N11" s="47">
         <f t="shared" si="1"/>
-        <v>3690.0402197975395</v>
+        <v>3695.758054324996</v>
       </c>
       <c r="O11" s="26">
         <f>N11*'EIOPA RATES'!G19</f>
-        <v>3030.7160956883108</v>
-      </c>
-      <c r="Q11" s="102">
+        <v>3035.4122865433242</v>
+      </c>
+      <c r="Q11" s="85">
         <f>B10*EXP('EIOPA RATES'!Q19)*(DATA!$C$14-DATA!$C$15)</f>
         <v>466.80536833792246</v>
       </c>
-      <c r="R11" s="104">
+      <c r="R11" s="87">
         <f>C10*EXP('EIOPA RATES'!Q19)*(DATA!$C$14-DATA!$C$15)</f>
         <v>116.70134208448061</v>
       </c>
@@ -16514,7 +16514,7 @@
         <f t="shared" si="2"/>
         <v>583.5067104224031</v>
       </c>
-      <c r="T11" s="100">
+      <c r="T11" s="83">
         <f t="shared" si="3"/>
         <v>174.72374415451682</v>
       </c>
@@ -16523,7 +16523,7 @@
       </c>
       <c r="X11" s="70">
         <f>DATA!C4-'BASE CASE'!X3</f>
-        <v>4511.8843372292613</v>
+        <v>4409.7926544342336</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
@@ -16562,8 +16562,8 @@
         <v>0</v>
       </c>
       <c r="L12" s="60">
-        <f>D12*DATA!$C$15*G12*F12</f>
-        <v>214.64773146652644</v>
+        <f>D11*EXP('EIOPA RATES'!Q20)*DATA!$C$15*G12*F12</f>
+        <v>219.47620804348304</v>
       </c>
       <c r="M12" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A12)*'BASE CASE'!F12*'BASE CASE'!G12</f>
@@ -16571,17 +16571,17 @@
       </c>
       <c r="N12" s="47">
         <f t="shared" si="1"/>
-        <v>3134.5287412884627</v>
+        <v>3139.3572178654194</v>
       </c>
       <c r="O12" s="26">
         <f>N12*'EIOPA RATES'!G20</f>
-        <v>2501.3274945739736</v>
-      </c>
-      <c r="Q12" s="102">
+        <v>2505.1805781522989</v>
+      </c>
+      <c r="Q12" s="85">
         <f>B11*EXP('EIOPA RATES'!Q20)*(DATA!$C$14-DATA!$C$15)</f>
         <v>469.88388598655206</v>
       </c>
-      <c r="R12" s="104">
+      <c r="R12" s="87">
         <f>C11*EXP('EIOPA RATES'!Q20)*(DATA!$C$14-DATA!$C$15)</f>
         <v>117.47097149663801</v>
       </c>
@@ -16589,7 +16589,7 @@
         <f t="shared" si="2"/>
         <v>587.35485748319002</v>
       </c>
-      <c r="T12" s="100">
+      <c r="T12" s="83">
         <f t="shared" si="3"/>
         <v>147.54703061746756</v>
       </c>
@@ -16630,8 +16630,8 @@
         <v>0</v>
       </c>
       <c r="L13" s="60">
-        <f>D13*DATA!$C$15*G13*F13</f>
-        <v>180.91853182439215</v>
+        <f>D12*EXP('EIOPA RATES'!Q21)*DATA!$C$15*G13*F13</f>
+        <v>184.98827384907173</v>
       </c>
       <c r="M13" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A13)*'BASE CASE'!F13*'BASE CASE'!G13</f>
@@ -16639,17 +16639,17 @@
       </c>
       <c r="N13" s="47">
         <f t="shared" si="1"/>
-        <v>2659.9897844927646</v>
+        <v>2664.0595265174443</v>
       </c>
       <c r="O13" s="26">
         <f>N13*'EIOPA RATES'!G21</f>
-        <v>2063.4394618426227</v>
-      </c>
-      <c r="Q13" s="102">
+        <v>2066.5964913704056</v>
+      </c>
+      <c r="Q13" s="85">
         <f>B12*EXP('EIOPA RATES'!Q21)*(DATA!$C$14-DATA!$C$15)</f>
         <v>472.73302600322535</v>
       </c>
-      <c r="R13" s="104">
+      <c r="R13" s="87">
         <f>C12*EXP('EIOPA RATES'!Q21)*(DATA!$C$14-DATA!$C$15)</f>
         <v>118.18325650080634</v>
       </c>
@@ -16657,7 +16657,7 @@
         <f t="shared" si="2"/>
         <v>590.91628250403164</v>
       </c>
-      <c r="T13" s="100">
+      <c r="T13" s="83">
         <f t="shared" si="3"/>
         <v>124.36186477248516</v>
       </c>
@@ -16698,8 +16698,8 @@
         <v>0</v>
       </c>
       <c r="L14" s="60">
-        <f>D14*DATA!$C$15*G14*F14</f>
-        <v>152.6251019977895</v>
+        <f>D13*EXP('EIOPA RATES'!Q22)*DATA!$C$15*G14*F14</f>
+        <v>156.05838650080727</v>
       </c>
       <c r="M14" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A14)*'BASE CASE'!F14*'BASE CASE'!G14</f>
@@ -16707,17 +16707,17 @@
       </c>
       <c r="N14" s="47">
         <f t="shared" si="1"/>
-        <v>2257.9794419992163</v>
+        <v>2261.4127265022344</v>
       </c>
       <c r="O14" s="26">
         <f>N14*'EIOPA RATES'!G22</f>
-        <v>1699.0823283962393</v>
-      </c>
-      <c r="Q14" s="102">
+        <v>1701.6658032140037</v>
+      </c>
+      <c r="Q14" s="85">
         <f>B13*EXP('EIOPA RATES'!Q22)*(DATA!$C$14-DATA!$C$15)</f>
         <v>476.61984649345004</v>
       </c>
-      <c r="R14" s="104">
+      <c r="R14" s="87">
         <f>C13*EXP('EIOPA RATES'!Q22)*(DATA!$C$14-DATA!$C$15)</f>
         <v>119.15496162336251</v>
       </c>
@@ -16725,7 +16725,7 @@
         <f t="shared" si="2"/>
         <v>595.77480811681255</v>
       </c>
-      <c r="T14" s="100">
+      <c r="T14" s="83">
         <f t="shared" si="3"/>
         <v>104.91320100894605</v>
       </c>
@@ -16773,8 +16773,8 @@
         <v>0</v>
       </c>
       <c r="L15" s="60">
-        <f>D15*DATA!$C$15*G15*F15</f>
-        <v>128.43068123852515</v>
+        <f>D14*EXP('EIOPA RATES'!Q23)*DATA!$C$15*G15*F15</f>
+        <v>131.31971496781716</v>
       </c>
       <c r="M15" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A15)*'BASE CASE'!F15*'BASE CASE'!G15</f>
@@ -16782,17 +16782,17 @@
       </c>
       <c r="N15" s="47">
         <f t="shared" si="1"/>
-        <v>1917.0159716446062</v>
+        <v>1919.9050053738983</v>
       </c>
       <c r="O15" s="26">
         <f>N15*'EIOPA RATES'!G23</f>
-        <v>1400.2860035094391</v>
-      </c>
-      <c r="Q15" s="102">
+        <v>1402.396300739422</v>
+      </c>
+      <c r="Q15" s="85">
         <f>B14*EXP('EIOPA RATES'!Q23)*(DATA!$C$14-DATA!$C$15)</f>
         <v>480.19142458855589</v>
       </c>
-      <c r="R15" s="104">
+      <c r="R15" s="87">
         <f>C14*EXP('EIOPA RATES'!Q23)*(DATA!$C$14-DATA!$C$15)</f>
         <v>120.04785614713897</v>
       </c>
@@ -16800,7 +16800,7 @@
         <f t="shared" si="2"/>
         <v>600.23928073569482</v>
       </c>
-      <c r="T15" s="100">
+      <c r="T15" s="83">
         <f t="shared" si="3"/>
         <v>88.282161322902255</v>
       </c>
@@ -16809,7 +16809,7 @@
       </c>
       <c r="X15" s="71">
         <f>DATA!C4-X3-X14</f>
-        <v>923.47873682924137</v>
+        <v>821.38705403421363</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16848,8 +16848,8 @@
         <v>0</v>
       </c>
       <c r="L16" s="60">
-        <f>D16*DATA!$C$15*G16*F16</f>
-        <v>107.8221350827698</v>
+        <f>D15*EXP('EIOPA RATES'!Q24)*DATA!$C$15*G16*F16</f>
+        <v>110.24758188422271</v>
       </c>
       <c r="M16" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A16)*'BASE CASE'!F16*'BASE CASE'!G16</f>
@@ -16857,17 +16857,17 @@
       </c>
       <c r="N16" s="47">
         <f t="shared" si="1"/>
-        <v>1624.7019349021036</v>
+        <v>1627.1273817035565</v>
       </c>
       <c r="O16" s="26">
         <f>N16*'EIOPA RATES'!G24</f>
-        <v>1152.4510135113924</v>
-      </c>
-      <c r="Q16" s="102">
+        <v>1154.1714574676068</v>
+      </c>
+      <c r="Q16" s="85">
         <f>B15*EXP('EIOPA RATES'!Q24)*(DATA!$C$14-DATA!$C$15)</f>
         <v>483.61024766430512</v>
       </c>
-      <c r="R16" s="104">
+      <c r="R16" s="87">
         <f>C15*EXP('EIOPA RATES'!Q24)*(DATA!$C$14-DATA!$C$15)</f>
         <v>120.90256191607628</v>
       </c>
@@ -16875,7 +16875,7 @@
         <f t="shared" si="2"/>
         <v>604.51280958038137</v>
       </c>
-      <c r="T16" s="100">
+      <c r="T16" s="83">
         <f t="shared" si="3"/>
         <v>74.116021434771554</v>
       </c>
@@ -16884,7 +16884,7 @@
       </c>
       <c r="X16" s="72">
         <f>(DATA!$C$14-DATA!$C$15)*X18*DATA!C4</f>
-        <v>3140.3340241049073</v>
+        <v>3140.1629962852498</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16923,8 +16923,8 @@
         <v>0</v>
       </c>
       <c r="L17" s="60">
-        <f>D17*DATA!$C$15*G17*F17</f>
-        <v>90.193614997285223</v>
+        <f>D16*EXP('EIOPA RATES'!Q25)*DATA!$C$15*G17*F17</f>
+        <v>92.222510222173042</v>
       </c>
       <c r="M17" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A17)*'BASE CASE'!F17*'BASE CASE'!G17</f>
@@ -16932,17 +16932,17 @@
       </c>
       <c r="N17" s="47">
         <f t="shared" si="1"/>
-        <v>1375.3768880249931</v>
+        <v>1377.4057832498809</v>
       </c>
       <c r="O17" s="26">
         <f>N17*'EIOPA RATES'!G25</f>
-        <v>948.4786688914437</v>
-      </c>
-      <c r="Q17" s="102">
+        <v>949.87782272264201</v>
+      </c>
+      <c r="Q17" s="85">
         <f>B16*EXP('EIOPA RATES'!Q25)*(DATA!$C$14-DATA!$C$15)</f>
         <v>486.49376679922625</v>
       </c>
-      <c r="R17" s="104">
+      <c r="R17" s="87">
         <f>C16*EXP('EIOPA RATES'!Q25)*(DATA!$C$14-DATA!$C$15)</f>
         <v>121.62344169980656</v>
       </c>
@@ -16950,7 +16950,7 @@
         <f t="shared" si="2"/>
         <v>608.11720849903281</v>
       </c>
-      <c r="T17" s="100">
+      <c r="T17" s="83">
         <f t="shared" si="3"/>
         <v>61.99832619978018</v>
       </c>
@@ -16991,8 +16991,8 @@
         <v>0</v>
       </c>
       <c r="L18" s="60">
-        <f>D18*DATA!$C$15*G18*F18</f>
-        <v>75.246084745625879</v>
+        <f>D17*EXP('EIOPA RATES'!Q26)*DATA!$C$15*G18*F18</f>
+        <v>76.938736958717683</v>
       </c>
       <c r="M18" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A18)*'BASE CASE'!F18*'BASE CASE'!G18</f>
@@ -17000,17 +17000,17 @@
       </c>
       <c r="N18" s="47">
         <f t="shared" si="1"/>
-        <v>1160.3694247832298</v>
+        <v>1162.0620769963216</v>
       </c>
       <c r="O18" s="26">
         <f>N18*'EIOPA RATES'!G26</f>
-        <v>778.22119493910009</v>
-      </c>
-      <c r="Q18" s="102">
+        <v>779.35640050359927</v>
+      </c>
+      <c r="Q18" s="85">
         <f>B17*EXP('EIOPA RATES'!Q26)*(DATA!$C$14-DATA!$C$15)</f>
         <v>489.23239117530414</v>
       </c>
-      <c r="R18" s="104">
+      <c r="R18" s="87">
         <f>C17*EXP('EIOPA RATES'!Q26)*(DATA!$C$14-DATA!$C$15)</f>
         <v>122.30809779382604</v>
       </c>
@@ -17018,7 +17018,7 @@
         <f t="shared" si="2"/>
         <v>611.54048896913014</v>
       </c>
-      <c r="T18" s="100">
+      <c r="T18" s="83">
         <f t="shared" si="3"/>
         <v>51.723520644516078</v>
       </c>
@@ -17027,7 +17027,7 @@
       </c>
       <c r="X18" s="70">
         <f>SUMPRODUCT(O4:O53,A4:A53)/SUM(O4:O53)</f>
-        <v>5.6077393287587638</v>
+        <v>5.6074339219379477</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
@@ -17066,8 +17066,8 @@
         <v>0</v>
       </c>
       <c r="L19" s="60">
-        <f>D19*DATA!$C$15*G19*F19</f>
-        <v>62.604494160090212</v>
+        <f>D18*EXP('EIOPA RATES'!Q27)*DATA!$C$15*G19*F19</f>
+        <v>64.012775214816173</v>
       </c>
       <c r="M19" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A19)*'BASE CASE'!F19*'BASE CASE'!G19</f>
@@ -17075,17 +17075,17 @@
       </c>
       <c r="N19" s="47">
         <f t="shared" si="1"/>
-        <v>979.53086805478233</v>
+        <v>980.93914910950832</v>
       </c>
       <c r="O19" s="26">
         <f>N19*'EIOPA RATES'!G27</f>
-        <v>638.67822999015709</v>
-      </c>
-      <c r="Q19" s="102">
+        <v>639.59646389242016</v>
+      </c>
+      <c r="Q19" s="85">
         <f>B18*EXP('EIOPA RATES'!Q27)*(DATA!$C$14-DATA!$C$15)</f>
         <v>492.14927457160695</v>
       </c>
-      <c r="R19" s="104">
+      <c r="R19" s="87">
         <f>C18*EXP('EIOPA RATES'!Q27)*(DATA!$C$14-DATA!$C$15)</f>
         <v>123.03731864290174</v>
       </c>
@@ -17093,7 +17093,7 @@
         <f t="shared" si="2"/>
         <v>615.18659321450866</v>
       </c>
-      <c r="T19" s="100">
+      <c r="T19" s="83">
         <f t="shared" si="3"/>
         <v>43.033798463741952</v>
       </c>
@@ -17134,8 +17134,8 @@
         <v>0</v>
       </c>
       <c r="L20" s="60">
-        <f>D20*DATA!$C$15*G20*F20</f>
-        <v>51.970121022648925</v>
+        <f>D19*EXP('EIOPA RATES'!Q28)*DATA!$C$15*G20*F20</f>
+        <v>53.139183049743274</v>
       </c>
       <c r="M20" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A20)*'BASE CASE'!F20*'BASE CASE'!G20</f>
@@ -17143,17 +17143,17 @@
       </c>
       <c r="N20" s="47">
         <f t="shared" si="1"/>
-        <v>820.5928609779088</v>
+        <v>821.76192300500304</v>
       </c>
       <c r="O20" s="26">
         <f>N20*'EIOPA RATES'!G28</f>
-        <v>520.33142777868306</v>
-      </c>
-      <c r="Q20" s="102">
+        <v>521.07272074215689</v>
+      </c>
+      <c r="Q20" s="85">
         <f>B19*EXP('EIOPA RATES'!Q28)*(DATA!$C$14-DATA!$C$15)</f>
         <v>494.93408882265277</v>
       </c>
-      <c r="R20" s="104">
+      <c r="R20" s="87">
         <f>C19*EXP('EIOPA RATES'!Q28)*(DATA!$C$14-DATA!$C$15)</f>
         <v>123.73352220566319</v>
       </c>
@@ -17161,7 +17161,7 @@
         <f t="shared" si="2"/>
         <v>618.66761102831595</v>
       </c>
-      <c r="T20" s="100">
+      <c r="T20" s="83">
         <f t="shared" si="3"/>
         <v>35.723820537642524</v>
       </c>
@@ -17202,8 +17202,8 @@
         <v>0</v>
       </c>
       <c r="L21" s="60">
-        <f>D21*DATA!$C$15*G21*F21</f>
-        <v>42.944827918565878</v>
+        <f>D20*EXP('EIOPA RATES'!Q29)*DATA!$C$15*G21*F21</f>
+        <v>43.910866992398645</v>
       </c>
       <c r="M21" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A21)*'BASE CASE'!F21*'BASE CASE'!G21</f>
@@ -17211,17 +17211,17 @@
       </c>
       <c r="N21" s="47">
         <f t="shared" si="1"/>
-        <v>688.07324300587527</v>
+        <v>689.03928207970796</v>
       </c>
       <c r="O21" s="26">
         <f>N21*'EIOPA RATES'!G29</f>
-        <v>424.91406629953838</v>
-      </c>
-      <c r="Q21" s="102">
+        <v>425.51063591656532</v>
+      </c>
+      <c r="Q21" s="85">
         <f>B20*EXP('EIOPA RATES'!Q29)*(DATA!$C$14-DATA!$C$15)</f>
         <v>497.0179881475209</v>
       </c>
-      <c r="R21" s="104">
+      <c r="R21" s="87">
         <f>C20*EXP('EIOPA RATES'!Q29)*(DATA!$C$14-DATA!$C$15)</f>
         <v>124.25449703688022</v>
       </c>
@@ -17229,7 +17229,7 @@
         <f t="shared" si="2"/>
         <v>621.27248518440115</v>
       </c>
-      <c r="T21" s="100">
+      <c r="T21" s="83">
         <f t="shared" si="3"/>
         <v>29.519910583125142</v>
       </c>
@@ -17270,8 +17270,8 @@
         <v>0</v>
       </c>
       <c r="L22" s="60">
-        <f>D22*DATA!$C$15*G22*F22</f>
-        <v>35.249417502252811</v>
+        <f>D21*EXP('EIOPA RATES'!Q30)*DATA!$C$15*G22*F22</f>
+        <v>36.042349184307582</v>
       </c>
       <c r="M22" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A22)*'BASE CASE'!F22*'BASE CASE'!G22</f>
@@ -17279,17 +17279,17 @@
       </c>
       <c r="N22" s="47">
         <f t="shared" si="1"/>
-        <v>575.94623262775508</v>
+        <v>576.73916430980989</v>
       </c>
       <c r="O22" s="26">
         <f>N22*'EIOPA RATES'!G30</f>
-        <v>347.23529300971802</v>
-      </c>
-      <c r="Q22" s="102">
+        <v>347.71334781649881</v>
+      </c>
+      <c r="Q22" s="85">
         <f>B21*EXP('EIOPA RATES'!Q30)*(DATA!$C$14-DATA!$C$15)</f>
         <v>497.89238215234604</v>
       </c>
-      <c r="R22" s="104">
+      <c r="R22" s="87">
         <f>C21*EXP('EIOPA RATES'!Q30)*(DATA!$C$14-DATA!$C$15)</f>
         <v>124.47309553808651</v>
       </c>
@@ -17297,7 +17297,7 @@
         <f t="shared" si="2"/>
         <v>622.3654776904325</v>
       </c>
-      <c r="T22" s="100">
+      <c r="T22" s="83">
         <f t="shared" si="3"/>
         <v>24.230150712139547</v>
       </c>
@@ -17338,8 +17338,8 @@
         <v>0</v>
       </c>
       <c r="L23" s="60">
-        <f>D23*DATA!$C$15*G23*F23</f>
-        <v>28.703965226572485</v>
+        <f>D22*EXP('EIOPA RATES'!Q31)*DATA!$C$15*G23*F23</f>
+        <v>29.349657695881891</v>
       </c>
       <c r="M23" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A23)*'BASE CASE'!F23*'BASE CASE'!G23</f>
@@ -17347,17 +17347,17 @@
       </c>
       <c r="N23" s="47">
         <f t="shared" si="1"/>
-        <v>480.37525834522984</v>
+        <v>481.02095081453922</v>
       </c>
       <c r="O23" s="26">
         <f>N23*'EIOPA RATES'!G31</f>
-        <v>283.49159806754039</v>
-      </c>
-      <c r="Q23" s="102">
+        <v>283.87265097733274</v>
+      </c>
+      <c r="Q23" s="85">
         <f>B22*EXP('EIOPA RATES'!Q31)*(DATA!$C$14-DATA!$C$15)</f>
         <v>497.45831434029049</v>
       </c>
-      <c r="R23" s="104">
+      <c r="R23" s="87">
         <f>C22*EXP('EIOPA RATES'!Q31)*(DATA!$C$14-DATA!$C$15)</f>
         <v>124.36457858507262</v>
       </c>
@@ -17365,7 +17365,7 @@
         <f t="shared" si="2"/>
         <v>621.82289292536313</v>
       </c>
-      <c r="T23" s="100">
+      <c r="T23" s="83">
         <f t="shared" si="3"/>
         <v>19.730862316559254</v>
       </c>
@@ -17406,8 +17406,8 @@
         <v>0</v>
       </c>
       <c r="L24" s="60">
-        <f>D24*DATA!$C$15*G24*F24</f>
-        <v>23.270241448392259</v>
+        <f>D23*EXP('EIOPA RATES'!Q32)*DATA!$C$15*G24*F24</f>
+        <v>23.793702912466525</v>
       </c>
       <c r="M24" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A24)*'BASE CASE'!F24*'BASE CASE'!G24</f>
@@ -17415,17 +17415,17 @@
       </c>
       <c r="N24" s="47">
         <f t="shared" si="1"/>
-        <v>398.41381644850441</v>
+        <v>398.93727791257868</v>
       </c>
       <c r="O24" s="26">
         <f>N24*'EIOPA RATES'!G32</f>
-        <v>229.98923886082028</v>
-      </c>
-      <c r="Q24" s="102">
+        <v>230.29141338069158</v>
+      </c>
+      <c r="Q24" s="85">
         <f>B23*EXP('EIOPA RATES'!Q32)*(DATA!$C$14-DATA!$C$15)</f>
         <v>497.37274660004852</v>
       </c>
-      <c r="R24" s="104">
+      <c r="R24" s="87">
         <f>C23*EXP('EIOPA RATES'!Q32)*(DATA!$C$14-DATA!$C$15)</f>
         <v>124.34318665001213</v>
       </c>
@@ -17433,7 +17433,7 @@
         <f t="shared" si="2"/>
         <v>621.71593325006063</v>
       </c>
-      <c r="T24" s="100">
+      <c r="T24" s="83">
         <f t="shared" si="3"/>
         <v>15.995766663843039</v>
       </c>
@@ -17474,8 +17474,8 @@
         <v>0</v>
       </c>
       <c r="L25" s="60">
-        <f>D25*DATA!$C$15*G25*F25</f>
-        <v>18.739424220918519</v>
+        <f>D24*EXP('EIOPA RATES'!Q33)*DATA!$C$15*G25*F25</f>
+        <v>19.160965461061878</v>
       </c>
       <c r="M25" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A25)*'BASE CASE'!F25*'BASE CASE'!G25</f>
@@ -17483,17 +17483,17 @@
       </c>
       <c r="N25" s="47">
         <f t="shared" si="1"/>
-        <v>331.81869233879996</v>
+        <v>332.24023357894333</v>
       </c>
       <c r="O25" s="26">
         <f>N25*'EIOPA RATES'!G33</f>
-        <v>187.16039769099086</v>
-      </c>
-      <c r="Q25" s="102">
+        <v>187.39816556835876</v>
+      </c>
+      <c r="Q25" s="85">
         <f>B24*EXP('EIOPA RATES'!Q33)*(DATA!$C$14-DATA!$C$15)</f>
         <v>497.82975740835207</v>
       </c>
-      <c r="R25" s="104">
+      <c r="R25" s="87">
         <f>C24*EXP('EIOPA RATES'!Q33)*(DATA!$C$14-DATA!$C$15)</f>
         <v>124.45743935208802</v>
       </c>
@@ -17501,7 +17501,7 @@
         <f t="shared" si="2"/>
         <v>622.28719676044011</v>
       </c>
-      <c r="T25" s="100">
+      <c r="T25" s="83">
         <f t="shared" si="3"/>
         <v>12.881321318360925</v>
       </c>
@@ -17542,8 +17542,8 @@
         <v>0</v>
       </c>
       <c r="L26" s="60">
-        <f>D26*DATA!$C$15*G26*F26</f>
-        <v>15.007603500371339</v>
+        <f>D25*EXP('EIOPA RATES'!Q34)*DATA!$C$15*G26*F26</f>
+        <v>15.345197853140427</v>
       </c>
       <c r="M26" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A26)*'BASE CASE'!F26*'BASE CASE'!G26</f>
@@ -17551,17 +17551,17 @@
       </c>
       <c r="N26" s="47">
         <f t="shared" si="1"/>
-        <v>273.25495120701447</v>
+        <v>273.59254555978356</v>
       </c>
       <c r="O26" s="26">
         <f>N26*'EIOPA RATES'!G34</f>
-        <v>150.43739465617494</v>
-      </c>
-      <c r="Q26" s="102">
+        <v>150.62325337403857</v>
+      </c>
+      <c r="Q26" s="85">
         <f>B25*EXP('EIOPA RATES'!Q34)*(DATA!$C$14-DATA!$C$15)</f>
         <v>498.82137556611747</v>
       </c>
-      <c r="R26" s="104">
+      <c r="R26" s="87">
         <f>C25*EXP('EIOPA RATES'!Q34)*(DATA!$C$14-DATA!$C$15)</f>
         <v>124.70534389152937</v>
       </c>
@@ -17569,7 +17569,7 @@
         <f t="shared" si="2"/>
         <v>623.52671945764678</v>
       </c>
-      <c r="T26" s="100">
+      <c r="T26" s="83">
         <f t="shared" si="3"/>
         <v>10.316099397069193</v>
       </c>
@@ -17610,8 +17610,8 @@
         <v>0</v>
       </c>
       <c r="L27" s="60">
-        <f>D27*DATA!$C$15*G27*F27</f>
-        <v>11.940898442827335</v>
+        <f>D26*EXP('EIOPA RATES'!Q35)*DATA!$C$15*G27*F27</f>
+        <v>12.209507610252899</v>
       </c>
       <c r="M27" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A27)*'BASE CASE'!F27*'BASE CASE'!G27</f>
@@ -17619,17 +17619,17 @@
       </c>
       <c r="N27" s="47">
         <f t="shared" si="1"/>
-        <v>224.2854159314364</v>
+        <v>224.55402509886196</v>
       </c>
       <c r="O27" s="26">
         <f>N27*'EIOPA RATES'!G35</f>
-        <v>120.39914074870316</v>
-      </c>
-      <c r="Q27" s="102">
+        <v>120.54333341865879</v>
+      </c>
+      <c r="Q27" s="85">
         <f>B26*EXP('EIOPA RATES'!Q35)*(DATA!$C$14-DATA!$C$15)</f>
         <v>500.32167895199501</v>
       </c>
-      <c r="R27" s="104">
+      <c r="R27" s="87">
         <f>C26*EXP('EIOPA RATES'!Q35)*(DATA!$C$14-DATA!$C$15)</f>
         <v>125.08041973799875</v>
       </c>
@@ -17637,7 +17637,7 @@
         <f t="shared" si="2"/>
         <v>625.40209868999375</v>
       </c>
-      <c r="T27" s="100">
+      <c r="T27" s="83">
         <f t="shared" si="3"/>
         <v>8.2080723430271583</v>
       </c>
@@ -17678,8 +17678,8 @@
         <v>0</v>
       </c>
       <c r="L28" s="60">
-        <f>D28*DATA!$C$15*G28*F28</f>
-        <v>9.422522990446307</v>
+        <f>D27*EXP('EIOPA RATES'!Q36)*DATA!$C$15*G28*F28</f>
+        <v>9.6344815853234209</v>
       </c>
       <c r="M28" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A28)*'BASE CASE'!F28*'BASE CASE'!G28</f>
@@ -17687,17 +17687,17 @@
       </c>
       <c r="N28" s="47">
         <f t="shared" si="1"/>
-        <v>183.65496975999048</v>
+        <v>183.86692835486758</v>
       </c>
       <c r="O28" s="26">
         <f>N28*'EIOPA RATES'!G36</f>
-        <v>96.042142772604265</v>
-      </c>
-      <c r="Q28" s="102">
+        <v>96.15298626166242</v>
+      </c>
+      <c r="Q28" s="85">
         <f>B27*EXP('EIOPA RATES'!Q36)*(DATA!$C$14-DATA!$C$15)</f>
         <v>502.28634641936048</v>
       </c>
-      <c r="R28" s="104">
+      <c r="R28" s="87">
         <f>C27*EXP('EIOPA RATES'!Q36)*(DATA!$C$14-DATA!$C$15)</f>
         <v>125.57158660484012</v>
       </c>
@@ -17705,7 +17705,7 @@
         <f t="shared" si="2"/>
         <v>627.85793302420063</v>
       </c>
-      <c r="T28" s="100">
+      <c r="T28" s="83">
         <f t="shared" si="3"/>
         <v>6.4769624103014589</v>
       </c>
@@ -17746,8 +17746,8 @@
         <v>0</v>
       </c>
       <c r="L29" s="60">
-        <f>D29*DATA!$C$15*G29*F29</f>
-        <v>7.3770442358579205</v>
+        <f>D28*EXP('EIOPA RATES'!Q37)*DATA!$C$15*G29*F29</f>
+        <v>7.5429900162146417</v>
       </c>
       <c r="M29" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A29)*'BASE CASE'!F29*'BASE CASE'!G29</f>
@@ -17755,17 +17755,17 @@
       </c>
       <c r="N29" s="47">
         <f t="shared" si="1"/>
-        <v>148.59523646392947</v>
+        <v>148.7611822442862</v>
       </c>
       <c r="O29" s="26">
         <f>N29*'EIOPA RATES'!G37</f>
-        <v>75.66104510331995</v>
-      </c>
-      <c r="Q29" s="102">
+        <v>75.74554061926689</v>
+      </c>
+      <c r="Q29" s="85">
         <f>B28*EXP('EIOPA RATES'!Q37)*(DATA!$C$14-DATA!$C$15)</f>
         <v>504.52412190529066</v>
       </c>
-      <c r="R29" s="104">
+      <c r="R29" s="87">
         <f>C28*EXP('EIOPA RATES'!Q37)*(DATA!$C$14-DATA!$C$15)</f>
         <v>126.13103047632266</v>
       </c>
@@ -17773,7 +17773,7 @@
         <f t="shared" si="2"/>
         <v>630.65515238161333</v>
       </c>
-      <c r="T29" s="100">
+      <c r="T29" s="83">
         <f t="shared" si="3"/>
         <v>5.0709176579594217</v>
       </c>
@@ -17814,8 +17814,8 @@
         <v>0</v>
       </c>
       <c r="L30" s="60">
-        <f>D30*DATA!$C$15*G30*F30</f>
-        <v>5.7142176224037549</v>
+        <f>D29*EXP('EIOPA RATES'!Q38)*DATA!$C$15*G30*F30</f>
+        <v>5.8427583051163134</v>
       </c>
       <c r="M30" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A30)*'BASE CASE'!F30*'BASE CASE'!G30</f>
@@ -17823,17 +17823,17 @@
       </c>
       <c r="N30" s="47">
         <f t="shared" si="1"/>
-        <v>120.27039487534944</v>
+        <v>120.39893555806201</v>
       </c>
       <c r="O30" s="26">
         <f>N30*'EIOPA RATES'!G38</f>
-        <v>59.57531520095899</v>
-      </c>
-      <c r="Q30" s="102">
+        <v>59.63898716026938</v>
+      </c>
+      <c r="Q30" s="85">
         <f>B29*EXP('EIOPA RATES'!Q38)*(DATA!$C$14-DATA!$C$15)</f>
         <v>507.20161362011032</v>
       </c>
-      <c r="R30" s="104">
+      <c r="R30" s="87">
         <f>C29*EXP('EIOPA RATES'!Q38)*(DATA!$C$14-DATA!$C$15)</f>
         <v>126.80040340502758</v>
       </c>
@@ -17841,7 +17841,7 @@
         <f t="shared" si="2"/>
         <v>634.00201702513789</v>
       </c>
-      <c r="T30" s="100">
+      <c r="T30" s="83">
         <f t="shared" si="3"/>
         <v>3.9279047429353358</v>
       </c>
@@ -17882,8 +17882,8 @@
         <v>0</v>
       </c>
       <c r="L31" s="60">
-        <f>D31*DATA!$C$15*G31*F31</f>
-        <v>4.3625209689462237</v>
+        <f>D30*EXP('EIOPA RATES'!Q39)*DATA!$C$15*G31*F31</f>
+        <v>4.4606553874705757</v>
       </c>
       <c r="M31" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A31)*'BASE CASE'!F31*'BASE CASE'!G31</f>
@@ -17891,17 +17891,17 @@
       </c>
       <c r="N31" s="47">
         <f t="shared" si="1"/>
-        <v>96.978800801260306</v>
+        <v>97.076935219784659</v>
       </c>
       <c r="O31" s="26">
         <f>N31*'EIOPA RATES'!G39</f>
-        <v>46.714894917730874</v>
-      </c>
-      <c r="Q31" s="102">
+        <v>46.762166476167366</v>
+      </c>
+      <c r="Q31" s="85">
         <f>B30*EXP('EIOPA RATES'!Q39)*(DATA!$C$14-DATA!$C$15)</f>
         <v>510.0920166285681</v>
       </c>
-      <c r="R31" s="104">
+      <c r="R31" s="87">
         <f>C30*EXP('EIOPA RATES'!Q39)*(DATA!$C$14-DATA!$C$15)</f>
         <v>127.52300415714203</v>
       </c>
@@ -17909,7 +17909,7 @@
         <f t="shared" si="2"/>
         <v>637.61502078571016</v>
       </c>
-      <c r="T31" s="100">
+      <c r="T31" s="83">
         <f t="shared" si="3"/>
         <v>2.998759924349967</v>
       </c>
@@ -17950,8 +17950,8 @@
         <v>0</v>
       </c>
       <c r="L32" s="60">
-        <f>D32*DATA!$C$15*G32*F32</f>
-        <v>3.2762694778555761</v>
+        <f>D31*EXP('EIOPA RATES'!Q40)*DATA!$C$15*G32*F32</f>
+        <v>3.3499687912633713</v>
       </c>
       <c r="M32" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A32)*'BASE CASE'!F32*'BASE CASE'!G32</f>
@@ -17959,17 +17959,17 @@
       </c>
       <c r="N32" s="47">
         <f t="shared" si="1"/>
-        <v>77.364339471515507</v>
+        <v>77.438038784923293</v>
       </c>
       <c r="O32" s="26">
         <f>N32*'EIOPA RATES'!G40</f>
-        <v>36.214773958371367</v>
-      </c>
-      <c r="Q32" s="102">
+        <v>36.24927310867993</v>
+      </c>
+      <c r="Q32" s="85">
         <f>B31*EXP('EIOPA RATES'!Q40)*(DATA!$C$14-DATA!$C$15)</f>
         <v>513.3587764398261</v>
       </c>
-      <c r="R32" s="104">
+      <c r="R32" s="87">
         <f>C31*EXP('EIOPA RATES'!Q40)*(DATA!$C$14-DATA!$C$15)</f>
         <v>128.33969410995653</v>
       </c>
@@ -17977,7 +17977,7 @@
         <f t="shared" si="2"/>
         <v>641.69847054978266</v>
       </c>
-      <c r="T32" s="100">
+      <c r="T32" s="83">
         <f t="shared" si="3"/>
         <v>2.2520798596728535</v>
       </c>
@@ -18018,8 +18018,8 @@
         <v>0</v>
       </c>
       <c r="L33" s="60">
-        <f>D33*DATA!$C$15*G33*F33</f>
-        <v>2.4158583003091616</v>
+        <f>D32*EXP('EIOPA RATES'!Q41)*DATA!$C$15*G33*F33</f>
+        <v>2.4702027610523127</v>
       </c>
       <c r="M33" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A33)*'BASE CASE'!F33*'BASE CASE'!G33</f>
@@ -18027,17 +18027,17 @@
       </c>
       <c r="N33" s="47">
         <f t="shared" si="1"/>
-        <v>60.715830096961753</v>
+        <v>60.770174557704905</v>
       </c>
       <c r="O33" s="26">
         <f>N33*'EIOPA RATES'!G41</f>
-        <v>27.614502752684444</v>
-      </c>
-      <c r="Q33" s="102">
+        <v>27.639219457675356</v>
+      </c>
+      <c r="Q33" s="85">
         <f>B32*EXP('EIOPA RATES'!Q41)*(DATA!$C$14-DATA!$C$15)</f>
         <v>516.73694398399039</v>
       </c>
-      <c r="R33" s="104">
+      <c r="R33" s="87">
         <f>C32*EXP('EIOPA RATES'!Q41)*(DATA!$C$14-DATA!$C$15)</f>
         <v>129.1842359959976</v>
       </c>
@@ -18045,7 +18045,7 @@
         <f t="shared" si="2"/>
         <v>645.92117997998798</v>
       </c>
-      <c r="T33" s="100">
+      <c r="T33" s="83">
         <f t="shared" si="3"/>
         <v>1.6606405116318064</v>
       </c>
@@ -18086,8 +18086,8 @@
         <v>0</v>
       </c>
       <c r="L34" s="60">
-        <f>D34*DATA!$C$15*G34*F34</f>
-        <v>1.7464164810710128</v>
+        <f>D33*EXP('EIOPA RATES'!Q42)*DATA!$C$15*G34*F34</f>
+        <v>1.7857019233854936</v>
       </c>
       <c r="M34" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A34)*'BASE CASE'!F34*'BASE CASE'!G34</f>
@@ -18095,17 +18095,17 @@
       </c>
       <c r="N34" s="47">
         <f t="shared" si="1"/>
-        <v>46.908056675651615</v>
+        <v>46.947342117966095</v>
       </c>
       <c r="O34" s="26">
         <f>N34*'EIOPA RATES'!G42</f>
-        <v>20.712606803313648</v>
-      </c>
-      <c r="Q34" s="102">
+        <v>20.729953587158917</v>
+      </c>
+      <c r="Q34" s="85">
         <f>B33*EXP('EIOPA RATES'!Q42)*(DATA!$C$14-DATA!$C$15)</f>
         <v>520.54267315245465</v>
       </c>
-      <c r="R34" s="104">
+      <c r="R34" s="87">
         <f>C33*EXP('EIOPA RATES'!Q42)*(DATA!$C$14-DATA!$C$15)</f>
         <v>130.13566828811366</v>
       </c>
@@ -18113,7 +18113,7 @@
         <f t="shared" si="2"/>
         <v>650.67834144056837</v>
       </c>
-      <c r="T34" s="100">
+      <c r="T34" s="83">
         <f t="shared" si="3"/>
         <v>1.2004718812675585</v>
       </c>
@@ -18154,8 +18154,8 @@
         <v>0</v>
       </c>
       <c r="L35" s="60">
-        <f>D35*DATA!$C$15*G35*F35</f>
-        <v>1.2340323961070838</v>
+        <f>D34*EXP('EIOPA RATES'!Q43)*DATA!$C$15*G35*F35</f>
+        <v>1.2617918160604129</v>
       </c>
       <c r="M35" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A35)*'BASE CASE'!F35*'BASE CASE'!G35</f>
@@ -18163,17 +18163,17 @@
       </c>
       <c r="N35" s="47">
         <f t="shared" si="1"/>
-        <v>35.543147699937954</v>
+        <v>35.570907119891288</v>
       </c>
       <c r="O35" s="26">
         <f>N35*'EIOPA RATES'!G43</f>
-        <v>15.238340549975968</v>
-      </c>
-      <c r="Q35" s="102">
+        <v>15.250241788951476</v>
+      </c>
+      <c r="Q35" s="85">
         <f>B34*EXP('EIOPA RATES'!Q43)*(DATA!$C$14-DATA!$C$15)</f>
         <v>524.32519088723791</v>
       </c>
-      <c r="R35" s="104">
+      <c r="R35" s="87">
         <f>C34*EXP('EIOPA RATES'!Q43)*(DATA!$C$14-DATA!$C$15)</f>
         <v>131.08129772180948</v>
       </c>
@@ -18181,7 +18181,7 @@
         <f t="shared" si="2"/>
         <v>655.40648860904741</v>
       </c>
-      <c r="T35" s="100">
+      <c r="T35" s="83">
         <f t="shared" si="3"/>
         <v>0.84826340575489922</v>
       </c>
@@ -18222,8 +18222,8 @@
         <v>0</v>
       </c>
       <c r="L36" s="60">
-        <f>D36*DATA!$C$15*G36*F36</f>
-        <v>0.85166829892823581</v>
+        <f>D35*EXP('EIOPA RATES'!Q44)*DATA!$C$15*G36*F36</f>
+        <v>0.8708264815217136</v>
       </c>
       <c r="M36" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A36)*'BASE CASE'!F36*'BASE CASE'!G36</f>
@@ -18231,17 +18231,17 @@
       </c>
       <c r="N36" s="47">
         <f t="shared" si="1"/>
-        <v>26.327593870857005</v>
+        <v>26.346752053450484</v>
       </c>
       <c r="O36" s="26">
         <f>N36*'EIOPA RATES'!G44</f>
-        <v>10.953764760497226</v>
-      </c>
-      <c r="Q36" s="102">
+        <v>10.961735645584447</v>
+      </c>
+      <c r="Q36" s="85">
         <f>B35*EXP('EIOPA RATES'!Q44)*(DATA!$C$14-DATA!$C$15)</f>
         <v>528.40768738218912</v>
       </c>
-      <c r="R36" s="104">
+      <c r="R36" s="87">
         <f>C35*EXP('EIOPA RATES'!Q44)*(DATA!$C$14-DATA!$C$15)</f>
         <v>132.10192184554728</v>
       </c>
@@ -18249,7 +18249,7 @@
         <f t="shared" si="2"/>
         <v>660.50960922773641</v>
       </c>
-      <c r="T36" s="100">
+      <c r="T36" s="83">
         <f t="shared" si="3"/>
         <v>0.58542956740955521</v>
       </c>
@@ -18290,8 +18290,8 @@
         <v>0</v>
       </c>
       <c r="L37" s="60">
-        <f>D37*DATA!$C$15*G37*F37</f>
-        <v>0.57421484480516771</v>
+        <f>D36*EXP('EIOPA RATES'!Q45)*DATA!$C$15*G37*F37</f>
+        <v>0.58713174315456829</v>
       </c>
       <c r="M37" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A37)*'BASE CASE'!F37*'BASE CASE'!G37</f>
@@ -18299,17 +18299,17 @@
       </c>
       <c r="N37" s="47">
         <f t="shared" si="1"/>
-        <v>18.982216609028264</v>
+        <v>18.995133507377663</v>
       </c>
       <c r="O37" s="26">
         <f>N37*'EIOPA RATES'!G45</f>
-        <v>7.6600740769476783</v>
-      </c>
-      <c r="Q37" s="102">
+        <v>7.6652865555658893</v>
+      </c>
+      <c r="Q37" s="85">
         <f>B36*EXP('EIOPA RATES'!Q45)*(DATA!$C$14-DATA!$C$15)</f>
         <v>532.81222072374385</v>
       </c>
-      <c r="R37" s="104">
+      <c r="R37" s="87">
         <f>C36*EXP('EIOPA RATES'!Q45)*(DATA!$C$14-DATA!$C$15)</f>
         <v>133.20305518093596</v>
       </c>
@@ -18317,7 +18317,7 @@
         <f t="shared" si="2"/>
         <v>666.01527590467981</v>
       </c>
-      <c r="T37" s="100">
+      <c r="T37" s="83">
         <f t="shared" si="3"/>
         <v>0.39471041556609632</v>
       </c>
@@ -18358,8 +18358,8 @@
         <v>0</v>
       </c>
       <c r="L38" s="60">
-        <f>D38*DATA!$C$15*G38*F38</f>
-        <v>0.37559681714700149</v>
+        <f>D37*EXP('EIOPA RATES'!Q46)*DATA!$C$15*G38*F38</f>
+        <v>0.38404582530368253</v>
       </c>
       <c r="M38" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A38)*'BASE CASE'!F38*'BASE CASE'!G38</f>
@@ -18367,17 +18367,17 @@
       </c>
       <c r="N38" s="47">
         <f t="shared" si="1"/>
-        <v>13.461903958882212</v>
+        <v>13.470352967038892</v>
       </c>
       <c r="O38" s="26">
         <f>N38*'EIOPA RATES'!G46</f>
-        <v>5.2695440133904166</v>
-      </c>
-      <c r="Q38" s="102">
+        <v>5.2728513033909321</v>
+      </c>
+      <c r="Q38" s="85">
         <f>B37*EXP('EIOPA RATES'!Q46)*(DATA!$C$14-DATA!$C$15)</f>
         <v>537.19570082991515</v>
       </c>
-      <c r="R38" s="104">
+      <c r="R38" s="87">
         <f>C37*EXP('EIOPA RATES'!Q46)*(DATA!$C$14-DATA!$C$15)</f>
         <v>134.29892520747879</v>
       </c>
@@ -18385,7 +18385,7 @@
         <f t="shared" si="2"/>
         <v>671.49462603739391</v>
       </c>
-      <c r="T38" s="100">
+      <c r="T38" s="83">
         <f t="shared" si="3"/>
         <v>0.25818206743104699</v>
       </c>
@@ -18426,8 +18426,8 @@
         <v>0</v>
       </c>
       <c r="L39" s="60">
-        <f>D39*DATA!$C$15*G39*F39</f>
-        <v>0.23927610657228504</v>
+        <f>D38*EXP('EIOPA RATES'!Q47)*DATA!$C$15*G39*F39</f>
+        <v>0.24465859567718307</v>
       </c>
       <c r="M39" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A39)*'BASE CASE'!F39*'BASE CASE'!G39</f>
@@ -18435,17 +18435,17 @@
       </c>
       <c r="N39" s="47">
         <f t="shared" si="1"/>
-        <v>9.180400931393919</v>
+        <v>9.1857834204988169</v>
       </c>
       <c r="O39" s="26">
         <f>N39*'EIOPA RATES'!G47</f>
-        <v>3.4851049145099622</v>
-      </c>
-      <c r="Q39" s="102">
+        <v>3.4871482391285666</v>
+      </c>
+      <c r="Q39" s="85">
         <f>B38*EXP('EIOPA RATES'!Q47)*(DATA!$C$14-DATA!$C$15)</f>
         <v>541.73104374692946</v>
       </c>
-      <c r="R39" s="104">
+      <c r="R39" s="87">
         <f>C38*EXP('EIOPA RATES'!Q47)*(DATA!$C$14-DATA!$C$15)</f>
         <v>135.43276093673236</v>
       </c>
@@ -18453,7 +18453,7 @@
         <f t="shared" si="2"/>
         <v>677.16380468366185</v>
       </c>
-      <c r="T39" s="100">
+      <c r="T39" s="83">
         <f t="shared" si="3"/>
         <v>0.1644763668418037</v>
       </c>
@@ -18494,8 +18494,8 @@
         <v>0</v>
       </c>
       <c r="L40" s="60">
-        <f>D40*DATA!$C$15*G40*F40</f>
-        <v>0.14810798138039363</v>
+        <f>D39*EXP('EIOPA RATES'!Q48)*DATA!$C$15*G40*F40</f>
+        <v>0.15143965376318369</v>
       </c>
       <c r="M40" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A40)*'BASE CASE'!F40*'BASE CASE'!G40</f>
@@ -18503,17 +18503,17 @@
       </c>
       <c r="N40" s="47">
         <f t="shared" si="1"/>
-        <v>6.1013838603199639</v>
+        <v>6.1047155327027545</v>
       </c>
       <c r="O40" s="26">
         <f>N40*'EIOPA RATES'!G48</f>
-        <v>2.2458326306097445</v>
-      </c>
-      <c r="Q40" s="102">
+        <v>2.2470589718338121</v>
+      </c>
+      <c r="Q40" s="85">
         <f>B39*EXP('EIOPA RATES'!Q48)*(DATA!$C$14-DATA!$C$15)</f>
         <v>546.42146038328121</v>
       </c>
-      <c r="R40" s="104">
+      <c r="R40" s="87">
         <f>C39*EXP('EIOPA RATES'!Q48)*(DATA!$C$14-DATA!$C$15)</f>
         <v>136.6053650958203</v>
       </c>
@@ -18521,7 +18521,7 @@
         <f t="shared" si="2"/>
         <v>683.02682547910149</v>
       </c>
-      <c r="T40" s="100">
+      <c r="T40" s="83">
         <f t="shared" si="3"/>
         <v>0.10180817059709824</v>
       </c>
@@ -18562,8 +18562,8 @@
         <v>0</v>
       </c>
       <c r="L41" s="60">
-        <f>D41*DATA!$C$15*G41*F41</f>
-        <v>8.9024453735692441E-2</v>
+        <f>D40*EXP('EIOPA RATES'!Q49)*DATA!$C$15*G41*F41</f>
+        <v>9.1027048809501451E-2</v>
       </c>
       <c r="M41" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A41)*'BASE CASE'!F41*'BASE CASE'!G41</f>
@@ -18571,17 +18571,17 @@
       </c>
       <c r="N41" s="47">
         <f t="shared" si="1"/>
-        <v>3.931802297813185</v>
+        <v>3.933804892886994</v>
       </c>
       <c r="O41" s="26">
         <f>N41*'EIOPA RATES'!G49</f>
-        <v>1.4029517240470999</v>
-      </c>
-      <c r="Q41" s="102">
+        <v>1.4036662930916655</v>
+      </c>
+      <c r="Q41" s="85">
         <f>B40*EXP('EIOPA RATES'!Q49)*(DATA!$C$14-DATA!$C$15)</f>
         <v>551.27028850852037</v>
       </c>
-      <c r="R41" s="104">
+      <c r="R41" s="87">
         <f>C40*EXP('EIOPA RATES'!Q49)*(DATA!$C$14-DATA!$C$15)</f>
         <v>137.81757212713009</v>
       </c>
@@ -18589,7 +18589,7 @@
         <f t="shared" si="2"/>
         <v>689.08786063565049</v>
       </c>
-      <c r="T41" s="100">
+      <c r="T41" s="83">
         <f t="shared" si="3"/>
         <v>6.1194654661849715E-2</v>
       </c>
@@ -18630,8 +18630,8 @@
         <v>0</v>
       </c>
       <c r="L42" s="60">
-        <f>D42*DATA!$C$15*G42*F42</f>
-        <v>5.1821997410255338E-2</v>
+        <f>D41*EXP('EIOPA RATES'!Q50)*DATA!$C$15*G42*F42</f>
+        <v>5.298772741334902E-2</v>
       </c>
       <c r="M42" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A42)*'BASE CASE'!F42*'BASE CASE'!G42</f>
@@ -18639,17 +18639,17 @@
       </c>
       <c r="N42" s="47">
         <f t="shared" si="1"/>
-        <v>2.4620344084756001</v>
+        <v>2.4632001384786939</v>
       </c>
       <c r="O42" s="26">
         <f>N42*'EIOPA RATES'!G50</f>
-        <v>0.85144066825007203</v>
-      </c>
-      <c r="Q42" s="102">
+        <v>0.85184381043582558</v>
+      </c>
+      <c r="Q42" s="85">
         <f>B41*EXP('EIOPA RATES'!Q50)*(DATA!$C$14-DATA!$C$15)</f>
         <v>556.28099668581945</v>
       </c>
-      <c r="R42" s="104">
+      <c r="R42" s="87">
         <f>C41*EXP('EIOPA RATES'!Q50)*(DATA!$C$14-DATA!$C$15)</f>
         <v>139.07024917145486</v>
       </c>
@@ -18657,7 +18657,7 @@
         <f t="shared" si="2"/>
         <v>695.35124585727431</v>
       </c>
-      <c r="T42" s="100">
+      <c r="T42" s="83">
         <f t="shared" si="3"/>
         <v>3.5622001622419512E-2</v>
       </c>
@@ -18698,8 +18698,8 @@
         <v>0</v>
       </c>
       <c r="L43" s="60">
-        <f>D43*DATA!$C$15*G43*F43</f>
-        <v>2.9149358525655082E-2</v>
+        <f>D42*EXP('EIOPA RATES'!Q51)*DATA!$C$15*G43*F43</f>
+        <v>2.9805070067131983E-2</v>
       </c>
       <c r="M43" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A43)*'BASE CASE'!F43*'BASE CASE'!G43</f>
@@ -18707,17 +18707,17 @@
       </c>
       <c r="N43" s="47">
         <f t="shared" si="1"/>
-        <v>1.4925834663292183</v>
+        <v>1.4932391778706953</v>
       </c>
       <c r="O43" s="26">
         <f>N43*'EIOPA RATES'!G51</f>
-        <v>0.50016734120383244</v>
-      </c>
-      <c r="Q43" s="102">
+        <v>0.50038707129310089</v>
+      </c>
+      <c r="Q43" s="85">
         <f>B42*EXP('EIOPA RATES'!Q51)*(DATA!$C$14-DATA!$C$15)</f>
         <v>561.45718837824779</v>
       </c>
-      <c r="R43" s="104">
+      <c r="R43" s="87">
         <f>C42*EXP('EIOPA RATES'!Q51)*(DATA!$C$14-DATA!$C$15)</f>
         <v>140.36429709456195</v>
       </c>
@@ -18725,7 +18725,7 @@
         <f t="shared" si="2"/>
         <v>701.82148547280974</v>
       </c>
-      <c r="T43" s="100">
+      <c r="T43" s="83">
         <f t="shared" si="3"/>
         <v>2.0037021893870237E-2</v>
       </c>
@@ -18766,8 +18766,8 @@
         <v>0</v>
       </c>
       <c r="L44" s="60">
-        <f>D44*DATA!$C$15*G44*F44</f>
-        <v>1.5635084359611699E-2</v>
+        <f>D43*EXP('EIOPA RATES'!Q52)*DATA!$C$15*G44*F44</f>
+        <v>1.5986793823733844E-2</v>
       </c>
       <c r="M44" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A44)*'BASE CASE'!F44*'BASE CASE'!G44</f>
@@ -18775,17 +18775,17 @@
       </c>
       <c r="N44" s="47">
         <f t="shared" si="1"/>
-        <v>0.88319360545988679</v>
+        <v>0.8835453149240089</v>
       </c>
       <c r="O44" s="26">
         <f>N44*'EIOPA RATES'!G52</f>
-        <v>0.28683327061704156</v>
-      </c>
-      <c r="Q44" s="102">
+        <v>0.28694749469574582</v>
+      </c>
+      <c r="Q44" s="85">
         <f>B43*EXP('EIOPA RATES'!Q52)*(DATA!$C$14-DATA!$C$15)</f>
         <v>566.57655123128723</v>
       </c>
-      <c r="R44" s="104">
+      <c r="R44" s="87">
         <f>C43*EXP('EIOPA RATES'!Q52)*(DATA!$C$14-DATA!$C$15)</f>
         <v>141.64413780782181</v>
       </c>
@@ -18793,7 +18793,7 @@
         <f t="shared" si="2"/>
         <v>708.22068903910906</v>
       </c>
-      <c r="T44" s="100">
+      <c r="T44" s="83">
         <f t="shared" si="3"/>
         <v>1.074742441931687E-2</v>
       </c>
@@ -18834,8 +18834,8 @@
         <v>0</v>
       </c>
       <c r="L45" s="60">
-        <f>D45*DATA!$C$15*G45*F45</f>
-        <v>7.9262250166154159E-3</v>
+        <f>D44*EXP('EIOPA RATES'!Q53)*DATA!$C$15*G45*F45</f>
+        <v>8.1045245568664766E-3</v>
       </c>
       <c r="M45" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A45)*'BASE CASE'!F45*'BASE CASE'!G45</f>
@@ -18843,17 +18843,17 @@
       </c>
       <c r="N45" s="47">
         <f t="shared" si="1"/>
-        <v>0.50087510352507614</v>
+        <v>0.5010534030653272</v>
       </c>
       <c r="O45" s="26">
         <f>N45*'EIOPA RATES'!G53</f>
-        <v>0.15755716896093624</v>
-      </c>
-      <c r="Q45" s="102">
+        <v>0.15761325553938921</v>
+      </c>
+      <c r="Q45" s="85">
         <f>B44*EXP('EIOPA RATES'!Q53)*(DATA!$C$14-DATA!$C$15)</f>
         <v>572.08733957286222</v>
       </c>
-      <c r="R45" s="104">
+      <c r="R45" s="87">
         <f>C44*EXP('EIOPA RATES'!Q53)*(DATA!$C$14-DATA!$C$15)</f>
         <v>143.02183489321555</v>
       </c>
@@ -18861,7 +18861,7 @@
         <f t="shared" si="2"/>
         <v>715.10917446607777</v>
       </c>
-      <c r="T45" s="100">
+      <c r="T45" s="83">
         <f t="shared" si="3"/>
         <v>5.4484198701623366E-3</v>
       </c>
@@ -18902,8 +18902,8 @@
         <v>0</v>
       </c>
       <c r="L46" s="60">
-        <f>D46*DATA!$C$15*G46*F46</f>
-        <v>3.7853552794604524E-3</v>
+        <f>D45*EXP('EIOPA RATES'!Q54)*DATA!$C$15*G46*F46</f>
+        <v>3.870506420716209E-3</v>
       </c>
       <c r="M46" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A46)*'BASE CASE'!F46*'BASE CASE'!G46</f>
@@ -18911,17 +18911,17 @@
       </c>
       <c r="N46" s="47">
         <f t="shared" si="1"/>
-        <v>0.26726733351680731</v>
+        <v>0.26735248465806311</v>
       </c>
       <c r="O46" s="26">
         <f>N46*'EIOPA RATES'!G54</f>
-        <v>8.1447664162151101E-2</v>
-      </c>
-      <c r="Q46" s="102">
+        <v>8.1473613317495933E-2</v>
+      </c>
+      <c r="Q46" s="85">
         <f>B45*EXP('EIOPA RATES'!Q54)*(DATA!$C$14-DATA!$C$15)</f>
         <v>577.53347540376308</v>
       </c>
-      <c r="R46" s="104">
+      <c r="R46" s="87">
         <f>C45*EXP('EIOPA RATES'!Q54)*(DATA!$C$14-DATA!$C$15)</f>
         <v>144.38336885094077</v>
       </c>
@@ -18929,7 +18929,7 @@
         <f t="shared" si="2"/>
         <v>721.91684425470385</v>
       </c>
-      <c r="T46" s="100">
+      <c r="T46" s="83">
         <f t="shared" si="3"/>
         <v>2.6020211231705601E-3</v>
       </c>
@@ -18970,8 +18970,8 @@
         <v>0</v>
       </c>
       <c r="L47" s="60">
-        <f>D47*DATA!$C$15*G47*F47</f>
-        <v>1.6970403539155307E-3</v>
+        <f>D46*EXP('EIOPA RATES'!Q55)*DATA!$C$15*G47*F47</f>
+        <v>1.7352150858032009E-3</v>
       </c>
       <c r="M47" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A47)*'BASE CASE'!F47*'BASE CASE'!G47</f>
@@ -18979,17 +18979,17 @@
       </c>
       <c r="N47" s="47">
         <f t="shared" si="1"/>
-        <v>0.13398106306756002</v>
+        <v>0.13401923779944772</v>
       </c>
       <c r="O47" s="26">
         <f>N47*'EIOPA RATES'!G55</f>
-        <v>3.9564141913022856E-2</v>
-      </c>
-      <c r="Q47" s="102">
+        <v>3.9575414778570538E-2</v>
+      </c>
+      <c r="Q47" s="85">
         <f>B46*EXP('EIOPA RATES'!Q55)*(DATA!$C$14-DATA!$C$15)</f>
         <v>582.89514528361326</v>
       </c>
-      <c r="R47" s="104">
+      <c r="R47" s="87">
         <f>C46*EXP('EIOPA RATES'!Q55)*(DATA!$C$14-DATA!$C$15)</f>
         <v>145.72378632090332</v>
       </c>
@@ -18997,7 +18997,7 @@
         <f t="shared" si="2"/>
         <v>728.61893160451655</v>
       </c>
-      <c r="T47" s="100">
+      <c r="T47" s="83">
         <f t="shared" si="3"/>
         <v>1.1665311501197989E-3</v>
       </c>
@@ -19038,8 +19038,8 @@
         <v>0</v>
       </c>
       <c r="L48" s="60">
-        <f>D48*DATA!$C$15*G48*F48</f>
-        <v>7.1039911024418315E-4</v>
+        <f>D47*EXP('EIOPA RATES'!Q56)*DATA!$C$15*G48*F48</f>
+        <v>7.2637945832738557E-4</v>
       </c>
       <c r="M48" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A48)*'BASE CASE'!F48*'BASE CASE'!G48</f>
@@ -19047,17 +19047,17 @@
       </c>
       <c r="N48" s="47">
         <f t="shared" si="1"/>
-        <v>6.304096324453437E-2</v>
+        <v>6.305694359261757E-2</v>
       </c>
       <c r="O48" s="26">
         <f>N48*'EIOPA RATES'!G56</f>
-        <v>1.8027719411088796E-2</v>
-      </c>
-      <c r="Q48" s="102">
+        <v>1.8032289284652087E-2</v>
+      </c>
+      <c r="Q48" s="85">
         <f>B47*EXP('EIOPA RATES'!Q56)*(DATA!$C$14-DATA!$C$15)</f>
         <v>588.66697920111062</v>
       </c>
-      <c r="R48" s="104">
+      <c r="R48" s="87">
         <f>C47*EXP('EIOPA RATES'!Q56)*(DATA!$C$14-DATA!$C$15)</f>
         <v>147.16674480027766</v>
       </c>
@@ -19065,7 +19065,7 @@
         <f t="shared" si="2"/>
         <v>735.8337240013883</v>
       </c>
-      <c r="T48" s="100">
+      <c r="T48" s="83">
         <f t="shared" si="3"/>
         <v>4.8832232492597341E-4</v>
       </c>
@@ -19106,8 +19106,8 @@
         <v>0</v>
       </c>
       <c r="L49" s="60">
-        <f>D49*DATA!$C$15*G49*F49</f>
-        <v>2.7782159184002418E-4</v>
+        <f>D48*EXP('EIOPA RATES'!Q57)*DATA!$C$15*G49*F49</f>
+        <v>2.8407115730063828E-4</v>
       </c>
       <c r="M49" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A49)*'BASE CASE'!F49*'BASE CASE'!G49</f>
@@ -19115,17 +19115,17 @@
       </c>
       <c r="N49" s="47">
         <f t="shared" si="1"/>
-        <v>2.7508055023230324E-2</v>
+        <v>2.751430458869094E-2</v>
       </c>
       <c r="O49" s="26">
         <f>N49*'EIOPA RATES'!G57</f>
-        <v>7.6198678122937173E-3</v>
-      </c>
-      <c r="Q49" s="102">
+        <v>7.6215989729538931E-3</v>
+      </c>
+      <c r="Q49" s="85">
         <f>B48*EXP('EIOPA RATES'!Q57)*(DATA!$C$14-DATA!$C$15)</f>
         <v>594.34542827579469</v>
       </c>
-      <c r="R49" s="104">
+      <c r="R49" s="87">
         <f>C48*EXP('EIOPA RATES'!Q57)*(DATA!$C$14-DATA!$C$15)</f>
         <v>148.58635706894867</v>
       </c>
@@ -19133,7 +19133,7 @@
         <f t="shared" si="2"/>
         <v>742.93178534474339</v>
       </c>
-      <c r="T49" s="100">
+      <c r="T49" s="83">
         <f t="shared" si="3"/>
         <v>1.9097220658866433E-4</v>
       </c>
@@ -19174,8 +19174,8 @@
         <v>0</v>
       </c>
       <c r="L50" s="60">
-        <f>D50*DATA!$C$15*G50*F50</f>
-        <v>9.9361651028956506E-5</v>
+        <f>D49*EXP('EIOPA RATES'!Q58)*DATA!$C$15*G50*F50</f>
+        <v>1.0159678019320706E-4</v>
       </c>
       <c r="M50" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A50)*'BASE CASE'!F50*'BASE CASE'!G50</f>
@@ -19183,17 +19183,17 @@
       </c>
       <c r="N50" s="47">
         <f t="shared" si="1"/>
-        <v>1.1297105364082068E-2</v>
+        <v>1.129934049324632E-2</v>
       </c>
       <c r="O50" s="26">
         <f>N50*'EIOPA RATES'!G58</f>
-        <v>3.0307385085494697E-3</v>
-      </c>
-      <c r="Q50" s="102">
+        <v>3.0313381393231383E-3</v>
+      </c>
+      <c r="Q50" s="85">
         <f>B49*EXP('EIOPA RATES'!Q58)*(DATA!$C$14-DATA!$C$15)</f>
         <v>600.18349247417552</v>
       </c>
-      <c r="R50" s="104">
+      <c r="R50" s="87">
         <f>C49*EXP('EIOPA RATES'!Q58)*(DATA!$C$14-DATA!$C$15)</f>
         <v>150.04587311854388</v>
       </c>
@@ -19201,7 +19201,7 @@
         <f t="shared" si="2"/>
         <v>750.22936559271943</v>
       </c>
-      <c r="T50" s="100">
+      <c r="T50" s="83">
         <f t="shared" si="3"/>
         <v>6.8300356432408104E-5</v>
       </c>
@@ -19242,8 +19242,8 @@
         <v>0</v>
       </c>
       <c r="L51" s="60">
-        <f>D51*DATA!$C$15*G51*F51</f>
-        <v>3.4120759909305564E-5</v>
+        <f>D50*EXP('EIOPA RATES'!Q59)*DATA!$C$15*G51*F51</f>
+        <v>3.4888302565752111E-5</v>
       </c>
       <c r="M51" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A51)*'BASE CASE'!F51*'BASE CASE'!G51</f>
@@ -19251,17 +19251,17 @@
       </c>
       <c r="N51" s="47">
         <f t="shared" si="1"/>
-        <v>4.1231731785702419E-3</v>
+        <v>4.1239407212266882E-3</v>
       </c>
       <c r="O51" s="26">
         <f>N51*'EIOPA RATES'!G59</f>
-        <v>1.0711017780372567E-3</v>
-      </c>
-      <c r="Q51" s="102">
+        <v>1.0713011672621169E-3</v>
+      </c>
+      <c r="Q51" s="85">
         <f>B50*EXP('EIOPA RATES'!Q59)*(DATA!$C$14-DATA!$C$15)</f>
         <v>606.18477569710365</v>
       </c>
-      <c r="R51" s="104">
+      <c r="R51" s="87">
         <f>C50*EXP('EIOPA RATES'!Q59)*(DATA!$C$14-DATA!$C$15)</f>
         <v>151.54619392427591</v>
       </c>
@@ -19269,7 +19269,7 @@
         <f t="shared" si="2"/>
         <v>757.73096962137959</v>
       </c>
-      <c r="T51" s="100">
+      <c r="T51" s="83">
         <f t="shared" si="3"/>
         <v>2.3454321052606452E-5</v>
       </c>
@@ -19310,8 +19310,8 @@
         <v>0</v>
       </c>
       <c r="L52" s="60">
-        <f>D52*DATA!$C$15*G52*F52</f>
-        <v>9.7612693930889083E-6</v>
+        <f>D51*EXP('EIOPA RATES'!Q60)*DATA!$C$15*G52*F52</f>
+        <v>9.9808480501931572E-6</v>
       </c>
       <c r="M52" s="47">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A52)*'BASE CASE'!F52*'BASE CASE'!G52</f>
@@ -19319,17 +19319,17 @@
       </c>
       <c r="N52" s="47">
         <f t="shared" si="1"/>
-        <v>1.5281836728033025E-3</v>
+        <v>1.5284032514604068E-3</v>
       </c>
       <c r="O52" s="26">
         <f>N52*'EIOPA RATES'!G60</f>
-        <v>3.8452416826556811E-4</v>
-      </c>
-      <c r="Q52" s="102">
+        <v>3.8457941901977685E-4</v>
+      </c>
+      <c r="Q52" s="85">
         <f>B51*EXP('EIOPA RATES'!Q60)*(DATA!$C$14-DATA!$C$15)</f>
         <v>612.06135260519977</v>
       </c>
-      <c r="R52" s="104">
+      <c r="R52" s="87">
         <f>C51*EXP('EIOPA RATES'!Q60)*(DATA!$C$14-DATA!$C$15)</f>
         <v>153.01533815129994</v>
       </c>
@@ -19337,7 +19337,7 @@
         <f t="shared" si="2"/>
         <v>765.07669075649972</v>
       </c>
-      <c r="T52" s="100">
+      <c r="T52" s="83">
         <f t="shared" si="3"/>
         <v>6.7098138152559026E-6</v>
       </c>
@@ -19354,7 +19354,7 @@
         <f>$C52*EXP('EIOPA RATES'!Q61)*(1-DATA!$C$14)</f>
         <v>18890.401819089639</v>
       </c>
-      <c r="D53" s="94">
+      <c r="D53" s="77">
         <f t="shared" si="0"/>
         <v>94452.009095448186</v>
       </c>
@@ -19366,7 +19366,7 @@
         <f>(1-DATA!$C$12)*'BASE CASE'!$G52</f>
         <v>2.957646637126988E-4</v>
       </c>
-      <c r="I53" s="95">
+      <c r="I53" s="78">
         <f>(D53-DATA!$C$11*((1+DATA!$C$10)^'BASE CASE'!A53))*'BASE CASE'!F53*G52*DATA!$C$12</f>
         <v>5.2777558618500666E-5</v>
       </c>
@@ -19378,9 +19378,9 @@
         <f>G53*F53*D53</f>
         <v>2.9924338225575763E-4</v>
       </c>
-      <c r="L53" s="96">
-        <f>D53*DATA!$C$15*G53*F53</f>
-        <v>4.1894073515806065E-6</v>
+      <c r="L53" s="79">
+        <f>D52*EXP('EIOPA RATES'!Q61)*DATA!$C$15*G53*F53</f>
+        <v>4.2836475987531775E-6</v>
       </c>
       <c r="M53" s="48">
         <f>DATA!$C$13*((1+DATA!$C$10)^'BASE CASE'!A53)*'BASE CASE'!F53*'BASE CASE'!G53</f>
@@ -19388,25 +19388,25 @@
       </c>
       <c r="N53" s="48">
         <f t="shared" si="1"/>
-        <v>6.558801056922313E-4</v>
-      </c>
-      <c r="O53" s="94">
+        <v>6.5597434593940389E-4</v>
+      </c>
+      <c r="O53" s="77">
         <f>N53*'EIOPA RATES'!G61</f>
-        <v>1.5982843136971598E-4</v>
-      </c>
-      <c r="Q53" s="103">
+        <v>1.5985139634570284E-4</v>
+      </c>
+      <c r="Q53" s="86">
         <f>B52*EXP('EIOPA RATES'!Q61)*(DATA!$C$14-DATA!$C$15)</f>
         <v>618.09085706632754</v>
       </c>
-      <c r="R53" s="105">
+      <c r="R53" s="88">
         <f>C52*EXP('EIOPA RATES'!Q61)*(DATA!$C$14-DATA!$C$15)</f>
         <v>154.52271426658189</v>
       </c>
-      <c r="S53" s="96">
+      <c r="S53" s="79">
         <f t="shared" si="2"/>
         <v>772.61357133290949</v>
       </c>
-      <c r="T53" s="101">
+      <c r="T53" s="84">
         <f t="shared" si="3"/>
         <v>2.8797630915987744E-6</v>
       </c>

--- a/insurance/GROUP_04_SII_project.xlsx
+++ b/insurance/GROUP_04_SII_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\PoliMi\Magistrale\Insurance&amp;Econometrics\Econometrics\Labs\Project\econometric-insurance\insurance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F338EE4-4869-400B-B0BE-EFAF81F80122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD583DA-DD10-4BFB-AFA6-704465AC4B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15764,8 +15764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD73126-F20D-45CA-BC7D-AAAD6494E8F5}">
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="V52" sqref="V52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15931,7 +15931,7 @@
       </c>
       <c r="X3" s="70">
         <f>SUM(O4:O53)</f>
-        <v>65590.207345565766</v>
+        <v>66208.733538818298</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
@@ -15963,8 +15963,8 @@
         <v>10423.766275688666</v>
       </c>
       <c r="J4" s="47">
-        <f>MAX(D4,DATA!$C$4)*F3*(1-'MORTALITY RATES MALE'!B64/'MORTALITY RATES MALE'!B63)*G4</f>
-        <v>353.73417314737446</v>
+        <f>MAX(D4,DATA!$C$4)*F3*(1-'MORTALITY RATES MALE'!B64/'MORTALITY RATES MALE'!B63)*G3</f>
+        <v>416.15785076161706</v>
       </c>
       <c r="K4" s="47">
         <v>0</v>
@@ -15979,11 +15979,11 @@
       </c>
       <c r="N4" s="47">
         <f t="shared" ref="N4:N53" si="1">SUM(I4:M4)</f>
-        <v>11666.393792950703</v>
+        <v>11728.817470564945</v>
       </c>
       <c r="O4" s="26">
         <f>N4*'EIOPA RATES'!G12</f>
-        <v>11421.516479627491</v>
+        <v>11482.629885813114</v>
       </c>
       <c r="Q4" s="85">
         <f>B3*EXP('EIOPA RATES'!Q12)*(DATA!$C$14-DATA!$C$15)</f>
@@ -16037,8 +16037,8 @@
         <v>8784.5577347697981</v>
       </c>
       <c r="J5" s="47">
-        <f>MAX(D5,DATA!$C$4)*F4*(1-'MORTALITY RATES MALE'!B65/'MORTALITY RATES MALE'!B64)*G5</f>
-        <v>325.59477901321827</v>
+        <f>MAX(D5,DATA!$C$4)*F4*(1-'MORTALITY RATES MALE'!B65/'MORTALITY RATES MALE'!B64)*G4</f>
+        <v>383.05268119202151</v>
       </c>
       <c r="K5" s="47">
         <v>0</v>
@@ -16053,11 +16053,11 @@
       </c>
       <c r="N5" s="47">
         <f t="shared" si="1"/>
-        <v>9860.0692187438835</v>
+        <v>9917.5271209226867</v>
       </c>
       <c r="O5" s="26">
         <f>N5*'EIOPA RATES'!G13</f>
-        <v>9460.3030354785442</v>
+        <v>9515.4313671702766</v>
       </c>
       <c r="Q5" s="85">
         <f>B4*EXP('EIOPA RATES'!Q13)*(DATA!$C$14-DATA!$C$15)</f>
@@ -16112,8 +16112,8 @@
         <v>7417.4179453588613</v>
       </c>
       <c r="J6" s="47">
-        <f>MAX(D6,DATA!$C$4)*F5*(1-'MORTALITY RATES MALE'!B66/'MORTALITY RATES MALE'!B65)*G6</f>
-        <v>299.78015135934243</v>
+        <f>MAX(D6,DATA!$C$4)*F5*(1-'MORTALITY RATES MALE'!B66/'MORTALITY RATES MALE'!B65)*G5</f>
+        <v>352.68253101099106</v>
       </c>
       <c r="K6" s="47">
         <v>0</v>
@@ -16128,11 +16128,11 @@
       </c>
       <c r="N6" s="47">
         <f t="shared" si="1"/>
-        <v>8351.021617962444</v>
+        <v>8403.9239976140925</v>
       </c>
       <c r="O6" s="26">
         <f>N6*'EIOPA RATES'!G14</f>
-        <v>7832.6678180217368</v>
+        <v>7882.2865096681535</v>
       </c>
       <c r="Q6" s="85">
         <f>B5*EXP('EIOPA RATES'!Q14)*(DATA!$C$14-DATA!$C$15)</f>
@@ -16155,7 +16155,7 @@
       </c>
       <c r="X6" s="71">
         <f>SUMPRODUCT(J4:J53,'EIOPA RATES'!G12:G61)</f>
-        <v>3504.9817617644012</v>
+        <v>4123.5079550169412</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
@@ -16187,8 +16187,8 @@
         <v>6269.5250674659756</v>
       </c>
       <c r="J7" s="47">
-        <f>MAX(D7,DATA!$C$4)*F6*(1-'MORTALITY RATES MALE'!B67/'MORTALITY RATES MALE'!B66)*G7</f>
-        <v>280.25529971934935</v>
+        <f>MAX(D7,DATA!$C$4)*F6*(1-'MORTALITY RATES MALE'!B67/'MORTALITY RATES MALE'!B66)*G6</f>
+        <v>329.71211731688163</v>
       </c>
       <c r="K7" s="47">
         <v>0</v>
@@ -16203,11 +16203,11 @@
       </c>
       <c r="N7" s="47">
         <f t="shared" si="1"/>
-        <v>7085.9969252318333</v>
+        <v>7135.4537428293652</v>
       </c>
       <c r="O7" s="26">
         <f>N7*'EIOPA RATES'!G15</f>
-        <v>6485.3674505791278</v>
+        <v>6530.6321661076026</v>
       </c>
       <c r="Q7" s="85">
         <f>B6*EXP('EIOPA RATES'!Q15)*(DATA!$C$14-DATA!$C$15)</f>
@@ -16262,8 +16262,8 @@
         <v>5302.3699125950325</v>
       </c>
       <c r="J8" s="47">
-        <f>MAX(D8,DATA!$C$4)*F7*(1-'MORTALITY RATES MALE'!B68/'MORTALITY RATES MALE'!B67)*G8</f>
-        <v>260.67632406567043</v>
+        <f>MAX(D8,DATA!$C$4)*F7*(1-'MORTALITY RATES MALE'!B68/'MORTALITY RATES MALE'!B67)*G7</f>
+        <v>306.67802831255347</v>
       </c>
       <c r="K8" s="47">
         <v>0</v>
@@ -16278,11 +16278,11 @@
       </c>
       <c r="N8" s="47">
         <f t="shared" si="1"/>
-        <v>6016.9262047359734</v>
+        <v>6062.9279089828569</v>
       </c>
       <c r="O8" s="26">
         <f>N8*'EIOPA RATES'!G16</f>
-        <v>5366.3394680007941</v>
+        <v>5407.3671875864256</v>
       </c>
       <c r="Q8" s="85">
         <f>B7*EXP('EIOPA RATES'!Q16)*(DATA!$C$14-DATA!$C$15)</f>
@@ -16337,8 +16337,8 @@
         <v>4483.7007893061509</v>
       </c>
       <c r="J9" s="47">
-        <f>MAX(D9,DATA!$C$4)*F8*(1-'MORTALITY RATES MALE'!B69/'MORTALITY RATES MALE'!B68)*G9</f>
-        <v>244.49184561024279</v>
+        <f>MAX(D9,DATA!$C$4)*F8*(1-'MORTALITY RATES MALE'!B69/'MORTALITY RATES MALE'!B68)*G8</f>
+        <v>287.63746542381506</v>
       </c>
       <c r="K9" s="47">
         <v>0</v>
@@ -16353,11 +16353,11 @@
       </c>
       <c r="N9" s="47">
         <f t="shared" si="1"/>
-        <v>5112.3071207174416</v>
+        <v>5155.4527405310137</v>
       </c>
       <c r="O9" s="26">
         <f>N9*'EIOPA RATES'!G17</f>
-        <v>4439.6796764269411</v>
+        <v>4477.1486169444024</v>
       </c>
       <c r="Q9" s="85">
         <f>B8*EXP('EIOPA RATES'!Q17)*(DATA!$C$14-DATA!$C$15)</f>
@@ -16412,8 +16412,8 @@
         <v>3790.4365465052852</v>
       </c>
       <c r="J10" s="47">
-        <f>MAX(D10,DATA!$C$4)*F9*(1-'MORTALITY RATES MALE'!B70/'MORTALITY RATES MALE'!B69)*G10</f>
-        <v>230.57780952514494</v>
+        <f>MAX(D10,DATA!$C$4)*F9*(1-'MORTALITY RATES MALE'!B70/'MORTALITY RATES MALE'!B69)*G9</f>
+        <v>271.2680112060529</v>
       </c>
       <c r="K10" s="47">
         <v>0</v>
@@ -16428,11 +16428,11 @@
       </c>
       <c r="N10" s="47">
         <f t="shared" si="1"/>
-        <v>4345.9908438509729</v>
+        <v>4386.681045531881</v>
       </c>
       <c r="O10" s="26">
         <f>N10*'EIOPA RATES'!G18</f>
-        <v>3671.9000345442523</v>
+        <v>3706.2789272584732</v>
       </c>
       <c r="Q10" s="85">
         <f>B9*EXP('EIOPA RATES'!Q18)*(DATA!$C$14-DATA!$C$15)</f>
@@ -16480,8 +16480,8 @@
         <v>3202.9441424455504</v>
       </c>
       <c r="J11" s="47">
-        <f>MAX(D11,DATA!$C$4)*F10*(1-'MORTALITY RATES MALE'!B71/'MORTALITY RATES MALE'!B70)*G11</f>
-        <v>218.00169928766303</v>
+        <f>MAX(D11,DATA!$C$4)*F10*(1-'MORTALITY RATES MALE'!B71/'MORTALITY RATES MALE'!B70)*G10</f>
+        <v>256.47258739725061</v>
       </c>
       <c r="K11" s="47">
         <v>0</v>
@@ -16496,11 +16496,11 @@
       </c>
       <c r="N11" s="47">
         <f t="shared" si="1"/>
-        <v>3695.758054324996</v>
+        <v>3734.2289424345836</v>
       </c>
       <c r="O11" s="26">
         <f>N11*'EIOPA RATES'!G19</f>
-        <v>3035.4122865433242</v>
+        <v>3067.0093242080111</v>
       </c>
       <c r="Q11" s="85">
         <f>B10*EXP('EIOPA RATES'!Q19)*(DATA!$C$14-DATA!$C$15)</f>
@@ -16523,7 +16523,7 @@
       </c>
       <c r="X11" s="70">
         <f>DATA!C4-'BASE CASE'!X3</f>
-        <v>4409.7926544342336</v>
+        <v>3791.2664611817017</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
@@ -16555,8 +16555,8 @@
         <v>2704.7430308822109</v>
       </c>
       <c r="J12" s="47">
-        <f>MAX(D12,DATA!$C$4)*F11*(1-'MORTALITY RATES MALE'!B72/'MORTALITY RATES MALE'!B71)*G12</f>
-        <v>202.37886884370255</v>
+        <f>MAX(D12,DATA!$C$4)*F11*(1-'MORTALITY RATES MALE'!B72/'MORTALITY RATES MALE'!B71)*G11</f>
+        <v>238.09278687494418</v>
       </c>
       <c r="K12" s="47">
         <v>0</v>
@@ -16571,11 +16571,11 @@
       </c>
       <c r="N12" s="47">
         <f t="shared" si="1"/>
-        <v>3139.3572178654194</v>
+        <v>3175.071135896661</v>
       </c>
       <c r="O12" s="26">
         <f>N12*'EIOPA RATES'!G20</f>
-        <v>2505.1805781522989</v>
+        <v>2533.6799834803819</v>
       </c>
       <c r="Q12" s="85">
         <f>B11*EXP('EIOPA RATES'!Q20)*(DATA!$C$14-DATA!$C$15)</f>
@@ -16623,8 +16623,8 @@
         <v>2279.7160612730881</v>
       </c>
       <c r="J13" s="47">
-        <f>MAX(D13,DATA!$C$4)*F12*(1-'MORTALITY RATES MALE'!B73/'MORTALITY RATES MALE'!B72)*G13</f>
-        <v>188.45204317020128</v>
+        <f>MAX(D13,DATA!$C$4)*F12*(1-'MORTALITY RATES MALE'!B73/'MORTALITY RATES MALE'!B72)*G12</f>
+        <v>221.70828608258975</v>
       </c>
       <c r="K13" s="47">
         <v>0</v>
@@ -16639,11 +16639,11 @@
       </c>
       <c r="N13" s="47">
         <f t="shared" si="1"/>
-        <v>2664.0595265174443</v>
+        <v>2697.3157694298329</v>
       </c>
       <c r="O13" s="26">
         <f>N13*'EIOPA RATES'!G21</f>
-        <v>2066.5964913704056</v>
+        <v>2092.3944265271875</v>
       </c>
       <c r="Q13" s="85">
         <f>B12*EXP('EIOPA RATES'!Q21)*(DATA!$C$14-DATA!$C$15)</f>
@@ -16691,8 +16691,8 @@
         <v>1923.1889660263644</v>
       </c>
       <c r="J14" s="47">
-        <f>MAX(D14,DATA!$C$4)*F13*(1-'MORTALITY RATES MALE'!B74/'MORTALITY RATES MALE'!B73)*G14</f>
-        <v>172.85989307662075</v>
+        <f>MAX(D14,DATA!$C$4)*F13*(1-'MORTALITY RATES MALE'!B74/'MORTALITY RATES MALE'!B73)*G13</f>
+        <v>203.36458009014208</v>
       </c>
       <c r="K14" s="47">
         <v>0</v>
@@ -16707,11 +16707,11 @@
       </c>
       <c r="N14" s="47">
         <f t="shared" si="1"/>
-        <v>2261.4127265022344</v>
+        <v>2291.9174135157555</v>
       </c>
       <c r="O14" s="26">
         <f>N14*'EIOPA RATES'!G22</f>
-        <v>1701.6658032140037</v>
+        <v>1724.6199425094624</v>
       </c>
       <c r="Q14" s="85">
         <f>B13*EXP('EIOPA RATES'!Q22)*(DATA!$C$14-DATA!$C$15)</f>
@@ -16766,8 +16766,8 @@
         <v>1618.3145407913628</v>
       </c>
       <c r="J15" s="47">
-        <f>MAX(D15,DATA!$C$4)*F14*(1-'MORTALITY RATES MALE'!B75/'MORTALITY RATES MALE'!B74)*G15</f>
-        <v>162.34318966048062</v>
+        <f>MAX(D15,DATA!$C$4)*F14*(1-'MORTALITY RATES MALE'!B75/'MORTALITY RATES MALE'!B74)*G14</f>
+        <v>190.99198783585953</v>
       </c>
       <c r="K15" s="47">
         <v>0</v>
@@ -16782,11 +16782,11 @@
       </c>
       <c r="N15" s="47">
         <f t="shared" si="1"/>
-        <v>1919.9050053738983</v>
+        <v>1948.5538035492773</v>
       </c>
       <c r="O15" s="26">
         <f>N15*'EIOPA RATES'!G23</f>
-        <v>1402.396300739422</v>
+        <v>1423.3228405782811</v>
       </c>
       <c r="Q15" s="85">
         <f>B14*EXP('EIOPA RATES'!Q23)*(DATA!$C$14-DATA!$C$15)</f>
@@ -16809,7 +16809,7 @@
       </c>
       <c r="X15" s="71">
         <f>DATA!C4-X3-X14</f>
-        <v>821.38705403421363</v>
+        <v>202.86086078168182</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16841,8 +16841,8 @@
         <v>1358.6267368808431</v>
       </c>
       <c r="J16" s="47">
-        <f>MAX(D16,DATA!$C$4)*F15*(1-'MORTALITY RATES MALE'!B76/'MORTALITY RATES MALE'!B75)*G16</f>
-        <v>151.51247539868211</v>
+        <f>MAX(D16,DATA!$C$4)*F15*(1-'MORTALITY RATES MALE'!B76/'MORTALITY RATES MALE'!B75)*G15</f>
+        <v>178.24997105727309</v>
       </c>
       <c r="K16" s="47">
         <v>0</v>
@@ -16857,11 +16857,11 @@
       </c>
       <c r="N16" s="47">
         <f t="shared" si="1"/>
-        <v>1627.1273817035565</v>
+        <v>1653.8648773621476</v>
       </c>
       <c r="O16" s="26">
         <f>N16*'EIOPA RATES'!G24</f>
-        <v>1154.1714574676068</v>
+        <v>1173.1371848472299</v>
       </c>
       <c r="Q16" s="85">
         <f>B15*EXP('EIOPA RATES'!Q24)*(DATA!$C$14-DATA!$C$15)</f>
@@ -16884,7 +16884,7 @@
       </c>
       <c r="X16" s="72">
         <f>(DATA!$C$14-DATA!$C$15)*X18*DATA!C4</f>
-        <v>3140.1629962852498</v>
+        <v>3158.1958022068552</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16916,8 +16916,8 @@
         <v>1136.4907390523815</v>
       </c>
       <c r="J17" s="47">
-        <f>MAX(D17,DATA!$C$4)*F16*(1-'MORTALITY RATES MALE'!B77/'MORTALITY RATES MALE'!B76)*G17</f>
-        <v>142.97532579741829</v>
+        <f>MAX(D17,DATA!$C$4)*F16*(1-'MORTALITY RATES MALE'!B77/'MORTALITY RATES MALE'!B76)*G16</f>
+        <v>168.20626564402153</v>
       </c>
       <c r="K17" s="47">
         <v>0</v>
@@ -16932,11 +16932,11 @@
       </c>
       <c r="N17" s="47">
         <f t="shared" si="1"/>
-        <v>1377.4057832498809</v>
+        <v>1402.636723096484</v>
       </c>
       <c r="O17" s="26">
         <f>N17*'EIOPA RATES'!G25</f>
-        <v>949.87782272264201</v>
+        <v>967.27742311504835</v>
       </c>
       <c r="Q17" s="85">
         <f>B16*EXP('EIOPA RATES'!Q25)*(DATA!$C$14-DATA!$C$15)</f>
@@ -16984,8 +16984,8 @@
         <v>948.13856297581901</v>
       </c>
       <c r="J18" s="47">
-        <f>MAX(D18,DATA!$C$4)*F17*(1-'MORTALITY RATES MALE'!B78/'MORTALITY RATES MALE'!B77)*G18</f>
-        <v>132.14690511936141</v>
+        <f>MAX(D18,DATA!$C$4)*F17*(1-'MORTALITY RATES MALE'!B78/'MORTALITY RATES MALE'!B77)*G17</f>
+        <v>155.46694719924869</v>
       </c>
       <c r="K18" s="47">
         <v>0</v>
@@ -17000,11 +17000,11 @@
       </c>
       <c r="N18" s="47">
         <f t="shared" si="1"/>
-        <v>1162.0620769963216</v>
+        <v>1185.3821190762087</v>
       </c>
       <c r="O18" s="26">
         <f>N18*'EIOPA RATES'!G26</f>
-        <v>779.35640050359927</v>
+        <v>794.99637741597792</v>
       </c>
       <c r="Q18" s="85">
         <f>B17*EXP('EIOPA RATES'!Q26)*(DATA!$C$14-DATA!$C$15)</f>
@@ -17027,7 +17027,7 @@
       </c>
       <c r="X18" s="70">
         <f>SUMPRODUCT(O4:O53,A4:A53)/SUM(O4:O53)</f>
-        <v>5.6074339219379477</v>
+        <v>5.6396353610836716</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
@@ -17059,8 +17059,8 @@
         <v>788.84419023190947</v>
       </c>
       <c r="J19" s="47">
-        <f>MAX(D19,DATA!$C$4)*F18*(1-'MORTALITY RATES MALE'!B79/'MORTALITY RATES MALE'!B78)*G19</f>
-        <v>124.00092145586638</v>
+        <f>MAX(D19,DATA!$C$4)*F18*(1-'MORTALITY RATES MALE'!B79/'MORTALITY RATES MALE'!B78)*G18</f>
+        <v>145.88343700690163</v>
       </c>
       <c r="K19" s="47">
         <v>0</v>
@@ -17075,11 +17075,11 @@
       </c>
       <c r="N19" s="47">
         <f t="shared" si="1"/>
-        <v>980.93914910950832</v>
+        <v>1002.8216646605435</v>
       </c>
       <c r="O19" s="26">
         <f>N19*'EIOPA RATES'!G27</f>
-        <v>639.59646389242016</v>
+        <v>653.86440251044598</v>
       </c>
       <c r="Q19" s="85">
         <f>B18*EXP('EIOPA RATES'!Q27)*(DATA!$C$14-DATA!$C$15)</f>
@@ -17127,8 +17127,8 @@
         <v>654.84299603180239</v>
       </c>
       <c r="J20" s="47">
-        <f>MAX(D20,DATA!$C$4)*F19*(1-'MORTALITY RATES MALE'!B80/'MORTALITY RATES MALE'!B79)*G20</f>
-        <v>110.34343366287663</v>
+        <f>MAX(D20,DATA!$C$4)*F19*(1-'MORTALITY RATES MALE'!B80/'MORTALITY RATES MALE'!B79)*G19</f>
+        <v>129.81580430926664</v>
       </c>
       <c r="K20" s="47">
         <v>0</v>
@@ -17143,11 +17143,11 @@
       </c>
       <c r="N20" s="47">
         <f t="shared" si="1"/>
-        <v>821.76192300500304</v>
+        <v>841.23429365139316</v>
       </c>
       <c r="O20" s="26">
         <f>N20*'EIOPA RATES'!G28</f>
-        <v>521.07272074215689</v>
+        <v>533.41999659902626</v>
       </c>
       <c r="Q20" s="85">
         <f>B19*EXP('EIOPA RATES'!Q28)*(DATA!$C$14-DATA!$C$15)</f>
@@ -17195,8 +17195,8 @@
         <v>541.1177699328822</v>
       </c>
       <c r="J21" s="47">
-        <f>MAX(D21,DATA!$C$4)*F20*(1-'MORTALITY RATES MALE'!B81/'MORTALITY RATES MALE'!B80)*G21</f>
-        <v>101.1264480311127</v>
+        <f>MAX(D21,DATA!$C$4)*F20*(1-'MORTALITY RATES MALE'!B81/'MORTALITY RATES MALE'!B80)*G20</f>
+        <v>118.97229180130905</v>
       </c>
       <c r="K21" s="47">
         <v>0</v>
@@ -17211,11 +17211,11 @@
       </c>
       <c r="N21" s="47">
         <f t="shared" si="1"/>
-        <v>689.03928207970796</v>
+        <v>706.8851258499044</v>
       </c>
       <c r="O21" s="26">
         <f>N21*'EIOPA RATES'!G29</f>
-        <v>425.51063591656532</v>
+        <v>436.53119240531066</v>
       </c>
       <c r="Q21" s="85">
         <f>B20*EXP('EIOPA RATES'!Q29)*(DATA!$C$14-DATA!$C$15)</f>
@@ -17263,8 +17263,8 @@
         <v>444.15023743575091</v>
       </c>
       <c r="J22" s="47">
-        <f>MAX(D22,DATA!$C$4)*F21*(1-'MORTALITY RATES MALE'!B82/'MORTALITY RATES MALE'!B81)*G22</f>
-        <v>94.136101674886334</v>
+        <f>MAX(D22,DATA!$C$4)*F21*(1-'MORTALITY RATES MALE'!B82/'MORTALITY RATES MALE'!B81)*G21</f>
+        <v>110.74835491163098</v>
       </c>
       <c r="K22" s="47">
         <v>0</v>
@@ -17279,11 +17279,11 @@
       </c>
       <c r="N22" s="47">
         <f t="shared" si="1"/>
-        <v>576.73916430980989</v>
+        <v>593.35141754655444</v>
       </c>
       <c r="O22" s="26">
         <f>N22*'EIOPA RATES'!G30</f>
-        <v>347.71334781649881</v>
+        <v>357.72879768565497</v>
       </c>
       <c r="Q22" s="85">
         <f>B21*EXP('EIOPA RATES'!Q30)*(DATA!$C$14-DATA!$C$15)</f>
@@ -17331,8 +17331,8 @@
         <v>361.67323737251292</v>
       </c>
       <c r="J23" s="47">
-        <f>MAX(D23,DATA!$C$4)*F22*(1-'MORTALITY RATES MALE'!B83/'MORTALITY RATES MALE'!B82)*G23</f>
-        <v>87.994175683084805</v>
+        <f>MAX(D23,DATA!$C$4)*F22*(1-'MORTALITY RATES MALE'!B83/'MORTALITY RATES MALE'!B82)*G22</f>
+        <v>103.52255962715859</v>
       </c>
       <c r="K23" s="47">
         <v>0</v>
@@ -17347,11 +17347,11 @@
       </c>
       <c r="N23" s="47">
         <f t="shared" si="1"/>
-        <v>481.02095081453922</v>
+        <v>496.54933475861304</v>
       </c>
       <c r="O23" s="26">
         <f>N23*'EIOPA RATES'!G31</f>
-        <v>283.87265097733274</v>
+        <v>293.0366666155989</v>
       </c>
       <c r="Q23" s="85">
         <f>B22*EXP('EIOPA RATES'!Q31)*(DATA!$C$14-DATA!$C$15)</f>
@@ -17399,8 +17399,8 @@
         <v>293.20538411193064</v>
       </c>
       <c r="J24" s="47">
-        <f>MAX(D24,DATA!$C$4)*F23*(1-'MORTALITY RATES MALE'!B84/'MORTALITY RATES MALE'!B83)*G24</f>
-        <v>80.280873832390512</v>
+        <f>MAX(D24,DATA!$C$4)*F23*(1-'MORTALITY RATES MALE'!B84/'MORTALITY RATES MALE'!B83)*G23</f>
+        <v>94.4480868616359</v>
       </c>
       <c r="K24" s="47">
         <v>0</v>
@@ -17415,11 +17415,11 @@
       </c>
       <c r="N24" s="47">
         <f t="shared" si="1"/>
-        <v>398.93727791257868</v>
+        <v>413.10449094182405</v>
       </c>
       <c r="O24" s="26">
         <f>N24*'EIOPA RATES'!G32</f>
-        <v>230.29141338069158</v>
+        <v>238.46961003667118</v>
       </c>
       <c r="Q24" s="85">
         <f>B23*EXP('EIOPA RATES'!Q32)*(DATA!$C$14-DATA!$C$15)</f>
@@ -17467,8 +17467,8 @@
         <v>236.11522451418716</v>
       </c>
       <c r="J25" s="47">
-        <f>MAX(D25,DATA!$C$4)*F24*(1-'MORTALITY RATES MALE'!B85/'MORTALITY RATES MALE'!B84)*G25</f>
-        <v>75.603970485895857</v>
+        <f>MAX(D25,DATA!$C$4)*F24*(1-'MORTALITY RATES MALE'!B85/'MORTALITY RATES MALE'!B84)*G24</f>
+        <v>88.945847630465721</v>
       </c>
       <c r="K25" s="47">
         <v>0</v>
@@ -17483,11 +17483,11 @@
       </c>
       <c r="N25" s="47">
         <f t="shared" si="1"/>
-        <v>332.24023357894333</v>
+        <v>345.58211072351321</v>
       </c>
       <c r="O25" s="26">
         <f>N25*'EIOPA RATES'!G33</f>
-        <v>187.39816556835876</v>
+        <v>194.92357353956623</v>
       </c>
       <c r="Q25" s="85">
         <f>B24*EXP('EIOPA RATES'!Q33)*(DATA!$C$14-DATA!$C$15)</f>
@@ -17535,8 +17535,8 @@
         <v>189.0932044381664</v>
       </c>
       <c r="J26" s="47">
-        <f>MAX(D26,DATA!$C$4)*F25*(1-'MORTALITY RATES MALE'!B86/'MORTALITY RATES MALE'!B85)*G26</f>
-        <v>68.0453429809521</v>
+        <f>MAX(D26,DATA!$C$4)*F25*(1-'MORTALITY RATES MALE'!B86/'MORTALITY RATES MALE'!B85)*G25</f>
+        <v>80.053344683473071</v>
       </c>
       <c r="K26" s="47">
         <v>0</v>
@@ -17551,11 +17551,11 @@
       </c>
       <c r="N26" s="47">
         <f t="shared" si="1"/>
-        <v>273.59254555978356</v>
+        <v>285.60054726230453</v>
       </c>
       <c r="O26" s="26">
         <f>N26*'EIOPA RATES'!G34</f>
-        <v>150.62325337403857</v>
+        <v>157.23412166087016</v>
       </c>
       <c r="Q26" s="85">
         <f>B25*EXP('EIOPA RATES'!Q34)*(DATA!$C$14-DATA!$C$15)</f>
@@ -17603,8 +17603,8 @@
         <v>150.45219692124965</v>
       </c>
       <c r="J27" s="47">
-        <f>MAX(D27,DATA!$C$4)*F26*(1-'MORTALITY RATES MALE'!B87/'MORTALITY RATES MALE'!B86)*G27</f>
-        <v>60.995150256372177</v>
+        <f>MAX(D27,DATA!$C$4)*F26*(1-'MORTALITY RATES MALE'!B87/'MORTALITY RATES MALE'!B86)*G26</f>
+        <v>71.759000301614336</v>
       </c>
       <c r="K27" s="47">
         <v>0</v>
@@ -17619,11 +17619,11 @@
       </c>
       <c r="N27" s="47">
         <f t="shared" si="1"/>
-        <v>224.55402509886196</v>
+        <v>235.31787514410411</v>
       </c>
       <c r="O27" s="26">
         <f>N27*'EIOPA RATES'!G35</f>
-        <v>120.54333341865879</v>
+        <v>126.32149911531387</v>
       </c>
       <c r="Q27" s="85">
         <f>B26*EXP('EIOPA RATES'!Q35)*(DATA!$C$14-DATA!$C$15)</f>
@@ -17671,8 +17671,8 @@
         <v>118.7205248815775</v>
       </c>
       <c r="J28" s="47">
-        <f>MAX(D28,DATA!$C$4)*F27*(1-'MORTALITY RATES MALE'!B88/'MORTALITY RATES MALE'!B87)*G28</f>
-        <v>54.792633225854971</v>
+        <f>MAX(D28,DATA!$C$4)*F27*(1-'MORTALITY RATES MALE'!B88/'MORTALITY RATES MALE'!B87)*G27</f>
+        <v>64.461921442182316</v>
       </c>
       <c r="K28" s="47">
         <v>0</v>
@@ -17687,11 +17687,11 @@
       </c>
       <c r="N28" s="47">
         <f t="shared" si="1"/>
-        <v>183.86692835486758</v>
+        <v>193.53621657119493</v>
       </c>
       <c r="O28" s="26">
         <f>N28*'EIOPA RATES'!G36</f>
-        <v>96.15298626166242</v>
+        <v>101.20952875869145</v>
       </c>
       <c r="Q28" s="85">
         <f>B27*EXP('EIOPA RATES'!Q36)*(DATA!$C$14-DATA!$C$15)</f>
@@ -17739,8 +17739,8 @@
         <v>92.947586123888655</v>
       </c>
       <c r="J29" s="47">
-        <f>MAX(D29,DATA!$C$4)*F28*(1-'MORTALITY RATES MALE'!B89/'MORTALITY RATES MALE'!B88)*G29</f>
-        <v>47.698748360834252</v>
+        <f>MAX(D29,DATA!$C$4)*F28*(1-'MORTALITY RATES MALE'!B89/'MORTALITY RATES MALE'!B88)*G28</f>
+        <v>56.116174542157943</v>
       </c>
       <c r="K29" s="47">
         <v>0</v>
@@ -17755,11 +17755,11 @@
       </c>
       <c r="N29" s="47">
         <f t="shared" si="1"/>
-        <v>148.7611822442862</v>
+        <v>157.17860842560989</v>
       </c>
       <c r="O29" s="26">
         <f>N29*'EIOPA RATES'!G37</f>
-        <v>75.74554061926689</v>
+        <v>80.031487309850036</v>
       </c>
       <c r="Q29" s="85">
         <f>B28*EXP('EIOPA RATES'!Q37)*(DATA!$C$14-DATA!$C$15)</f>
@@ -17807,8 +17807,8 @@
         <v>71.996228620307917</v>
       </c>
       <c r="J30" s="47">
-        <f>MAX(D30,DATA!$C$4)*F29*(1-'MORTALITY RATES MALE'!B90/'MORTALITY RATES MALE'!B89)*G30</f>
-        <v>42.110516752996183</v>
+        <f>MAX(D30,DATA!$C$4)*F29*(1-'MORTALITY RATES MALE'!B90/'MORTALITY RATES MALE'!B89)*G29</f>
+        <v>49.541784415289634</v>
       </c>
       <c r="K30" s="47">
         <v>0</v>
@@ -17823,11 +17823,11 @@
       </c>
       <c r="N30" s="47">
         <f t="shared" si="1"/>
-        <v>120.39893555806201</v>
+        <v>127.83020322035544</v>
       </c>
       <c r="O30" s="26">
         <f>N30*'EIOPA RATES'!G38</f>
-        <v>59.63898716026938</v>
+        <v>63.320026985428917</v>
       </c>
       <c r="Q30" s="85">
         <f>B29*EXP('EIOPA RATES'!Q38)*(DATA!$C$14-DATA!$C$15)</f>
@@ -17875,8 +17875,8 @@
         <v>54.965195539569272</v>
       </c>
       <c r="J31" s="47">
-        <f>MAX(D31,DATA!$C$4)*F30*(1-'MORTALITY RATES MALE'!B91/'MORTALITY RATES MALE'!B90)*G31</f>
-        <v>37.303086172436309</v>
+        <f>MAX(D31,DATA!$C$4)*F30*(1-'MORTALITY RATES MALE'!B91/'MORTALITY RATES MALE'!B90)*G30</f>
+        <v>43.885983732278014</v>
       </c>
       <c r="K31" s="47">
         <v>0</v>
@@ -17891,11 +17891,11 @@
       </c>
       <c r="N31" s="47">
         <f t="shared" si="1"/>
-        <v>97.076935219784659</v>
+        <v>103.65983277962637</v>
       </c>
       <c r="O31" s="26">
         <f>N31*'EIOPA RATES'!G39</f>
-        <v>46.762166476167366</v>
+        <v>49.93316225278452</v>
       </c>
       <c r="Q31" s="85">
         <f>B30*EXP('EIOPA RATES'!Q39)*(DATA!$C$14-DATA!$C$15)</f>
@@ -17943,8 +17943,8 @@
         <v>41.278817121500246</v>
       </c>
       <c r="J32" s="47">
-        <f>MAX(D32,DATA!$C$4)*F31*(1-'MORTALITY RATES MALE'!B92/'MORTALITY RATES MALE'!B91)*G32</f>
-        <v>32.544374381108085</v>
+        <f>MAX(D32,DATA!$C$4)*F31*(1-'MORTALITY RATES MALE'!B92/'MORTALITY RATES MALE'!B91)*G31</f>
+        <v>38.287499271891868</v>
       </c>
       <c r="K32" s="47">
         <v>0</v>
@@ -17959,11 +17959,11 @@
       </c>
       <c r="N32" s="47">
         <f t="shared" si="1"/>
-        <v>77.438038784923293</v>
+        <v>83.181163675707083</v>
       </c>
       <c r="O32" s="26">
         <f>N32*'EIOPA RATES'!G40</f>
-        <v>36.24927310867993</v>
+        <v>38.937668965934144</v>
       </c>
       <c r="Q32" s="85">
         <f>B31*EXP('EIOPA RATES'!Q40)*(DATA!$C$14-DATA!$C$15)</f>
@@ -18011,8 +18011,8 @@
         <v>30.438024542318857</v>
       </c>
       <c r="J33" s="47">
-        <f>MAX(D33,DATA!$C$4)*F32*(1-'MORTALITY RATES MALE'!B93/'MORTALITY RATES MALE'!B92)*G33</f>
-        <v>27.664027024833867</v>
+        <f>MAX(D33,DATA!$C$4)*F32*(1-'MORTALITY RATES MALE'!B93/'MORTALITY RATES MALE'!B92)*G32</f>
+        <v>32.545914146863375</v>
       </c>
       <c r="K33" s="47">
         <v>0</v>
@@ -18027,11 +18027,11 @@
       </c>
       <c r="N33" s="47">
         <f t="shared" si="1"/>
-        <v>60.770174557704905</v>
+        <v>65.652061679734416</v>
       </c>
       <c r="O33" s="26">
         <f>N33*'EIOPA RATES'!G41</f>
-        <v>27.639219457675356</v>
+        <v>29.859577561225763</v>
       </c>
       <c r="Q33" s="85">
         <f>B32*EXP('EIOPA RATES'!Q41)*(DATA!$C$14-DATA!$C$15)</f>
@@ -18079,8 +18079,8 @@
         <v>22.003426971294353</v>
       </c>
       <c r="J34" s="47">
-        <f>MAX(D34,DATA!$C$4)*F33*(1-'MORTALITY RATES MALE'!B94/'MORTALITY RATES MALE'!B93)*G34</f>
-        <v>23.013342744418249</v>
+        <f>MAX(D34,DATA!$C$4)*F33*(1-'MORTALITY RATES MALE'!B94/'MORTALITY RATES MALE'!B93)*G33</f>
+        <v>27.074520875786174</v>
       </c>
       <c r="K34" s="47">
         <v>0</v>
@@ -18095,11 +18095,11 @@
       </c>
       <c r="N34" s="47">
         <f t="shared" si="1"/>
-        <v>46.947342117966095</v>
+        <v>51.008520249334019</v>
       </c>
       <c r="O34" s="26">
         <f>N34*'EIOPA RATES'!G42</f>
-        <v>20.729953587158917</v>
+        <v>22.523197472209958</v>
       </c>
       <c r="Q34" s="85">
         <f>B33*EXP('EIOPA RATES'!Q42)*(DATA!$C$14-DATA!$C$15)</f>
@@ -18147,8 +18147,8 @@
         <v>15.547712972355814</v>
       </c>
       <c r="J35" s="47">
-        <f>MAX(D35,DATA!$C$4)*F34*(1-'MORTALITY RATES MALE'!B95/'MORTALITY RATES MALE'!B94)*G35</f>
-        <v>18.657741563584128</v>
+        <f>MAX(D35,DATA!$C$4)*F34*(1-'MORTALITY RATES MALE'!B95/'MORTALITY RATES MALE'!B94)*G34</f>
+        <v>21.950284192451914</v>
       </c>
       <c r="K35" s="47">
         <v>0</v>
@@ -18163,11 +18163,11 @@
       </c>
       <c r="N35" s="47">
         <f t="shared" si="1"/>
-        <v>35.570907119891288</v>
+        <v>38.863449748759074</v>
       </c>
       <c r="O35" s="26">
         <f>N35*'EIOPA RATES'!G43</f>
-        <v>15.250241788951476</v>
+        <v>16.661846812726228</v>
       </c>
       <c r="Q35" s="85">
         <f>B34*EXP('EIOPA RATES'!Q43)*(DATA!$C$14-DATA!$C$15)</f>
@@ -18215,8 +18215,8 @@
         <v>10.730203497545803</v>
       </c>
       <c r="J36" s="47">
-        <f>MAX(D36,DATA!$C$4)*F35*(1-'MORTALITY RATES MALE'!B96/'MORTALITY RATES MALE'!B95)*G36</f>
-        <v>14.673313481001626</v>
+        <f>MAX(D36,DATA!$C$4)*F35*(1-'MORTALITY RATES MALE'!B96/'MORTALITY RATES MALE'!B95)*G35</f>
+        <v>17.262721742354852</v>
       </c>
       <c r="K36" s="47">
         <v>0</v>
@@ -18231,11 +18231,11 @@
       </c>
       <c r="N36" s="47">
         <f t="shared" si="1"/>
-        <v>26.346752053450484</v>
+        <v>28.936160314803711</v>
       </c>
       <c r="O36" s="26">
         <f>N36*'EIOPA RATES'!G44</f>
-        <v>10.961735645584447</v>
+        <v>12.039075606952823</v>
       </c>
       <c r="Q36" s="85">
         <f>B35*EXP('EIOPA RATES'!Q44)*(DATA!$C$14-DATA!$C$15)</f>
@@ -18283,8 +18283,8 @@
         <v>7.2345162927359521</v>
       </c>
       <c r="J37" s="47">
-        <f>MAX(D37,DATA!$C$4)*F36*(1-'MORTALITY RATES MALE'!B97/'MORTALITY RATES MALE'!B96)*G37</f>
-        <v>11.12410114146649</v>
+        <f>MAX(D37,DATA!$C$4)*F36*(1-'MORTALITY RATES MALE'!B97/'MORTALITY RATES MALE'!B96)*G36</f>
+        <v>13.087177813489989</v>
       </c>
       <c r="K37" s="47">
         <v>0</v>
@@ -18299,11 +18299,11 @@
       </c>
       <c r="N37" s="47">
         <f t="shared" si="1"/>
-        <v>18.995133507377663</v>
+        <v>20.95821017940116</v>
       </c>
       <c r="O37" s="26">
         <f>N37*'EIOPA RATES'!G45</f>
-        <v>7.6652865555658893</v>
+        <v>8.4574655216027601</v>
       </c>
       <c r="Q37" s="85">
         <f>B36*EXP('EIOPA RATES'!Q45)*(DATA!$C$14-DATA!$C$15)</f>
@@ -18351,8 +18351,8 @@
         <v>4.7321068569677536</v>
       </c>
       <c r="J38" s="47">
-        <f>MAX(D38,DATA!$C$4)*F37*(1-'MORTALITY RATES MALE'!B98/'MORTALITY RATES MALE'!B97)*G38</f>
-        <v>8.3215205536556045</v>
+        <f>MAX(D38,DATA!$C$4)*F37*(1-'MORTALITY RATES MALE'!B98/'MORTALITY RATES MALE'!B97)*G37</f>
+        <v>9.7900241807713009</v>
       </c>
       <c r="K38" s="47">
         <v>0</v>
@@ -18367,11 +18367,11 @@
       </c>
       <c r="N38" s="47">
         <f t="shared" si="1"/>
-        <v>13.470352967038892</v>
+        <v>14.938856594154588</v>
       </c>
       <c r="O38" s="26">
         <f>N38*'EIOPA RATES'!G46</f>
-        <v>5.2728513033909321</v>
+        <v>5.8476841443133969</v>
       </c>
       <c r="Q38" s="85">
         <f>B37*EXP('EIOPA RATES'!Q46)*(DATA!$C$14-DATA!$C$15)</f>
@@ -18419,8 +18419,8 @@
         <v>3.0145989717960591</v>
       </c>
       <c r="J39" s="47">
-        <f>MAX(D39,DATA!$C$4)*F38*(1-'MORTALITY RATES MALE'!B99/'MORTALITY RATES MALE'!B98)*G39</f>
-        <v>5.9054684465140861</v>
+        <f>MAX(D39,DATA!$C$4)*F38*(1-'MORTALITY RATES MALE'!B99/'MORTALITY RATES MALE'!B98)*G38</f>
+        <v>6.947609937075395</v>
       </c>
       <c r="K39" s="47">
         <v>0</v>
@@ -18435,11 +18435,11 @@
       </c>
       <c r="N39" s="47">
         <f t="shared" si="1"/>
-        <v>9.1857834204988169</v>
+        <v>10.227924911060125</v>
       </c>
       <c r="O39" s="26">
         <f>N39*'EIOPA RATES'!G47</f>
-        <v>3.4871482391285666</v>
+        <v>3.8827706588368187</v>
       </c>
       <c r="Q39" s="85">
         <f>B38*EXP('EIOPA RATES'!Q47)*(DATA!$C$14-DATA!$C$15)</f>
@@ -18487,8 +18487,8 @@
         <v>1.8659769223661642</v>
       </c>
       <c r="J40" s="47">
-        <f>MAX(D40,DATA!$C$4)*F39*(1-'MORTALITY RATES MALE'!B100/'MORTALITY RATES MALE'!B99)*G40</f>
-        <v>4.0741182054999703</v>
+        <f>MAX(D40,DATA!$C$4)*F39*(1-'MORTALITY RATES MALE'!B100/'MORTALITY RATES MALE'!B99)*G39</f>
+        <v>4.7930802417646712</v>
       </c>
       <c r="K40" s="47">
         <v>0</v>
@@ -18503,11 +18503,11 @@
       </c>
       <c r="N40" s="47">
         <f t="shared" si="1"/>
-        <v>6.1047155327027545</v>
+        <v>6.8236775689674554</v>
       </c>
       <c r="O40" s="26">
         <f>N40*'EIOPA RATES'!G48</f>
-        <v>2.2470589718338121</v>
+        <v>2.5116986729537176</v>
       </c>
       <c r="Q40" s="85">
         <f>B39*EXP('EIOPA RATES'!Q48)*(DATA!$C$14-DATA!$C$15)</f>
@@ -18555,8 +18555,8 @@
         <v>1.1215915657144639</v>
       </c>
       <c r="J41" s="47">
-        <f>MAX(D41,DATA!$C$4)*F40*(1-'MORTALITY RATES MALE'!B101/'MORTALITY RATES MALE'!B100)*G41</f>
-        <v>2.7131762446109531</v>
+        <f>MAX(D41,DATA!$C$4)*F40*(1-'MORTALITY RATES MALE'!B101/'MORTALITY RATES MALE'!B100)*G40</f>
+        <v>3.1919720524834743</v>
       </c>
       <c r="K41" s="47">
         <v>0</v>
@@ -18571,11 +18571,11 @@
       </c>
       <c r="N41" s="47">
         <f t="shared" si="1"/>
-        <v>3.933804892886994</v>
+        <v>4.4126007007595165</v>
       </c>
       <c r="O41" s="26">
         <f>N41*'EIOPA RATES'!G49</f>
-        <v>1.4036662930916655</v>
+        <v>1.5745109473345518</v>
       </c>
       <c r="Q41" s="85">
         <f>B40*EXP('EIOPA RATES'!Q49)*(DATA!$C$14-DATA!$C$15)</f>
@@ -18623,8 +18623,8 @@
         <v>0.6528857629981103</v>
       </c>
       <c r="J42" s="47">
-        <f>MAX(D42,DATA!$C$4)*F41*(1-'MORTALITY RATES MALE'!B102/'MORTALITY RATES MALE'!B101)*G42</f>
-        <v>1.7526135148996294</v>
+        <f>MAX(D42,DATA!$C$4)*F41*(1-'MORTALITY RATES MALE'!B102/'MORTALITY RATES MALE'!B101)*G41</f>
+        <v>2.0618982528230934</v>
       </c>
       <c r="K42" s="47">
         <v>0</v>
@@ -18639,11 +18639,11 @@
       </c>
       <c r="N42" s="47">
         <f t="shared" si="1"/>
-        <v>2.4632001384786939</v>
+        <v>2.7724848764021579</v>
       </c>
       <c r="O42" s="26">
         <f>N42*'EIOPA RATES'!G50</f>
-        <v>0.85184381043582558</v>
+        <v>0.95880316203162697</v>
       </c>
       <c r="Q42" s="85">
         <f>B41*EXP('EIOPA RATES'!Q50)*(DATA!$C$14-DATA!$C$15)</f>
@@ -18691,8 +18691,8 @@
         <v>0.36723977020719994</v>
       </c>
       <c r="J43" s="47">
-        <f>MAX(D43,DATA!$C$4)*F42*(1-'MORTALITY RATES MALE'!B103/'MORTALITY RATES MALE'!B102)*G43</f>
-        <v>1.0935151549980497</v>
+        <f>MAX(D43,DATA!$C$4)*F42*(1-'MORTALITY RATES MALE'!B103/'MORTALITY RATES MALE'!B102)*G42</f>
+        <v>1.2864884176447644</v>
       </c>
       <c r="K43" s="47">
         <v>0</v>
@@ -18707,11 +18707,11 @@
       </c>
       <c r="N43" s="47">
         <f t="shared" si="1"/>
-        <v>1.4932391778706953</v>
+        <v>1.6862124405174099</v>
       </c>
       <c r="O43" s="26">
         <f>N43*'EIOPA RATES'!G51</f>
-        <v>0.50038707129310089</v>
+        <v>0.56505275055243886</v>
       </c>
       <c r="Q43" s="85">
         <f>B42*EXP('EIOPA RATES'!Q51)*(DATA!$C$14-DATA!$C$15)</f>
@@ -18759,8 +18759,8 @@
         <v>0.19697836218946127</v>
       </c>
       <c r="J44" s="47">
-        <f>MAX(D44,DATA!$C$4)*F43*(1-'MORTALITY RATES MALE'!B104/'MORTALITY RATES MALE'!B103)*G44</f>
-        <v>0.66912760666418791</v>
+        <f>MAX(D44,DATA!$C$4)*F43*(1-'MORTALITY RATES MALE'!B104/'MORTALITY RATES MALE'!B103)*G43</f>
+        <v>0.78720894901669181</v>
       </c>
       <c r="K44" s="47">
         <v>0</v>
@@ -18775,11 +18775,11 @@
       </c>
       <c r="N44" s="47">
         <f t="shared" si="1"/>
-        <v>0.8835453149240089</v>
+        <v>1.0016266572765127</v>
       </c>
       <c r="O44" s="26">
         <f>N44*'EIOPA RATES'!G52</f>
-        <v>0.28694749469574582</v>
+        <v>0.32529656948120356</v>
       </c>
       <c r="Q44" s="85">
         <f>B43*EXP('EIOPA RATES'!Q52)*(DATA!$C$14-DATA!$C$15)</f>
@@ -18827,8 +18827,8 @@
         <v>9.9857891222756304E-2</v>
       </c>
       <c r="J45" s="47">
-        <f>MAX(D45,DATA!$C$4)*F44*(1-'MORTALITY RATES MALE'!B105/'MORTALITY RATES MALE'!B104)*G45</f>
-        <v>0.39234712187914206</v>
+        <f>MAX(D45,DATA!$C$4)*F44*(1-'MORTALITY RATES MALE'!B105/'MORTALITY RATES MALE'!B104)*G44</f>
+        <v>0.46158484926957888</v>
       </c>
       <c r="K45" s="47">
         <v>0</v>
@@ -18843,11 +18843,11 @@
       </c>
       <c r="N45" s="47">
         <f t="shared" si="1"/>
-        <v>0.5010534030653272</v>
+        <v>0.57029113045576407</v>
       </c>
       <c r="O45" s="26">
         <f>N45*'EIOPA RATES'!G53</f>
-        <v>0.15761325553938921</v>
+        <v>0.1793929372128269</v>
       </c>
       <c r="Q45" s="85">
         <f>B44*EXP('EIOPA RATES'!Q53)*(DATA!$C$14-DATA!$C$15)</f>
@@ -18895,8 +18895,8 @@
         <v>4.7689225515811076E-2</v>
       </c>
       <c r="J46" s="47">
-        <f>MAX(D46,DATA!$C$4)*F45*(1-'MORTALITY RATES MALE'!B106/'MORTALITY RATES MALE'!B105)*G46</f>
-        <v>0.21543381429187372</v>
+        <f>MAX(D46,DATA!$C$4)*F45*(1-'MORTALITY RATES MALE'!B106/'MORTALITY RATES MALE'!B105)*G45</f>
+        <v>0.25345154622573379</v>
       </c>
       <c r="K46" s="47">
         <v>0</v>
@@ -18911,11 +18911,11 @@
       </c>
       <c r="N46" s="47">
         <f t="shared" si="1"/>
-        <v>0.26735248465806311</v>
+        <v>0.30537021659192315</v>
       </c>
       <c r="O46" s="26">
         <f>N46*'EIOPA RATES'!G54</f>
-        <v>8.1473613317495933E-2</v>
+        <v>9.3059224705207846E-2</v>
       </c>
       <c r="Q46" s="85">
         <f>B45*EXP('EIOPA RATES'!Q54)*(DATA!$C$14-DATA!$C$15)</f>
@@ -18963,8 +18963,8 @@
         <v>2.137978541962168E-2</v>
       </c>
       <c r="J47" s="47">
-        <f>MAX(D47,DATA!$C$4)*F46*(1-'MORTALITY RATES MALE'!B107/'MORTALITY RATES MALE'!B106)*G47</f>
-        <v>0.11074161039660428</v>
+        <f>MAX(D47,DATA!$C$4)*F46*(1-'MORTALITY RATES MALE'!B107/'MORTALITY RATES MALE'!B106)*G46</f>
+        <v>0.13028424752541681</v>
       </c>
       <c r="K47" s="47">
         <v>0</v>
@@ -18979,11 +18979,11 @@
       </c>
       <c r="N47" s="47">
         <f t="shared" si="1"/>
-        <v>0.13401923779944772</v>
+        <v>0.15356187492826026</v>
       </c>
       <c r="O47" s="26">
         <f>N47*'EIOPA RATES'!G55</f>
-        <v>3.9575414778570538E-2</v>
+        <v>4.5346287549815595E-2</v>
       </c>
       <c r="Q47" s="85">
         <f>B46*EXP('EIOPA RATES'!Q55)*(DATA!$C$14-DATA!$C$15)</f>
@@ -19031,8 +19031,8 @@
         <v>8.9497571239248591E-3</v>
       </c>
       <c r="J48" s="47">
-        <f>MAX(D48,DATA!$C$4)*F47*(1-'MORTALITY RATES MALE'!B108/'MORTALITY RATES MALE'!B107)*G48</f>
-        <v>5.3312048960458595E-2</v>
+        <f>MAX(D48,DATA!$C$4)*F47*(1-'MORTALITY RATES MALE'!B108/'MORTALITY RATES MALE'!B107)*G47</f>
+        <v>6.272005760053953E-2</v>
       </c>
       <c r="K48" s="47">
         <v>0</v>
@@ -19047,11 +19047,11 @@
       </c>
       <c r="N48" s="47">
         <f t="shared" si="1"/>
-        <v>6.305694359261757E-2</v>
+        <v>7.2464952232698512E-2</v>
       </c>
       <c r="O48" s="26">
         <f>N48*'EIOPA RATES'!G56</f>
-        <v>1.8032289284652087E-2</v>
+        <v>2.0722681868321609E-2</v>
       </c>
       <c r="Q48" s="85">
         <f>B47*EXP('EIOPA RATES'!Q56)*(DATA!$C$14-DATA!$C$15)</f>
@@ -19099,8 +19099,8 @@
         <v>3.5000352720467908E-3</v>
       </c>
       <c r="J49" s="47">
-        <f>MAX(D49,DATA!$C$4)*F48*(1-'MORTALITY RATES MALE'!B109/'MORTALITY RATES MALE'!B108)*G49</f>
-        <v>2.3703032637144919E-2</v>
+        <f>MAX(D49,DATA!$C$4)*F48*(1-'MORTALITY RATES MALE'!B109/'MORTALITY RATES MALE'!B108)*G48</f>
+        <v>2.7885920749582259E-2</v>
       </c>
       <c r="K49" s="47">
         <v>0</v>
@@ -19115,11 +19115,11 @@
       </c>
       <c r="N49" s="47">
         <f t="shared" si="1"/>
-        <v>2.751430458869094E-2</v>
+        <v>3.1697192701128286E-2</v>
       </c>
       <c r="O49" s="26">
         <f>N49*'EIOPA RATES'!G57</f>
-        <v>7.6215989729538931E-3</v>
+        <v>8.7802797471297055E-3</v>
       </c>
       <c r="Q49" s="85">
         <f>B48*EXP('EIOPA RATES'!Q57)*(DATA!$C$14-DATA!$C$15)</f>
@@ -19167,8 +19167,8 @@
         <v>1.2517650652632195E-3</v>
       </c>
       <c r="J50" s="47">
-        <f>MAX(D50,DATA!$C$4)*F49*(1-'MORTALITY RATES MALE'!B110/'MORTALITY RATES MALE'!B109)*G50</f>
-        <v>9.9361651028956506E-3</v>
+        <f>MAX(D50,DATA!$C$4)*F49*(1-'MORTALITY RATES MALE'!B110/'MORTALITY RATES MALE'!B109)*G49</f>
+        <v>1.1689606003406648E-2</v>
       </c>
       <c r="K50" s="47">
         <v>0</v>
@@ -19183,11 +19183,11 @@
       </c>
       <c r="N50" s="47">
         <f t="shared" si="1"/>
-        <v>1.129934049324632E-2</v>
+        <v>1.3052781393757318E-2</v>
       </c>
       <c r="O50" s="26">
         <f>N50*'EIOPA RATES'!G58</f>
-        <v>3.0313381393231383E-3</v>
+        <v>3.5017436713933566E-3</v>
       </c>
       <c r="Q50" s="85">
         <f>B49*EXP('EIOPA RATES'!Q58)*(DATA!$C$14-DATA!$C$15)</f>
@@ -19235,8 +19235,8 @@
         <v>4.2985337672315989E-4</v>
       </c>
       <c r="J51" s="47">
-        <f>MAX(D51,DATA!$C$4)*F50*(1-'MORTALITY RATES MALE'!B111/'MORTALITY RATES MALE'!B110)*G51</f>
-        <v>3.6557957045684529E-3</v>
+        <f>MAX(D51,DATA!$C$4)*F50*(1-'MORTALITY RATES MALE'!B111/'MORTALITY RATES MALE'!B110)*G50</f>
+        <v>4.3009361230217091E-3</v>
       </c>
       <c r="K51" s="47">
         <v>0</v>
@@ -19251,11 +19251,11 @@
       </c>
       <c r="N51" s="47">
         <f t="shared" si="1"/>
-        <v>4.1239407212266882E-3</v>
+        <v>4.7690811396799444E-3</v>
       </c>
       <c r="O51" s="26">
         <f>N51*'EIOPA RATES'!G59</f>
-        <v>1.0713011672621169E-3</v>
+        <v>1.2388932181806762E-3</v>
       </c>
       <c r="Q51" s="85">
         <f>B50*EXP('EIOPA RATES'!Q59)*(DATA!$C$14-DATA!$C$15)</f>
@@ -19303,8 +19303,8 @@
         <v>1.2297178275492098E-4</v>
       </c>
       <c r="J52" s="47">
-        <f>MAX(D52,DATA!$C$4)*F51*(1-'MORTALITY RATES MALE'!B112/'MORTALITY RATES MALE'!B111)*G52</f>
-        <v>1.3944670561555584E-3</v>
+        <f>MAX(D52,DATA!$C$4)*F51*(1-'MORTALITY RATES MALE'!B112/'MORTALITY RATES MALE'!B111)*G51</f>
+        <v>1.640549477830069E-3</v>
       </c>
       <c r="K52" s="47">
         <v>0</v>
@@ -19319,11 +19319,11 @@
       </c>
       <c r="N52" s="47">
         <f t="shared" si="1"/>
-        <v>1.5284032514604068E-3</v>
+        <v>1.7744856731349173E-3</v>
       </c>
       <c r="O52" s="26">
         <f>N52*'EIOPA RATES'!G60</f>
-        <v>3.8457941901977685E-4</v>
+        <v>4.4649909543248737E-4</v>
       </c>
       <c r="Q52" s="85">
         <f>B51*EXP('EIOPA RATES'!Q60)*(DATA!$C$14-DATA!$C$15)</f>
@@ -19370,9 +19370,9 @@
         <f>(D53-DATA!$C$11*((1+DATA!$C$10)^'BASE CASE'!A53))*'BASE CASE'!F53*G52*DATA!$C$12</f>
         <v>5.2777558618500666E-5</v>
       </c>
-      <c r="J53" s="48">
-        <f>MAX(D53,DATA!$C$4)*F52*(1-'MORTALITY RATES MALE'!B113/'MORTALITY RATES MALE'!B112)*G53</f>
-        <v>2.9924338225575763E-4</v>
+      <c r="J53" s="47">
+        <f>MAX(D53,DATA!$C$4)*F52*(1-'MORTALITY RATES MALE'!B113/'MORTALITY RATES MALE'!B112)*G52</f>
+        <v>3.5205103794795016E-4</v>
       </c>
       <c r="K53" s="59">
         <f>G53*F53*D53</f>
@@ -19388,11 +19388,11 @@
       </c>
       <c r="N53" s="48">
         <f t="shared" si="1"/>
-        <v>6.5597434593940389E-4</v>
+        <v>7.0878200163159647E-4</v>
       </c>
       <c r="O53" s="77">
         <f>N53*'EIOPA RATES'!G61</f>
-        <v>1.5985139634570284E-4</v>
+        <v>1.727198530961744E-4</v>
       </c>
       <c r="Q53" s="86">
         <f>B52*EXP('EIOPA RATES'!Q61)*(DATA!$C$14-DATA!$C$15)</f>

--- a/insurance/GROUP_04_SII_project.xlsx
+++ b/insurance/GROUP_04_SII_project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clau7\OneDrive\Desktop\ECO_INS\econometric-insurance\insurance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A61B4C-5684-4F60-B607-D28B0DB9200C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106905F0-02D8-456B-9233-B3FC550065E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" tabRatio="500" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MORTALITY RATES MALE+FEMALE" sheetId="1" r:id="rId1"/>
@@ -1590,67 +1590,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1771,12 +1710,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1784,9 +1717,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1806,6 +1736,76 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2171,16 +2171,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
+      <c r="A1" s="164" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -5329,16 +5329,16 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="105" t="s">
+      <c r="A123" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="B123" s="106"/>
-      <c r="C123" s="106"/>
-      <c r="D123" s="106"/>
-      <c r="E123" s="106"/>
-      <c r="F123" s="106"/>
-      <c r="G123" s="106"/>
-      <c r="H123" s="106"/>
+      <c r="B123" s="165"/>
+      <c r="C123" s="165"/>
+      <c r="D123" s="165"/>
+      <c r="E123" s="165"/>
+      <c r="F123" s="165"/>
+      <c r="G123" s="165"/>
+      <c r="H123" s="165"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5380,30 +5380,30 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42"/>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="174" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="F1" s="116" t="s">
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="F1" s="175" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="117"/>
-      <c r="I1" s="118" t="s">
+      <c r="G1" s="176"/>
+      <c r="I1" s="177" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="120"/>
-      <c r="Q1" s="121" t="s">
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="178"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="179"/>
+      <c r="Q1" s="180" t="s">
         <v>64</v>
       </c>
-      <c r="R1" s="122"/>
-      <c r="S1" s="122"/>
-      <c r="T1" s="123"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="181"/>
+      <c r="T1" s="182"/>
     </row>
     <row r="2" spans="1:24" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27"/>
@@ -9042,30 +9042,30 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42"/>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="174" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="F1" s="116" t="s">
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="F1" s="175" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="117"/>
-      <c r="I1" s="118" t="s">
+      <c r="G1" s="176"/>
+      <c r="I1" s="177" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="120"/>
-      <c r="Q1" s="121" t="s">
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="178"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="179"/>
+      <c r="Q1" s="180" t="s">
         <v>64</v>
       </c>
-      <c r="R1" s="122"/>
-      <c r="S1" s="122"/>
-      <c r="T1" s="123"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="181"/>
+      <c r="T1" s="182"/>
     </row>
     <row r="2" spans="1:24" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27"/>
@@ -12704,30 +12704,30 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42"/>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="174" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="F1" s="116" t="s">
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="F1" s="175" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="117"/>
-      <c r="I1" s="118" t="s">
+      <c r="G1" s="176"/>
+      <c r="I1" s="177" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="120"/>
-      <c r="Q1" s="121" t="s">
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="178"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="179"/>
+      <c r="Q1" s="180" t="s">
         <v>64</v>
       </c>
-      <c r="R1" s="122"/>
-      <c r="S1" s="122"/>
-      <c r="T1" s="123"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="181"/>
+      <c r="T1" s="182"/>
     </row>
     <row r="2" spans="1:24" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27"/>
@@ -16366,30 +16366,30 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42"/>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="174" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="F1" s="116" t="s">
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="F1" s="175" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="117"/>
-      <c r="I1" s="118" t="s">
+      <c r="G1" s="176"/>
+      <c r="I1" s="177" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="120"/>
-      <c r="Q1" s="121" t="s">
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="178"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="179"/>
+      <c r="Q1" s="180" t="s">
         <v>64</v>
       </c>
-      <c r="R1" s="122"/>
-      <c r="S1" s="122"/>
-      <c r="T1" s="123"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="181"/>
+      <c r="T1" s="182"/>
     </row>
     <row r="2" spans="1:24" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27"/>
@@ -20028,30 +20028,30 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42"/>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="174" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="F1" s="116" t="s">
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="F1" s="175" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="117"/>
-      <c r="I1" s="118" t="s">
+      <c r="G1" s="176"/>
+      <c r="I1" s="177" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="120"/>
-      <c r="Q1" s="121" t="s">
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="178"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="179"/>
+      <c r="Q1" s="180" t="s">
         <v>64</v>
       </c>
-      <c r="R1" s="122"/>
-      <c r="S1" s="122"/>
-      <c r="T1" s="123"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="181"/>
+      <c r="T1" s="182"/>
     </row>
     <row r="2" spans="1:24" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27"/>
@@ -23690,30 +23690,30 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42"/>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="174" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="F1" s="116" t="s">
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="F1" s="175" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="117"/>
-      <c r="I1" s="118" t="s">
+      <c r="G1" s="176"/>
+      <c r="I1" s="177" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="120"/>
-      <c r="Q1" s="121" t="s">
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="178"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="179"/>
+      <c r="Q1" s="180" t="s">
         <v>64</v>
       </c>
-      <c r="R1" s="122"/>
-      <c r="S1" s="122"/>
-      <c r="T1" s="123"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="181"/>
+      <c r="T1" s="182"/>
     </row>
     <row r="2" spans="1:24" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27"/>
@@ -27352,30 +27352,30 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42"/>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="174" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="F1" s="116" t="s">
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="F1" s="175" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="117"/>
-      <c r="I1" s="118" t="s">
+      <c r="G1" s="176"/>
+      <c r="I1" s="177" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="120"/>
-      <c r="Q1" s="121" t="s">
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="178"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="179"/>
+      <c r="Q1" s="180" t="s">
         <v>64</v>
       </c>
-      <c r="R1" s="122"/>
-      <c r="S1" s="122"/>
-      <c r="T1" s="123"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="181"/>
+      <c r="T1" s="182"/>
     </row>
     <row r="2" spans="1:24" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27"/>
@@ -31002,15 +31002,15 @@
       <c r="D2" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="124" t="s">
+      <c r="F2" s="186" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="126"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="105"/>
     </row>
     <row r="3" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="121" t="s">
         <v>95</v>
       </c>
       <c r="C3" s="99">
@@ -31021,28 +31021,28 @@
         <f>MAX(0,C3)</f>
         <v>0</v>
       </c>
-      <c r="F3" s="127" t="s">
+      <c r="F3" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="128" t="s">
+      <c r="G3" s="107" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="128" t="s">
+      <c r="H3" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="I3" s="129" t="s">
+      <c r="I3" s="108" t="s">
         <v>84</v>
       </c>
-      <c r="K3" s="151" t="s">
+      <c r="K3" s="130" t="s">
         <v>108</v>
       </c>
-      <c r="L3" s="163" cm="1">
+      <c r="L3" s="142" cm="1">
         <f t="array" ref="L3">SQRT(MMULT(MMULT(G9:I9,G4:I6),TRANSPOSE(G9:I9)))</f>
         <v>1700.3246155055085</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="143" t="s">
+      <c r="B4" s="122" t="s">
         <v>101</v>
       </c>
       <c r="C4" s="100">
@@ -31053,23 +31053,23 @@
         <f t="shared" ref="D4:D12" si="0">MAX(0,C4)</f>
         <v>206.14933033024136</v>
       </c>
-      <c r="F4" s="130" t="s">
+      <c r="F4" s="109" t="s">
         <v>103</v>
       </c>
-      <c r="G4" s="131">
+      <c r="G4" s="110">
         <v>1</v>
       </c>
-      <c r="H4" s="132">
+      <c r="H4" s="111">
         <f>IF(C3&gt;C4,0,0.5)</f>
         <v>0.5</v>
       </c>
-      <c r="I4" s="133">
+      <c r="I4" s="112">
         <f>IF(C3&gt;C4,0,0.5)</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="143" t="s">
+      <c r="B5" s="122" t="s">
         <v>65</v>
       </c>
       <c r="C5" s="100">
@@ -31080,22 +31080,22 @@
         <f t="shared" si="0"/>
         <v>1428.4335093959307</v>
       </c>
-      <c r="F5" s="134" t="s">
+      <c r="F5" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="135">
+      <c r="G5" s="114">
         <f>IF(C3&gt;C4,0,0.5)</f>
         <v>0.5</v>
       </c>
-      <c r="H5" s="136">
+      <c r="H5" s="115">
         <v>1</v>
       </c>
-      <c r="I5" s="137">
+      <c r="I5" s="116">
         <v>0.75</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="122" t="s">
         <v>66</v>
       </c>
       <c r="C6" s="100">
@@ -31106,22 +31106,22 @@
         <f t="shared" si="0"/>
         <v>201.4374872230037</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="F6" s="117" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="139">
+      <c r="G6" s="118">
         <f>IF(C3&gt;C4,0,0.5)</f>
         <v>0.5</v>
       </c>
-      <c r="H6" s="140">
+      <c r="H6" s="119">
         <v>0.75</v>
       </c>
-      <c r="I6" s="141">
+      <c r="I6" s="120">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="144" t="s">
+      <c r="B7" s="123" t="s">
         <v>96</v>
       </c>
       <c r="C7" s="100">
@@ -31134,7 +31134,7 @@
       </c>
     </row>
     <row r="8" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="144" t="s">
+      <c r="B8" s="123" t="s">
         <v>97</v>
       </c>
       <c r="C8" s="100">
@@ -31147,7 +31147,7 @@
       </c>
     </row>
     <row r="9" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="144" t="s">
+      <c r="B9" s="123" t="s">
         <v>98</v>
       </c>
       <c r="C9" s="100">
@@ -31158,26 +31158,26 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="153">
+      <c r="G9" s="132">
         <f>MAX(D3,D4,0)</f>
         <v>206.14933033024136</v>
       </c>
-      <c r="H9" s="154">
+      <c r="H9" s="133">
         <f>D5</f>
         <v>1428.4335093959307</v>
       </c>
-      <c r="I9" s="155">
+      <c r="I9" s="134">
         <f>D6</f>
         <v>201.4374872230037</v>
       </c>
-      <c r="O9" s="159" t="s">
+      <c r="O9" s="138" t="s">
         <v>110</v>
       </c>
-      <c r="P9" s="160"/>
-      <c r="Q9" s="161"/>
+      <c r="P9" s="139"/>
+      <c r="Q9" s="140"/>
     </row>
     <row r="10" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="144" t="s">
+      <c r="B10" s="123" t="s">
         <v>99</v>
       </c>
       <c r="C10" s="100">
@@ -31188,25 +31188,25 @@
         <f t="shared" si="0"/>
         <v>1050.277625783463</v>
       </c>
-      <c r="O10" s="127" t="s">
+      <c r="O10" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="P10" s="156" t="s">
+      <c r="P10" s="135" t="s">
         <v>111</v>
       </c>
-      <c r="Q10" s="156" t="s">
+      <c r="Q10" s="135" t="s">
         <v>112</v>
       </c>
-      <c r="S10" s="162" t="s">
+      <c r="S10" s="141" t="s">
         <v>113</v>
       </c>
-      <c r="T10" s="163">
+      <c r="T10" s="142">
         <f>SQRT(SUM(L3*L3,M14*M14,P12*L3*M14*2))</f>
         <v>2225.4427882976565</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="144" t="s">
+      <c r="B11" s="123" t="s">
         <v>90</v>
       </c>
       <c r="C11" s="100">
@@ -31217,18 +31217,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O11" s="157" t="s">
+      <c r="O11" s="136" t="s">
         <v>111</v>
       </c>
-      <c r="P11" s="131">
+      <c r="P11" s="110">
         <v>1</v>
       </c>
-      <c r="Q11" s="158">
+      <c r="Q11" s="137">
         <v>0.25</v>
       </c>
     </row>
     <row r="12" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="145" t="s">
+      <c r="B12" s="124" t="s">
         <v>100</v>
       </c>
       <c r="C12" s="101">
@@ -31239,131 +31239,131 @@
         <f t="shared" si="0"/>
         <v>42.130771488155005</v>
       </c>
-      <c r="O12" s="157" t="s">
+      <c r="O12" s="136" t="s">
         <v>112</v>
       </c>
-      <c r="P12" s="131">
+      <c r="P12" s="110">
         <v>0.25</v>
       </c>
-      <c r="Q12" s="158">
+      <c r="Q12" s="137">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F13" s="146" t="s">
+      <c r="F13" s="125" t="s">
         <v>104</v>
       </c>
-      <c r="G13" s="148"/>
-      <c r="H13" s="148"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="149"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="128"/>
     </row>
     <row r="14" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F14" s="127" t="s">
+      <c r="F14" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="G14" s="147" t="s">
+      <c r="G14" s="126" t="s">
         <v>86</v>
       </c>
-      <c r="H14" s="147" t="s">
+      <c r="H14" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="I14" s="147" t="s">
+      <c r="I14" s="126" t="s">
         <v>90</v>
       </c>
-      <c r="J14" s="147" t="s">
+      <c r="J14" s="126" t="s">
         <v>106</v>
       </c>
-      <c r="L14" s="152" t="s">
+      <c r="L14" s="131" t="s">
         <v>109</v>
       </c>
-      <c r="M14" s="163" cm="1">
+      <c r="M14" s="142" cm="1">
         <f t="array" ref="M14">SQRT(MMULT(MMULT(G20:J20,G15:J18),TRANSPOSE(G20:J20)))</f>
         <v>1072.3118450631016</v>
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="F15" s="150" t="s">
+      <c r="F15" s="129" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="131">
+      <c r="G15" s="110">
         <v>1</v>
       </c>
-      <c r="H15" s="131">
-        <v>0</v>
-      </c>
-      <c r="I15" s="131">
+      <c r="H15" s="110">
+        <v>0</v>
+      </c>
+      <c r="I15" s="110">
         <v>0.25</v>
       </c>
-      <c r="J15" s="131">
+      <c r="J15" s="110">
         <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="F16" s="150" t="s">
+      <c r="F16" s="129" t="s">
         <v>105</v>
       </c>
-      <c r="G16" s="131">
-        <v>0</v>
-      </c>
-      <c r="H16" s="131">
+      <c r="G16" s="110">
+        <v>0</v>
+      </c>
+      <c r="H16" s="110">
         <v>1</v>
       </c>
-      <c r="I16" s="131">
+      <c r="I16" s="110">
         <v>0.25</v>
       </c>
-      <c r="J16" s="131">
+      <c r="J16" s="110">
         <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F17" s="150" t="s">
+      <c r="F17" s="129" t="s">
         <v>90</v>
       </c>
-      <c r="G17" s="131">
+      <c r="G17" s="110">
         <v>0.25</v>
       </c>
-      <c r="H17" s="131">
+      <c r="H17" s="110">
         <v>0.25</v>
       </c>
-      <c r="I17" s="131">
+      <c r="I17" s="110">
         <v>1</v>
       </c>
-      <c r="J17" s="131">
+      <c r="J17" s="110">
         <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F18" s="150" t="s">
+      <c r="F18" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="G18" s="131">
+      <c r="G18" s="110">
         <v>0.25</v>
       </c>
-      <c r="H18" s="131">
+      <c r="H18" s="110">
         <v>0.5</v>
       </c>
-      <c r="I18" s="131">
+      <c r="I18" s="110">
         <v>0.25</v>
       </c>
-      <c r="J18" s="131">
+      <c r="J18" s="110">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="G20" s="153">
+      <c r="G20" s="132">
         <f>D7</f>
         <v>18.733856347666006</v>
       </c>
-      <c r="H20" s="154">
+      <c r="H20" s="133">
         <f>MAX(0,D8,D9,D10)</f>
         <v>1050.277625783463</v>
       </c>
-      <c r="I20" s="154">
+      <c r="I20" s="133">
         <f>D11</f>
         <v>0</v>
       </c>
-      <c r="J20" s="155">
+      <c r="J20" s="134">
         <f>D12</f>
         <v>42.130771488155005</v>
       </c>
@@ -31397,16 +31397,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -34555,16 +34555,16 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="105" t="s">
+      <c r="A123" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="B123" s="106"/>
-      <c r="C123" s="106"/>
-      <c r="D123" s="106"/>
-      <c r="E123" s="106"/>
-      <c r="F123" s="106"/>
-      <c r="G123" s="106"/>
-      <c r="H123" s="106"/>
+      <c r="B123" s="165"/>
+      <c r="C123" s="165"/>
+      <c r="D123" s="165"/>
+      <c r="E123" s="165"/>
+      <c r="F123" s="165"/>
+      <c r="G123" s="165"/>
+      <c r="H123" s="165"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -34600,21 +34600,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="G1" s="107" t="s">
+      <c r="G1" s="166" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="L1" s="108" t="s">
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="L1" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="Q1" s="108" t="s">
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="Q1" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
+      <c r="R1" s="167"/>
+      <c r="S1" s="167"/>
     </row>
     <row r="2" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -42418,14 +42418,14 @@
   <sheetData>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="170" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="E3" s="113" t="s">
+      <c r="C3" s="171"/>
+      <c r="E3" s="172" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="114"/>
+      <c r="F3" s="173"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="28" t="s">
@@ -42595,10 +42595,10 @@
       <c r="C16" s="25"/>
     </row>
     <row r="17" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="109" t="s">
+      <c r="B17" s="168" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="110"/>
+      <c r="C17" s="169"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="28" t="s">
@@ -42665,30 +42665,30 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42"/>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="174" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="F1" s="116" t="s">
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="F1" s="175" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="117"/>
-      <c r="I1" s="118" t="s">
+      <c r="G1" s="176"/>
+      <c r="I1" s="177" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="120"/>
-      <c r="Q1" s="121" t="s">
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="178"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="179"/>
+      <c r="Q1" s="180" t="s">
         <v>64</v>
       </c>
-      <c r="R1" s="122"/>
-      <c r="S1" s="122"/>
-      <c r="T1" s="123"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="181"/>
+      <c r="T1" s="182"/>
     </row>
     <row r="2" spans="1:24" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27"/>
@@ -46301,7 +46301,7 @@
   <dimension ref="G2:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -46311,404 +46311,404 @@
   <sheetData>
     <row r="2" spans="7:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="7:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="165"/>
-      <c r="H3" s="172" t="s">
+      <c r="G3" s="144"/>
+      <c r="H3" s="151" t="s">
         <v>114</v>
       </c>
-      <c r="I3" s="173" t="s">
+      <c r="I3" s="152" t="s">
         <v>68</v>
       </c>
-      <c r="J3" s="173" t="s">
+      <c r="J3" s="152" t="s">
         <v>115</v>
       </c>
-      <c r="K3" s="173" t="s">
+      <c r="K3" s="152" t="s">
         <v>94</v>
       </c>
-      <c r="L3" s="173" t="s">
+      <c r="L3" s="152" t="s">
         <v>118</v>
       </c>
-      <c r="M3" s="174" t="s">
+      <c r="M3" s="153" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="4" spans="7:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G4" s="182" t="s">
+      <c r="G4" s="158" t="s">
         <v>117</v>
       </c>
-      <c r="H4" s="178">
+      <c r="H4" s="155">
         <f>'BASE CASE'!$D$3</f>
         <v>70000</v>
       </c>
-      <c r="I4" s="170">
+      <c r="I4" s="149">
         <f>'BASE CASE'!X3</f>
         <v>66208.72677363352</v>
       </c>
-      <c r="J4" s="170">
+      <c r="J4" s="149">
         <f>'BASE CASE'!X11</f>
         <v>3791.2732263664802</v>
       </c>
-      <c r="K4" s="171" t="s">
+      <c r="K4" s="150" t="s">
         <v>119</v>
       </c>
-      <c r="L4" s="171" t="s">
+      <c r="L4" s="150" t="s">
         <v>119</v>
       </c>
-      <c r="M4" s="170">
+      <c r="M4" s="149">
         <f>'BASE CASE'!X18</f>
         <v>5.6396510881148894</v>
       </c>
     </row>
     <row r="5" spans="7:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="183" t="s">
+      <c r="G5" s="159" t="s">
         <v>95</v>
       </c>
-      <c r="H5" s="179">
+      <c r="H5" s="156">
         <f>IR_up!$D$3</f>
         <v>70000</v>
       </c>
-      <c r="I5" s="164">
+      <c r="I5" s="143">
         <f>IR_up!X3</f>
         <v>66191.53576336136</v>
       </c>
-      <c r="J5" s="164">
+      <c r="J5" s="143">
         <f>IR_up!X11</f>
         <v>3808.4642366386397</v>
       </c>
-      <c r="K5" s="164">
+      <c r="K5" s="143">
         <f>BSCR!C3</f>
         <v>-17.191010272159474</v>
       </c>
-      <c r="L5" s="164">
+      <c r="L5" s="143">
         <f>BSCR!D3</f>
         <v>0</v>
       </c>
-      <c r="M5" s="164">
+      <c r="M5" s="143">
         <f>IR_up!X18</f>
         <v>5.6390317398790133</v>
       </c>
     </row>
     <row r="6" spans="7:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G6" s="183" t="s">
+      <c r="G6" s="159" t="s">
         <v>101</v>
       </c>
-      <c r="H6" s="179">
+      <c r="H6" s="156">
         <f>IR_down!$D$3</f>
         <v>70000</v>
       </c>
-      <c r="I6" s="164">
+      <c r="I6" s="143">
         <f>IR_down!X3</f>
         <v>66414.876103963761</v>
       </c>
-      <c r="J6" s="164">
+      <c r="J6" s="143">
         <f>IR_down!X11</f>
         <v>3585.1238960362389</v>
       </c>
-      <c r="K6" s="164">
+      <c r="K6" s="143">
         <f>BSCR!C4</f>
         <v>206.14933033024136</v>
       </c>
-      <c r="L6" s="164">
+      <c r="L6" s="143">
         <f>BSCR!D4</f>
         <v>206.14933033024136</v>
       </c>
-      <c r="M6" s="164">
+      <c r="M6" s="143">
         <f>IR_down!X18</f>
         <v>5.6572731842735076</v>
       </c>
     </row>
     <row r="7" spans="7:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G7" s="183" t="s">
+      <c r="G7" s="159" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="179">
+      <c r="H7" s="156">
         <f>EQ!$D$3</f>
         <v>45180.800000000003</v>
       </c>
-      <c r="I7" s="164">
+      <c r="I7" s="143">
         <f>EQ!X3</f>
         <v>42817.960283029453</v>
       </c>
-      <c r="J7" s="164">
+      <c r="J7" s="143">
         <f>EQ!X11</f>
         <v>2362.8397169705495</v>
       </c>
-      <c r="K7" s="164">
+      <c r="K7" s="143">
         <f>BSCR!C5</f>
         <v>1428.4335093959307</v>
       </c>
-      <c r="L7" s="164">
+      <c r="L7" s="143">
         <f>BSCR!D5</f>
         <v>1428.4335093959307</v>
       </c>
-      <c r="M7" s="164">
+      <c r="M7" s="143">
         <f>EQ!X18</f>
         <v>5.6398775789502436</v>
       </c>
     </row>
     <row r="8" spans="7:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G8" s="183" t="s">
+      <c r="G8" s="159" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="179">
+      <c r="H8" s="156">
         <f>PROP!$D$3</f>
         <v>66500</v>
       </c>
-      <c r="I8" s="164">
+      <c r="I8" s="143">
         <f>PROP!X3</f>
         <v>62910.164260856523</v>
       </c>
-      <c r="J8" s="164">
+      <c r="J8" s="143">
         <f>PROP!X11</f>
         <v>3589.8357391434765</v>
       </c>
-      <c r="K8" s="164">
+      <c r="K8" s="143">
         <f>BSCR!C6</f>
         <v>201.4374872230037</v>
       </c>
-      <c r="L8" s="164">
+      <c r="L8" s="143">
         <f>BSCR!D6</f>
         <v>201.4374872230037</v>
       </c>
-      <c r="M8" s="164">
+      <c r="M8" s="143">
         <f>PROP!X18</f>
         <v>5.6396728269393241</v>
       </c>
     </row>
     <row r="9" spans="7:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G9" s="183" t="s">
+      <c r="G9" s="159" t="s">
         <v>96</v>
       </c>
-      <c r="H9" s="179">
+      <c r="H9" s="156">
         <f>MORT!$D$3</f>
         <v>70000</v>
       </c>
-      <c r="I9" s="164">
+      <c r="I9" s="143">
         <f>MORT!X3</f>
         <v>66227.460629981186</v>
       </c>
-      <c r="J9" s="164">
+      <c r="J9" s="143">
         <f>MORT!X11</f>
         <v>3772.5393700188142</v>
       </c>
-      <c r="K9" s="164">
+      <c r="K9" s="143">
         <f>BSCR!C7</f>
         <v>18.733856347666006</v>
       </c>
-      <c r="L9" s="164">
+      <c r="L9" s="143">
         <f>BSCR!D7</f>
         <v>18.733856347666006</v>
       </c>
-      <c r="M9" s="164">
+      <c r="M9" s="143">
         <f>MORT!X18</f>
         <v>5.601952780341696</v>
       </c>
     </row>
     <row r="10" spans="7:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G10" s="183" t="s">
+      <c r="G10" s="159" t="s">
         <v>97</v>
       </c>
-      <c r="H10" s="179">
+      <c r="H10" s="156">
         <f>LAPSE_up!$D$3</f>
         <v>70000</v>
       </c>
-      <c r="I10" s="164">
+      <c r="I10" s="143">
         <f>LAPSE_up!X3</f>
         <v>66979.325538445424</v>
       </c>
-      <c r="J10" s="164">
+      <c r="J10" s="143">
         <f>LAPSE_up!X11</f>
         <v>3020.6744615545758</v>
       </c>
-      <c r="K10" s="164">
+      <c r="K10" s="143">
         <f>BSCR!C8</f>
         <v>770.5987648119044</v>
       </c>
-      <c r="L10" s="164">
+      <c r="L10" s="143">
         <f>BSCR!D8</f>
         <v>770.5987648119044</v>
       </c>
-      <c r="M10" s="164">
+      <c r="M10" s="143">
         <f>LAPSE_up!X18</f>
         <v>4.0261139610171313</v>
       </c>
     </row>
     <row r="11" spans="7:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G11" s="183" t="s">
+      <c r="G11" s="159" t="s">
         <v>98</v>
       </c>
-      <c r="H11" s="179">
+      <c r="H11" s="156">
         <f>LAPSE_down!$D$3</f>
         <v>70000</v>
       </c>
-      <c r="I11" s="164">
+      <c r="I11" s="143">
         <f>LAPSE_down!X3</f>
         <v>64575.744615360163</v>
       </c>
-      <c r="J11" s="164">
+      <c r="J11" s="143">
         <f>LAPSE_down!X11</f>
         <v>5424.2553846398368</v>
       </c>
-      <c r="K11" s="164">
+      <c r="K11" s="143">
         <f>BSCR!C9</f>
         <v>-1632.9821582733566</v>
       </c>
-      <c r="L11" s="164">
+      <c r="L11" s="143">
         <f>BSCR!D9</f>
         <v>0</v>
       </c>
-      <c r="M11" s="164">
+      <c r="M11" s="143">
         <f>LAPSE_down!X18</f>
         <v>9.1284545589163226</v>
       </c>
     </row>
     <row r="12" spans="7:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G12" s="183" t="s">
+      <c r="G12" s="159" t="s">
         <v>99</v>
       </c>
-      <c r="H12" s="179">
+      <c r="H12" s="156">
         <f>LAPSE_mass!$D$3</f>
         <v>70000</v>
       </c>
-      <c r="I12" s="164">
+      <c r="I12" s="143">
         <f>LAPSE_mass!X3</f>
         <v>67259.004399416983</v>
       </c>
-      <c r="J12" s="164">
+      <c r="J12" s="143">
         <f>LAPSE_mass!X11</f>
         <v>2740.9956005830172</v>
       </c>
-      <c r="K12" s="164">
+      <c r="K12" s="143">
         <f>BSCR!C10</f>
         <v>1050.277625783463</v>
       </c>
-      <c r="L12" s="164">
+      <c r="L12" s="143">
         <f>BSCR!D10</f>
         <v>1050.277625783463</v>
       </c>
-      <c r="M12" s="164">
+      <c r="M12" s="143">
         <f>LAPSE_mass!X18</f>
         <v>3.4179299338244862</v>
       </c>
     </row>
     <row r="13" spans="7:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G13" s="183" t="s">
+      <c r="G13" s="159" t="s">
         <v>90</v>
       </c>
-      <c r="H13" s="179">
+      <c r="H13" s="156">
         <f>CAT!$D$3</f>
         <v>70000</v>
       </c>
-      <c r="I13" s="164">
+      <c r="I13" s="143">
         <f>CAT!X3</f>
         <v>65856.094380571623</v>
       </c>
-      <c r="J13" s="164">
+      <c r="J13" s="143">
         <f>CAT!X11</f>
         <v>4143.9056194283767</v>
       </c>
-      <c r="K13" s="164">
+      <c r="K13" s="143">
         <f>BSCR!C11</f>
         <v>-352.63239306189644</v>
       </c>
-      <c r="L13" s="164">
+      <c r="L13" s="143">
         <f>BSCR!D11</f>
         <v>0</v>
       </c>
-      <c r="M13" s="164">
+      <c r="M13" s="143">
         <f>CAT!X18</f>
         <v>5.6064417958907145</v>
       </c>
     </row>
     <row r="14" spans="7:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G14" s="183" t="s">
+      <c r="G14" s="159" t="s">
         <v>100</v>
       </c>
-      <c r="H14" s="180">
+      <c r="H14" s="157">
         <f>EXP!$D$3</f>
         <v>70000</v>
       </c>
-      <c r="I14" s="175">
+      <c r="I14" s="154">
         <f>EXP!X3</f>
         <v>66250.857545121675</v>
       </c>
-      <c r="J14" s="175">
+      <c r="J14" s="154">
         <f>EXP!X11</f>
         <v>3749.1424548783252</v>
       </c>
-      <c r="K14" s="175">
+      <c r="K14" s="154">
         <f>BSCR!C12</f>
         <v>42.130771488155005</v>
       </c>
-      <c r="L14" s="175">
+      <c r="L14" s="154">
         <f>BSCR!D12</f>
         <v>42.130771488155005</v>
       </c>
-      <c r="M14" s="175">
+      <c r="M14" s="154">
         <f>EXP!X18</f>
         <v>5.6408147758627285</v>
       </c>
     </row>
     <row r="15" spans="7:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G15" s="184" t="s">
+      <c r="G15" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="H15" s="181">
+      <c r="H15" s="183">
         <f>BSCR!T10</f>
         <v>2225.4427882976565</v>
       </c>
-      <c r="I15" s="176"/>
-      <c r="J15" s="176"/>
-      <c r="K15" s="176"/>
-      <c r="L15" s="176"/>
-      <c r="M15" s="177"/>
+      <c r="I15" s="184"/>
+      <c r="J15" s="184"/>
+      <c r="K15" s="184"/>
+      <c r="L15" s="184"/>
+      <c r="M15" s="185"/>
     </row>
     <row r="17" spans="7:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="7:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G18" s="165"/>
-      <c r="H18" s="167" t="s">
+      <c r="G18" s="144"/>
+      <c r="H18" s="146" t="s">
         <v>69</v>
       </c>
-      <c r="I18" s="168" t="s">
+      <c r="I18" s="147" t="s">
         <v>70</v>
       </c>
-      <c r="J18" s="168" t="s">
+      <c r="J18" s="147" t="s">
         <v>71</v>
       </c>
-      <c r="K18" s="168" t="s">
+      <c r="K18" s="147" t="s">
         <v>74</v>
       </c>
-      <c r="L18" s="168" t="s">
+      <c r="L18" s="147" t="s">
+        <v>73</v>
+      </c>
+      <c r="M18" s="148" t="s">
         <v>72</v>
       </c>
-      <c r="M18" s="169" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="19" spans="7:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G19" s="166" t="s">
+      <c r="G19" s="145" t="s">
         <v>68</v>
       </c>
-      <c r="H19" s="185">
+      <c r="H19" s="161">
         <f>'BASE CASE'!$X4</f>
         <v>0</v>
       </c>
-      <c r="I19" s="186">
+      <c r="I19" s="162">
         <f>'BASE CASE'!$X5</f>
         <v>57189.370700905987</v>
       </c>
-      <c r="J19" s="186">
+      <c r="J19" s="162">
         <f>'BASE CASE'!$X6</f>
         <v>4123.2970154708546</v>
       </c>
-      <c r="K19" s="186">
+      <c r="K19" s="162">
         <f>'BASE CASE'!$X7</f>
         <v>4.9233144930308404E-5</v>
       </c>
-      <c r="L19" s="186">
+      <c r="L19" s="162">
         <f>'BASE CASE'!$X8</f>
         <v>4640.5462986818538</v>
       </c>
-      <c r="M19" s="187">
+      <c r="M19" s="163">
         <f>'BASE CASE'!$X9</f>
         <v>255.51270934167138</v>
       </c>
@@ -46752,30 +46752,30 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42"/>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="174" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="F1" s="116" t="s">
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="F1" s="175" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="117"/>
-      <c r="I1" s="118" t="s">
+      <c r="G1" s="176"/>
+      <c r="I1" s="177" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="120"/>
-      <c r="Q1" s="121" t="s">
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="178"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="179"/>
+      <c r="Q1" s="180" t="s">
         <v>64</v>
       </c>
-      <c r="R1" s="122"/>
-      <c r="S1" s="122"/>
-      <c r="T1" s="123"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="181"/>
+      <c r="T1" s="182"/>
     </row>
     <row r="2" spans="1:24" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27"/>
@@ -50414,30 +50414,30 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42"/>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="174" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="F1" s="116" t="s">
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="F1" s="175" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="117"/>
-      <c r="I1" s="118" t="s">
+      <c r="G1" s="176"/>
+      <c r="I1" s="177" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="120"/>
-      <c r="Q1" s="121" t="s">
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="178"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="179"/>
+      <c r="Q1" s="180" t="s">
         <v>64</v>
       </c>
-      <c r="R1" s="122"/>
-      <c r="S1" s="122"/>
-      <c r="T1" s="123"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="181"/>
+      <c r="T1" s="182"/>
     </row>
     <row r="2" spans="1:24" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27"/>
@@ -54076,30 +54076,30 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42"/>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="174" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="F1" s="116" t="s">
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="F1" s="175" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="117"/>
-      <c r="I1" s="118" t="s">
+      <c r="G1" s="176"/>
+      <c r="I1" s="177" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="120"/>
-      <c r="Q1" s="121" t="s">
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="178"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="179"/>
+      <c r="Q1" s="180" t="s">
         <v>64</v>
       </c>
-      <c r="R1" s="122"/>
-      <c r="S1" s="122"/>
-      <c r="T1" s="123"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="181"/>
+      <c r="T1" s="182"/>
     </row>
     <row r="2" spans="1:24" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27"/>

--- a/insurance/GROUP_04_SII_project.xlsx
+++ b/insurance/GROUP_04_SII_project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clau7\OneDrive\Desktop\ECO_INS\econometric-insurance\insurance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106905F0-02D8-456B-9233-B3FC550065E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51900AE9-BC15-40F7-AACA-0806A9DDC3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="638" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MORTALITY RATES MALE+FEMALE" sheetId="1" r:id="rId1"/>
@@ -23663,8 +23663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADDBFDB-62A6-4A3C-B6DB-065DCC59995A}">
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30987,8 +30987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6AE77BB-633F-41AF-8899-5E5238515503}">
   <dimension ref="B1:T20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42404,8 +42404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8573D452-C87C-408F-8FCB-96206894331F}">
   <dimension ref="B2:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42541,7 +42541,6 @@
         <v>90</v>
       </c>
       <c r="F11" s="95">
-        <f>1.5/1000</f>
         <v>1.5E-3</v>
       </c>
     </row>
@@ -42638,8 +42637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD73126-F20D-45CA-BC7D-AAAD6494E8F5}">
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="V26" sqref="V26"/>
+    <sheetView topLeftCell="I1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46300,8 +46299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CB233F-D451-4CD5-9492-FCAA19CA9724}">
   <dimension ref="G2:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -46693,12 +46692,12 @@
         <v>0</v>
       </c>
       <c r="I19" s="162">
+        <f>'BASE CASE'!$X6</f>
+        <v>4123.2970154708546</v>
+      </c>
+      <c r="J19" s="162">
         <f>'BASE CASE'!$X5</f>
         <v>57189.370700905987</v>
-      </c>
-      <c r="J19" s="162">
-        <f>'BASE CASE'!$X6</f>
-        <v>4123.2970154708546</v>
       </c>
       <c r="K19" s="162">
         <f>'BASE CASE'!$X7</f>
@@ -46725,8 +46724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD85231-2937-4CB6-90BC-90306876CE7D}">
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView topLeftCell="S2" workbookViewId="0">
-      <selection activeCell="W39" sqref="W39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50387,8 +50386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF09AF4-F3C4-49BB-9784-8BDC230721D7}">
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:J53"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="X30" sqref="X30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50701,9 +50700,9 @@
       <c r="W5" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="X5" s="70" t="e">
-        <f>SUMPRODUCT(I4:I53,'EIOPA RATES'!H12:I61)</f>
-        <v>#VALUE!</v>
+      <c r="X5" s="70">
+        <f>SUMPRODUCT(I4:I53,'EIOPA RATES'!I12:I61)</f>
+        <v>57188.38382334949</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -50776,9 +50775,9 @@
       <c r="W6" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="X6" s="70" t="e">
-        <f>SUMPRODUCT(J4:J53,'EIOPA RATES'!H12:I61)</f>
-        <v>#VALUE!</v>
+      <c r="X6" s="70">
+        <f>SUMPRODUCT(J4:J53,'EIOPA RATES'!I12:I61)</f>
+        <v>4316.4524579736662</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -50851,9 +50850,9 @@
       <c r="W7" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="X7" s="70" t="e">
-        <f>SUMPRODUCT(K4:K53,'EIOPA RATES'!H12:I61)</f>
-        <v>#VALUE!</v>
+      <c r="X7" s="70">
+        <f>SUMPRODUCT(K4:K53,'EIOPA RATES'!I12:I61)</f>
+        <v>4.923314493030837E-5</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -50926,9 +50925,9 @@
       <c r="W8" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="X8" s="70" t="e">
-        <f>SUMPRODUCT(L4:L53,'EIOPA RATES'!H12:I61)</f>
-        <v>#VALUE!</v>
+      <c r="X8" s="70">
+        <f>SUMPRODUCT(L4:L53,'EIOPA RATES'!I12:I61)</f>
+        <v>4640.5462986818538</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51001,9 +51000,9 @@
       <c r="W9" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="X9" s="71" t="e">
-        <f>SUMPRODUCT(M4:M53,'EIOPA RATES'!H12:I61)</f>
-        <v>#VALUE!</v>
+      <c r="X9" s="71">
+        <f>SUMPRODUCT(M4:M53,'EIOPA RATES'!I12:I61)</f>
+        <v>269.49347472563193</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -54049,8 +54048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77AD5D3-C8A9-4F65-8C65-C154EA485483}">
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:J53"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
